--- a/ta/指派結果/TRTS-4S屏柵線.xlsx
+++ b/ta/指派結果/TRTS-4S屏柵線.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\指派結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E615AD8-F6CB-42A9-BBD0-55FC17003F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3B03A-8FFC-4B9B-B80D-13DE1034D8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
   </bookViews>
   <sheets>
     <sheet name="節點編號" sheetId="1" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1561,13 +1561,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1591,12 +1588,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1606,11 +1597,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1950,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B91B70-CCE3-4F38-82D1-372C96A2E9C6}">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2149,8 +2143,8 @@
       <c r="H9">
         <v>6312</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
@@ -3215,8 +3209,8 @@
       <c r="H62">
         <v>5341</v>
       </c>
-      <c r="J62" s="53"/>
-      <c r="K62" s="54"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="31"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
@@ -3349,16 +3343,16 @@
         <v>213</v>
       </c>
       <c r="D69">
-        <v>6168</v>
+        <v>5931</v>
       </c>
       <c r="E69">
-        <v>6137</v>
+        <v>5932</v>
       </c>
       <c r="G69">
-        <v>6137</v>
+        <v>7670</v>
       </c>
       <c r="H69">
-        <v>6168</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3581,7 +3575,7 @@
         <v>6096</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
@@ -3601,7 +3595,7 @@
         <v>6010</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:17">
       <c r="A82" s="1" t="s">
         <v>39</v>
       </c>
@@ -3624,7 +3618,7 @@
         <v>6006</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:17">
       <c r="A83" s="1" t="s">
         <v>39</v>
       </c>
@@ -3643,64 +3637,62 @@
       <c r="H83">
         <v>6180</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="J83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M83">
+        <v>6001</v>
+      </c>
+      <c r="N83">
+        <v>7699</v>
+      </c>
+      <c r="P83">
+        <v>7699</v>
+      </c>
+      <c r="Q83">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="D84">
-        <v>6001</v>
+        <v>6175</v>
       </c>
       <c r="E84">
-        <v>7699</v>
+        <v>6174</v>
       </c>
       <c r="G84">
-        <v>7699</v>
+        <v>6174</v>
       </c>
       <c r="H84">
-        <v>6001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85">
-        <v>6175</v>
+        <v>6146</v>
       </c>
       <c r="E85">
-        <v>6174</v>
+        <v>16133</v>
       </c>
       <c r="G85">
-        <v>6174</v>
+        <v>16133</v>
       </c>
       <c r="H85">
-        <v>6175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D86">
-        <v>6146</v>
-      </c>
-      <c r="E86">
-        <v>16133</v>
-      </c>
-      <c r="G86">
-        <v>16133</v>
-      </c>
-      <c r="H86">
         <v>6146</v>
       </c>
     </row>
@@ -4688,6 +4680,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -4700,11 +4697,6 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4717,7 +4709,7 @@
   <dimension ref="A1:O226"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:L59"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4745,18 +4737,18 @@
     <row r="1" spans="1:15">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
       <c r="N1" s="14" t="s">
         <v>87</v>
       </c>
@@ -4765,26 +4757,26 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="50" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49"/>
       <c r="N2" s="1" t="s">
         <v>90</v>
       </c>
@@ -4793,8 +4785,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
@@ -5959,7 +5951,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="38"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="21" t="s">
         <v>63</v>
       </c>
@@ -6013,18 +6005,18 @@
     <row r="31" spans="1:15">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
       <c r="N31" s="1" t="s">
         <v>137</v>
       </c>
@@ -6033,26 +6025,26 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="45" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="47"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="46"/>
       <c r="N32" s="1" t="s">
         <v>139</v>
       </c>
@@ -6061,8 +6053,8 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
@@ -7227,7 +7219,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="38"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="21" t="s">
         <v>63</v>
       </c>
@@ -8047,6 +8039,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A2:A3"/>
@@ -8059,30 +8075,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ta/指派結果/TRTS-4S屏柵線.xlsx
+++ b/ta/指派結果/TRTS-4S屏柵線.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\指派結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3B03A-8FFC-4B9B-B80D-13DE1034D8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5380849E-9B16-4C0F-B836-D2DAD92260DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
   </bookViews>
   <sheets>
     <sheet name="節點編號" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="333">
   <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1446,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1605,6 +1605,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1946,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B91B70-CCE3-4F38-82D1-372C96A2E9C6}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1955,7 +1961,7 @@
     <col min="2" max="2" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>27278</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2021,7 +2027,7 @@
         <v>6666</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2041,7 +2047,7 @@
         <v>10247</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>10248</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>6680</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2123,8 +2129,26 @@
       <c r="H8">
         <v>6326</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <v>6327</v>
+      </c>
+      <c r="N8">
+        <v>5340</v>
+      </c>
+      <c r="P8">
+        <v>6311</v>
+      </c>
+      <c r="Q8">
+        <v>6312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2143,10 +2167,10 @@
       <c r="H9">
         <v>6312</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2166,7 +2190,7 @@
         <v>10219</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2186,7 +2210,7 @@
         <v>10220</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2206,7 +2230,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2226,7 +2250,7 @@
         <v>6964</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -2246,7 +2270,7 @@
         <v>7996</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -2266,7 +2290,7 @@
         <v>7989</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3209,8 +3233,8 @@
       <c r="H62">
         <v>5341</v>
       </c>
-      <c r="J62" s="30"/>
-      <c r="K62" s="31"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="54"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">

--- a/ta/指派結果/TRTS-4S屏柵線.xlsx
+++ b/ta/指派結果/TRTS-4S屏柵線.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\指派結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5380849E-9B16-4C0F-B836-D2DAD92260DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC09388D-BAF2-46BB-B501-20BCC5490DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
+    <workbookView xWindow="3825" yWindow="3645" windowWidth="21600" windowHeight="11835" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
   </bookViews>
   <sheets>
     <sheet name="節點編號" sheetId="1" r:id="rId1"/>
@@ -1104,14 +1104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建國北路(國一往北)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建國北路(國一往南)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中山北路(慢車道)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1129,6 +1121,14 @@
   </si>
   <si>
     <t>SL2</t>
+  </si>
+  <si>
+    <t>建國北路高架(國一往北)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建國北路平面(國一往南)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1446,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1561,10 +1561,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,6 +1591,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1596,21 +1605,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1952,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B91B70-CCE3-4F38-82D1-372C96A2E9C6}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2167,8 +2161,8 @@
       <c r="H9">
         <v>6312</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
@@ -2392,7 +2386,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>107</v>
@@ -2412,7 +2406,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>109</v>
@@ -2432,7 +2426,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>111</v>
@@ -2452,7 +2446,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>113</v>
@@ -2472,10 +2466,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D25">
         <v>8371</v>
@@ -2492,7 +2486,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>115</v>
@@ -2512,7 +2506,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>117</v>
@@ -2532,7 +2526,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>119</v>
@@ -2552,7 +2546,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>121</v>
@@ -2572,10 +2566,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D30">
         <v>8432</v>
@@ -2592,7 +2586,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>123</v>
@@ -2612,7 +2606,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>125</v>
@@ -2632,10 +2626,10 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D33">
         <v>8535</v>
@@ -2652,7 +2646,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>127</v>
@@ -2672,7 +2666,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>131</v>
@@ -2692,7 +2686,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>133</v>
@@ -2712,10 +2706,10 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D37">
         <v>7771</v>
@@ -2732,7 +2726,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>135</v>
@@ -2752,7 +2746,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>138</v>
@@ -2774,7 +2768,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>140</v>
@@ -2794,7 +2788,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>142</v>
@@ -2814,7 +2808,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>144</v>
@@ -2834,7 +2828,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>146</v>
@@ -2854,7 +2848,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>148</v>
@@ -2874,7 +2868,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>150</v>
@@ -2897,13 +2891,13 @@
         <v>309</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D46">
-        <v>6645</v>
+        <v>6382</v>
       </c>
       <c r="E46">
-        <v>6691</v>
+        <v>6383</v>
       </c>
       <c r="G46">
         <v>6381</v>
@@ -2917,13 +2911,13 @@
         <v>309</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D47">
-        <v>6324</v>
+        <v>6690</v>
       </c>
       <c r="E47">
-        <v>6382</v>
+        <v>6359</v>
       </c>
       <c r="G47">
         <v>6384</v>
@@ -3233,8 +3227,8 @@
       <c r="H62">
         <v>5341</v>
       </c>
-      <c r="J62" s="53"/>
-      <c r="K62" s="54"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="31"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
@@ -4704,11 +4698,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -4721,6 +4710,11 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4761,18 +4755,18 @@
     <row r="1" spans="1:15">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
       <c r="N1" s="14" t="s">
         <v>87</v>
       </c>
@@ -4781,26 +4775,26 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="49"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
       <c r="N2" s="1" t="s">
         <v>90</v>
       </c>
@@ -4809,8 +4803,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="41"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
@@ -5975,7 +5969,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="50"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="21" t="s">
         <v>63</v>
       </c>
@@ -6029,18 +6023,18 @@
     <row r="31" spans="1:15">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
       <c r="N31" s="1" t="s">
         <v>137</v>
       </c>
@@ -6049,26 +6043,26 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="44" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="47"/>
       <c r="N32" s="1" t="s">
         <v>139</v>
       </c>
@@ -6077,8 +6071,8 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="41"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
@@ -7243,7 +7237,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="50"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="21" t="s">
         <v>63</v>
       </c>
@@ -8063,6 +8057,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
@@ -8075,30 +8093,6 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ta/指派結果/TRTS-4S屏柵線.xlsx
+++ b/ta/指派結果/TRTS-4S屏柵線.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\指派結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC09388D-BAF2-46BB-B501-20BCC5490DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64F674A-44C9-495D-A235-81C409AE2E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="3645" windowWidth="21600" windowHeight="11835" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
   </bookViews>
@@ -1446,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1605,6 +1605,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1946,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B91B70-CCE3-4F38-82D1-372C96A2E9C6}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2161,8 +2167,8 @@
       <c r="H9">
         <v>6312</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
@@ -3227,8 +3233,8 @@
       <c r="H62">
         <v>5341</v>
       </c>
-      <c r="J62" s="30"/>
-      <c r="K62" s="31"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="54"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
@@ -3717,6 +3723,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4726,7 +4733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9320DA-452C-4767-B135-0406F64965CB}">
   <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>

--- a/ta/指派結果/TRTS-4S屏柵線.xlsx
+++ b/ta/指派結果/TRTS-4S屏柵線.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\指派結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64F674A-44C9-495D-A235-81C409AE2E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C32E8C-89E3-4D17-9BFC-7DA470140854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="3645" windowWidth="21600" windowHeight="11835" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="333">
   <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1446,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1561,13 +1561,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1591,12 +1588,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1606,11 +1597,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1950,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B91B70-CCE3-4F38-82D1-372C96A2E9C6}">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2153,32 +2147,30 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>6327</v>
+        <v>10219</v>
       </c>
       <c r="E9">
-        <v>5340</v>
+        <v>6798</v>
       </c>
       <c r="G9">
-        <v>6311</v>
+        <v>6798</v>
       </c>
       <c r="H9">
-        <v>6312</v>
-      </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
+        <v>10219</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>10219</v>
+        <v>10218</v>
       </c>
       <c r="E10">
         <v>6798</v>
@@ -2187,7 +2179,7 @@
         <v>6798</v>
       </c>
       <c r="H10">
-        <v>10219</v>
+        <v>10220</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2195,19 +2187,19 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>10218</v>
+        <v>8019</v>
       </c>
       <c r="E11">
-        <v>6798</v>
+        <v>8002</v>
       </c>
       <c r="G11">
-        <v>6798</v>
+        <v>8020</v>
       </c>
       <c r="H11">
-        <v>10220</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2215,19 +2207,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>8019</v>
+        <v>7987</v>
       </c>
       <c r="E12">
-        <v>8002</v>
+        <v>8021</v>
       </c>
       <c r="G12">
-        <v>8020</v>
+        <v>8022</v>
       </c>
       <c r="H12">
-        <v>7999</v>
+        <v>6964</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2235,19 +2227,19 @@
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>7987</v>
+        <v>7991</v>
       </c>
       <c r="E13">
-        <v>8021</v>
+        <v>9239</v>
       </c>
       <c r="G13">
-        <v>8022</v>
+        <v>9240</v>
       </c>
       <c r="H13">
-        <v>6964</v>
+        <v>7996</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2255,19 +2247,19 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>7991</v>
+        <v>7988</v>
       </c>
       <c r="E14">
-        <v>9239</v>
+        <v>8023</v>
       </c>
       <c r="G14">
-        <v>9240</v>
+        <v>8024</v>
       </c>
       <c r="H14">
-        <v>7996</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2275,19 +2267,19 @@
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>7988</v>
+        <v>6924</v>
       </c>
       <c r="E15">
-        <v>8023</v>
+        <v>6915</v>
       </c>
       <c r="G15">
-        <v>8024</v>
+        <v>6915</v>
       </c>
       <c r="H15">
-        <v>7989</v>
+        <v>6924</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2295,19 +2287,19 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>6924</v>
+        <v>6975</v>
       </c>
       <c r="E16">
-        <v>6915</v>
+        <v>16420</v>
       </c>
       <c r="G16">
-        <v>6915</v>
+        <v>16420</v>
       </c>
       <c r="H16">
-        <v>6924</v>
+        <v>6975</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2315,39 +2307,39 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>6975</v>
+        <v>15759</v>
       </c>
       <c r="E17">
-        <v>16420</v>
+        <v>7036</v>
       </c>
       <c r="G17">
-        <v>16420</v>
+        <v>7036</v>
       </c>
       <c r="H17">
-        <v>6975</v>
+        <v>15759</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D18">
-        <v>15759</v>
+        <v>6443</v>
       </c>
       <c r="E18">
-        <v>7036</v>
+        <v>5300</v>
       </c>
       <c r="G18">
-        <v>7036</v>
+        <v>6440</v>
       </c>
       <c r="H18">
-        <v>15759</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2355,39 +2347,39 @@
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>6443</v>
+        <v>6508</v>
       </c>
       <c r="E19">
-        <v>5300</v>
+        <v>6513</v>
       </c>
       <c r="G19">
-        <v>6440</v>
+        <v>6513</v>
       </c>
       <c r="H19">
-        <v>6441</v>
+        <v>6508</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D20">
-        <v>6508</v>
+        <v>6412</v>
       </c>
       <c r="E20">
-        <v>6513</v>
+        <v>6509</v>
       </c>
       <c r="G20">
-        <v>6513</v>
+        <v>6509</v>
       </c>
       <c r="H20">
-        <v>6508</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2395,19 +2387,19 @@
         <v>330</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21">
-        <v>6412</v>
+        <v>6438</v>
       </c>
       <c r="E21">
-        <v>6509</v>
+        <v>6418</v>
       </c>
       <c r="G21">
-        <v>6509</v>
+        <v>6418</v>
       </c>
       <c r="H21">
-        <v>6412</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2415,19 +2407,19 @@
         <v>330</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D22">
-        <v>6438</v>
+        <v>7956</v>
       </c>
       <c r="E22">
-        <v>6418</v>
+        <v>7957</v>
       </c>
       <c r="G22">
-        <v>6418</v>
+        <v>7957</v>
       </c>
       <c r="H22">
-        <v>6438</v>
+        <v>7956</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2435,19 +2427,19 @@
         <v>330</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D23">
-        <v>7956</v>
+        <v>6448</v>
       </c>
       <c r="E23">
-        <v>7957</v>
+        <v>6420</v>
       </c>
       <c r="G23">
-        <v>7957</v>
+        <v>8375</v>
       </c>
       <c r="H23">
-        <v>7956</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2455,19 +2447,19 @@
         <v>330</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>113</v>
+        <v>326</v>
       </c>
       <c r="D24">
-        <v>6448</v>
+        <v>8371</v>
       </c>
       <c r="E24">
-        <v>6420</v>
+        <v>8376</v>
       </c>
       <c r="G24">
-        <v>8375</v>
+        <v>8374</v>
       </c>
       <c r="H24">
-        <v>8372</v>
+        <v>8373</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2475,19 +2467,19 @@
         <v>330</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>326</v>
+        <v>115</v>
       </c>
       <c r="D25">
-        <v>8371</v>
+        <v>9169</v>
       </c>
       <c r="E25">
-        <v>8376</v>
+        <v>9031</v>
       </c>
       <c r="G25">
-        <v>8374</v>
+        <v>9031</v>
       </c>
       <c r="H25">
-        <v>8373</v>
+        <v>9169</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2495,19 +2487,19 @@
         <v>330</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D26">
-        <v>9169</v>
+        <v>6570</v>
       </c>
       <c r="E26">
-        <v>9031</v>
+        <v>6564</v>
       </c>
       <c r="G26">
-        <v>9031</v>
+        <v>6564</v>
       </c>
       <c r="H26">
-        <v>9169</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2515,19 +2507,19 @@
         <v>330</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D27">
-        <v>6570</v>
+        <v>8432</v>
       </c>
       <c r="E27">
-        <v>6564</v>
+        <v>8434</v>
       </c>
       <c r="G27">
-        <v>6564</v>
+        <v>8429</v>
       </c>
       <c r="H27">
-        <v>6570</v>
+        <v>8431</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2535,19 +2527,19 @@
         <v>330</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D28">
-        <v>8432</v>
+        <v>6424</v>
       </c>
       <c r="E28">
-        <v>8434</v>
+        <v>8433</v>
       </c>
       <c r="G28">
-        <v>8429</v>
+        <v>8430</v>
       </c>
       <c r="H28">
-        <v>8431</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2555,10 +2547,10 @@
         <v>330</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>121</v>
+        <v>327</v>
       </c>
       <c r="D29">
-        <v>6424</v>
+        <v>8432</v>
       </c>
       <c r="E29">
         <v>8433</v>
@@ -2567,7 +2559,7 @@
         <v>8430</v>
       </c>
       <c r="H29">
-        <v>6427</v>
+        <v>8431</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2575,19 +2567,19 @@
         <v>330</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>327</v>
+        <v>123</v>
       </c>
       <c r="D30">
-        <v>8432</v>
+        <v>8450</v>
       </c>
       <c r="E30">
-        <v>8433</v>
+        <v>8453</v>
       </c>
       <c r="G30">
-        <v>8430</v>
+        <v>8452</v>
       </c>
       <c r="H30">
-        <v>8431</v>
+        <v>8451</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2595,19 +2587,19 @@
         <v>330</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D31">
-        <v>8450</v>
+        <v>6354</v>
       </c>
       <c r="E31">
-        <v>8453</v>
+        <v>6349</v>
       </c>
       <c r="G31">
-        <v>8452</v>
+        <v>6741</v>
       </c>
       <c r="H31">
-        <v>8451</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2615,19 +2607,19 @@
         <v>330</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>125</v>
+        <v>328</v>
       </c>
       <c r="D32">
-        <v>6354</v>
+        <v>8535</v>
       </c>
       <c r="E32">
-        <v>6349</v>
+        <v>8536</v>
       </c>
       <c r="G32">
-        <v>6741</v>
+        <v>8533</v>
       </c>
       <c r="H32">
-        <v>6751</v>
+        <v>8534</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2635,19 +2627,19 @@
         <v>330</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>328</v>
+        <v>127</v>
       </c>
       <c r="D33">
-        <v>8535</v>
+        <v>6356</v>
       </c>
       <c r="E33">
-        <v>8536</v>
+        <v>6347</v>
       </c>
       <c r="G33">
-        <v>8533</v>
+        <v>7963</v>
       </c>
       <c r="H33">
-        <v>8534</v>
+        <v>7962</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2655,19 +2647,19 @@
         <v>330</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D34">
-        <v>6356</v>
+        <v>6745</v>
       </c>
       <c r="E34">
-        <v>6347</v>
+        <v>6744</v>
       </c>
       <c r="G34">
-        <v>7963</v>
+        <v>6744</v>
       </c>
       <c r="H34">
-        <v>7962</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2675,19 +2667,19 @@
         <v>330</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D35">
-        <v>6745</v>
+        <v>6722</v>
       </c>
       <c r="E35">
-        <v>6744</v>
+        <v>6723</v>
       </c>
       <c r="G35">
-        <v>6744</v>
+        <v>6723</v>
       </c>
       <c r="H35">
-        <v>6745</v>
+        <v>6722</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2695,19 +2687,19 @@
         <v>330</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="D36">
-        <v>6722</v>
+        <v>7771</v>
       </c>
       <c r="E36">
-        <v>6723</v>
+        <v>7769</v>
       </c>
       <c r="G36">
-        <v>6723</v>
+        <v>7770</v>
       </c>
       <c r="H36">
-        <v>6722</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2715,19 +2707,19 @@
         <v>330</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="D37">
-        <v>7771</v>
+        <v>9246</v>
       </c>
       <c r="E37">
-        <v>7769</v>
+        <v>8932</v>
       </c>
       <c r="G37">
-        <v>7770</v>
+        <v>8932</v>
       </c>
       <c r="H37">
-        <v>7772</v>
+        <v>9246</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2735,61 +2727,61 @@
         <v>330</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D38">
-        <v>9246</v>
+        <v>6781</v>
       </c>
       <c r="E38">
-        <v>8932</v>
+        <v>6776</v>
       </c>
       <c r="G38">
-        <v>8932</v>
+        <v>6776</v>
       </c>
       <c r="H38">
-        <v>9246</v>
-      </c>
+        <v>6781</v>
+      </c>
+      <c r="L38" s="30"/>
+      <c r="M38" s="31"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D39">
-        <v>6781</v>
+        <v>15235</v>
       </c>
       <c r="E39">
-        <v>6776</v>
+        <v>6783</v>
       </c>
       <c r="G39">
-        <v>6776</v>
+        <v>6783</v>
       </c>
       <c r="H39">
-        <v>6781</v>
-      </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="31"/>
+        <v>15235</v>
+      </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D40">
-        <v>15235</v>
+        <v>8000</v>
       </c>
       <c r="E40">
-        <v>6783</v>
+        <v>7966</v>
       </c>
       <c r="G40">
-        <v>6783</v>
+        <v>6303</v>
       </c>
       <c r="H40">
-        <v>15235</v>
+        <v>7998</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2797,19 +2789,19 @@
         <v>330</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D41">
-        <v>8000</v>
+        <v>6306</v>
       </c>
       <c r="E41">
-        <v>7966</v>
+        <v>8928</v>
       </c>
       <c r="G41">
-        <v>6303</v>
+        <v>8928</v>
       </c>
       <c r="H41">
-        <v>7998</v>
+        <v>6306</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2817,19 +2809,19 @@
         <v>330</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D42">
-        <v>6306</v>
+        <v>27265</v>
       </c>
       <c r="E42">
-        <v>8928</v>
+        <v>8662</v>
       </c>
       <c r="G42">
-        <v>8928</v>
+        <v>8662</v>
       </c>
       <c r="H42">
-        <v>6306</v>
+        <v>27265</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2837,19 +2829,19 @@
         <v>330</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D43">
-        <v>27265</v>
+        <v>27267</v>
       </c>
       <c r="E43">
-        <v>8662</v>
+        <v>6932</v>
       </c>
       <c r="G43">
-        <v>8662</v>
+        <v>6932</v>
       </c>
       <c r="H43">
-        <v>27265</v>
+        <v>27267</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2857,39 +2849,39 @@
         <v>330</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D44">
-        <v>27267</v>
+        <v>15828</v>
       </c>
       <c r="E44">
-        <v>6932</v>
+        <v>7028</v>
       </c>
       <c r="G44">
-        <v>6932</v>
+        <v>7028</v>
       </c>
       <c r="H44">
-        <v>27267</v>
+        <v>15828</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>150</v>
+        <v>331</v>
       </c>
       <c r="D45">
-        <v>15828</v>
+        <v>6382</v>
       </c>
       <c r="E45">
-        <v>7028</v>
+        <v>6383</v>
       </c>
       <c r="G45">
-        <v>7028</v>
+        <v>6381</v>
       </c>
       <c r="H45">
-        <v>15828</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2897,39 +2889,39 @@
         <v>309</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D46">
-        <v>6382</v>
+        <v>6690</v>
       </c>
       <c r="E46">
-        <v>6383</v>
+        <v>6359</v>
       </c>
       <c r="G46">
-        <v>6381</v>
+        <v>6384</v>
       </c>
       <c r="H46">
-        <v>6325</v>
+        <v>6693</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>332</v>
+        <v>190</v>
       </c>
       <c r="D47">
-        <v>6690</v>
+        <v>5032</v>
       </c>
       <c r="E47">
-        <v>6359</v>
+        <v>5033</v>
       </c>
       <c r="G47">
-        <v>6384</v>
+        <v>5022</v>
       </c>
       <c r="H47">
-        <v>6693</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2937,343 +2929,362 @@
         <v>300</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D48">
-        <v>5032</v>
+        <v>5018</v>
       </c>
       <c r="E48">
-        <v>5033</v>
+        <v>5019</v>
       </c>
       <c r="G48">
-        <v>5022</v>
+        <v>5027</v>
       </c>
       <c r="H48">
-        <v>5023</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D49">
-        <v>5018</v>
+        <v>7025</v>
       </c>
       <c r="E49">
-        <v>5019</v>
+        <v>7023</v>
       </c>
       <c r="G49">
-        <v>5027</v>
+        <v>7023</v>
       </c>
       <c r="H49">
-        <v>7040</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D50">
-        <v>7025</v>
+        <v>7102</v>
       </c>
       <c r="E50">
-        <v>7023</v>
+        <v>16030</v>
       </c>
       <c r="G50">
-        <v>7023</v>
+        <v>16030</v>
       </c>
       <c r="H50">
-        <v>7025</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D51">
         <v>7102</v>
       </c>
       <c r="E51">
-        <v>16030</v>
+        <v>7096</v>
       </c>
       <c r="G51">
-        <v>16030</v>
+        <v>7096</v>
       </c>
       <c r="H51">
         <v>7102</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D52">
-        <v>7102</v>
+        <v>16699</v>
       </c>
       <c r="E52">
-        <v>7096</v>
+        <v>16694</v>
       </c>
       <c r="G52">
-        <v>7096</v>
+        <v>16693</v>
       </c>
       <c r="H52">
-        <v>7102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>16695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D53">
-        <v>16699</v>
+        <v>5918</v>
       </c>
       <c r="E53">
-        <v>16694</v>
+        <v>5014</v>
       </c>
       <c r="G53">
-        <v>16693</v>
+        <v>5014</v>
       </c>
       <c r="H53">
-        <v>16695</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C54" s="6"/>
       <c r="D54">
-        <v>5918</v>
+        <v>5869</v>
       </c>
       <c r="E54">
-        <v>5014</v>
-      </c>
+        <v>5872</v>
+      </c>
+      <c r="F54" s="10"/>
       <c r="G54">
-        <v>5014</v>
+        <v>5872</v>
       </c>
       <c r="H54">
-        <v>5918</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="6"/>
+        <v>28</v>
+      </c>
       <c r="D55">
-        <v>5869</v>
+        <v>7452</v>
       </c>
       <c r="E55">
-        <v>5872</v>
-      </c>
-      <c r="F55" s="10"/>
+        <v>9283</v>
+      </c>
       <c r="G55">
-        <v>5872</v>
+        <v>9283</v>
       </c>
       <c r="H55">
-        <v>5869</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>7452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56">
-        <v>7452</v>
+        <v>7462</v>
       </c>
       <c r="E56">
-        <v>9283</v>
+        <v>5012</v>
       </c>
       <c r="G56">
-        <v>9283</v>
+        <v>5012</v>
       </c>
       <c r="H56">
-        <v>7452</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>7462</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57">
-        <v>7462</v>
+        <v>5865</v>
       </c>
       <c r="E57">
-        <v>5012</v>
+        <v>5871</v>
       </c>
       <c r="G57">
-        <v>5012</v>
+        <v>5871</v>
       </c>
       <c r="H57">
-        <v>7462</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58">
-        <v>5865</v>
+        <v>7536</v>
       </c>
       <c r="E58">
-        <v>5871</v>
+        <v>5268</v>
       </c>
       <c r="G58">
-        <v>5871</v>
+        <v>5268</v>
       </c>
       <c r="H58">
-        <v>5865</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>7536</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D59">
-        <v>7536</v>
+        <v>7534</v>
       </c>
       <c r="E59">
-        <v>5268</v>
+        <v>6668</v>
       </c>
       <c r="G59">
-        <v>5268</v>
+        <v>6669</v>
       </c>
       <c r="H59">
-        <v>7536</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D60">
-        <v>7534</v>
+        <v>5336</v>
       </c>
       <c r="E60">
-        <v>6668</v>
+        <v>5337</v>
       </c>
       <c r="G60">
-        <v>6669</v>
+        <v>5334</v>
       </c>
       <c r="H60">
-        <v>5831</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>5335</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60">
+        <v>5338</v>
+      </c>
+      <c r="N60">
+        <v>5339</v>
+      </c>
+      <c r="P60">
+        <v>5340</v>
+      </c>
+      <c r="Q60">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61">
-        <v>5336</v>
+        <v>7607</v>
       </c>
       <c r="E61">
-        <v>5337</v>
+        <v>7609</v>
       </c>
       <c r="G61">
-        <v>5334</v>
+        <v>7609</v>
       </c>
       <c r="H61">
-        <v>5335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>7607</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D62">
-        <v>5338</v>
+        <v>8111</v>
       </c>
       <c r="E62">
-        <v>5339</v>
+        <v>6542</v>
       </c>
       <c r="G62">
-        <v>5340</v>
+        <v>6544</v>
       </c>
       <c r="H62">
-        <v>5341</v>
-      </c>
-      <c r="J62" s="53"/>
-      <c r="K62" s="54"/>
-    </row>
-    <row r="63" spans="1:11">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63">
-        <v>7607</v>
+        <v>5797</v>
       </c>
       <c r="E63">
-        <v>7609</v>
+        <v>5295</v>
       </c>
       <c r="G63">
-        <v>7609</v>
+        <v>5295</v>
       </c>
       <c r="H63">
-        <v>7607</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
       </c>
       <c r="D64">
-        <v>8111</v>
+        <v>5799</v>
       </c>
       <c r="E64">
-        <v>6542</v>
+        <v>6511</v>
       </c>
       <c r="G64">
-        <v>6544</v>
+        <v>6511</v>
       </c>
       <c r="H64">
-        <v>5202</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3281,19 +3292,19 @@
         <v>38</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D65">
-        <v>5797</v>
+        <v>5783</v>
       </c>
       <c r="E65">
-        <v>5295</v>
+        <v>5772</v>
       </c>
       <c r="G65">
-        <v>5295</v>
+        <v>5772</v>
       </c>
       <c r="H65">
-        <v>5797</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3301,62 +3312,59 @@
         <v>38</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D66">
-        <v>5799</v>
+        <v>16895</v>
       </c>
       <c r="E66">
-        <v>6511</v>
+        <v>8155</v>
       </c>
       <c r="G66">
-        <v>6511</v>
+        <v>8166</v>
       </c>
       <c r="H66">
-        <v>5798</v>
+        <v>7603</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="D67">
-        <v>5783</v>
+        <v>5931</v>
       </c>
       <c r="E67">
-        <v>5772</v>
+        <v>5932</v>
       </c>
       <c r="G67">
-        <v>5772</v>
+        <v>7670</v>
       </c>
       <c r="H67">
-        <v>5783</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="D68">
-        <v>16895</v>
+        <v>5742</v>
       </c>
       <c r="E68">
-        <v>8155</v>
+        <v>5741</v>
       </c>
       <c r="G68">
-        <v>8166</v>
+        <v>5741</v>
       </c>
       <c r="H68">
-        <v>7603</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3364,59 +3372,59 @@
         <v>301</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="D69">
-        <v>5931</v>
+        <v>8214</v>
       </c>
       <c r="E69">
-        <v>5932</v>
+        <v>9466</v>
       </c>
       <c r="G69">
-        <v>7670</v>
+        <v>9466</v>
       </c>
       <c r="H69">
-        <v>5923</v>
+        <v>8217</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D70">
-        <v>5742</v>
+        <v>8253</v>
       </c>
       <c r="E70">
-        <v>5741</v>
+        <v>5452</v>
       </c>
       <c r="G70">
-        <v>5741</v>
+        <v>5452</v>
       </c>
       <c r="H70">
-        <v>5742</v>
+        <v>8253</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D71">
-        <v>8214</v>
+        <v>8253</v>
       </c>
       <c r="E71">
-        <v>9466</v>
+        <v>8262</v>
       </c>
       <c r="G71">
-        <v>9466</v>
+        <v>8263</v>
       </c>
       <c r="H71">
-        <v>8217</v>
+        <v>8253</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3424,19 +3432,19 @@
         <v>39</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D72">
-        <v>8253</v>
+        <v>8249</v>
       </c>
       <c r="E72">
-        <v>5452</v>
+        <v>9453</v>
       </c>
       <c r="G72">
-        <v>5452</v>
+        <v>9453</v>
       </c>
       <c r="H72">
-        <v>8253</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3444,19 +3452,19 @@
         <v>39</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="D73">
-        <v>8253</v>
+        <v>5472</v>
       </c>
       <c r="E73">
-        <v>8262</v>
+        <v>5443</v>
       </c>
       <c r="G73">
-        <v>8263</v>
+        <v>5443</v>
       </c>
       <c r="H73">
-        <v>8253</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3464,19 +3472,19 @@
         <v>39</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D74">
-        <v>8249</v>
+        <v>5447</v>
       </c>
       <c r="E74">
-        <v>9453</v>
+        <v>5456</v>
       </c>
       <c r="G74">
-        <v>9453</v>
+        <v>5456</v>
       </c>
       <c r="H74">
-        <v>8249</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3484,19 +3492,19 @@
         <v>39</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="D75">
-        <v>5472</v>
+        <v>8228</v>
       </c>
       <c r="E75">
-        <v>5443</v>
+        <v>8226</v>
       </c>
       <c r="G75">
-        <v>5443</v>
+        <v>8227</v>
       </c>
       <c r="H75">
-        <v>5472</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3504,19 +3512,19 @@
         <v>39</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76">
-        <v>5447</v>
+        <v>6085</v>
       </c>
       <c r="E76">
-        <v>5456</v>
+        <v>9758</v>
       </c>
       <c r="G76">
-        <v>5456</v>
+        <v>9758</v>
       </c>
       <c r="H76">
-        <v>5447</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3524,19 +3532,19 @@
         <v>39</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="D77">
-        <v>8228</v>
+        <v>6104</v>
       </c>
       <c r="E77">
-        <v>8226</v>
+        <v>27340</v>
       </c>
       <c r="G77">
-        <v>8227</v>
+        <v>27340</v>
       </c>
       <c r="H77">
-        <v>5445</v>
+        <v>6104</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3544,19 +3552,19 @@
         <v>39</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D78">
-        <v>6085</v>
+        <v>6096</v>
       </c>
       <c r="E78">
-        <v>9758</v>
+        <v>9804</v>
       </c>
       <c r="G78">
-        <v>9758</v>
+        <v>9804</v>
       </c>
       <c r="H78">
-        <v>6085</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3564,19 +3572,19 @@
         <v>39</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="D79">
-        <v>6104</v>
+        <v>6009</v>
       </c>
       <c r="E79">
-        <v>27340</v>
+        <v>9832</v>
       </c>
       <c r="G79">
-        <v>27340</v>
+        <v>9835</v>
       </c>
       <c r="H79">
-        <v>6104</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3584,19 +3592,22 @@
         <v>39</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80">
-        <v>6096</v>
+        <v>6015</v>
       </c>
       <c r="E80">
-        <v>9804</v>
+        <v>9829</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
       </c>
       <c r="G80">
-        <v>9804</v>
+        <v>9827</v>
       </c>
       <c r="H80">
-        <v>6096</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -3604,19 +3615,37 @@
         <v>39</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="D81">
-        <v>6009</v>
+        <v>6180</v>
       </c>
       <c r="E81">
-        <v>9832</v>
+        <v>7697</v>
       </c>
       <c r="G81">
-        <v>9835</v>
+        <v>7697</v>
       </c>
       <c r="H81">
-        <v>6010</v>
+        <v>6180</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M81">
+        <v>6001</v>
+      </c>
+      <c r="N81">
+        <v>7699</v>
+      </c>
+      <c r="P81">
+        <v>7699</v>
+      </c>
+      <c r="Q81">
+        <v>6001</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -3624,22 +3653,19 @@
         <v>39</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D82">
-        <v>6015</v>
+        <v>6175</v>
       </c>
       <c r="E82">
-        <v>9829</v>
-      </c>
-      <c r="F82" t="s">
-        <v>22</v>
+        <v>6174</v>
       </c>
       <c r="G82">
-        <v>9827</v>
+        <v>6174</v>
       </c>
       <c r="H82">
-        <v>6006</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -3647,76 +3673,18 @@
         <v>39</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D83">
-        <v>6180</v>
+        <v>6146</v>
       </c>
       <c r="E83">
-        <v>7697</v>
+        <v>16133</v>
       </c>
       <c r="G83">
-        <v>7697</v>
+        <v>16133</v>
       </c>
       <c r="H83">
-        <v>6180</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="M83">
-        <v>6001</v>
-      </c>
-      <c r="N83">
-        <v>7699</v>
-      </c>
-      <c r="P83">
-        <v>7699</v>
-      </c>
-      <c r="Q83">
-        <v>6001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D84">
-        <v>6175</v>
-      </c>
-      <c r="E84">
-        <v>6174</v>
-      </c>
-      <c r="G84">
-        <v>6174</v>
-      </c>
-      <c r="H84">
-        <v>6175</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D85">
-        <v>6146</v>
-      </c>
-      <c r="E85">
-        <v>16133</v>
-      </c>
-      <c r="G85">
-        <v>16133</v>
-      </c>
-      <c r="H85">
         <v>6146</v>
       </c>
     </row>
@@ -4705,6 +4673,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -4717,11 +4690,6 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4762,18 +4730,18 @@
     <row r="1" spans="1:15">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
       <c r="N1" s="14" t="s">
         <v>87</v>
       </c>
@@ -4782,26 +4750,26 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="50" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49"/>
       <c r="N2" s="1" t="s">
         <v>90</v>
       </c>
@@ -4810,8 +4778,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
@@ -5976,7 +5944,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="38"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="21" t="s">
         <v>63</v>
       </c>
@@ -6030,18 +5998,18 @@
     <row r="31" spans="1:15">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
       <c r="N31" s="1" t="s">
         <v>137</v>
       </c>
@@ -6050,26 +6018,26 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="45" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="47"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="46"/>
       <c r="N32" s="1" t="s">
         <v>139</v>
       </c>
@@ -6078,8 +6046,8 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
@@ -7244,7 +7212,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="38"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="21" t="s">
         <v>63</v>
       </c>
@@ -8064,6 +8032,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A2:A3"/>
@@ -8076,30 +8068,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ta/指派結果/TRTS-4S屏柵線.xlsx
+++ b/ta/指派結果/TRTS-4S屏柵線.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\指派結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C32E8C-89E3-4D17-9BFC-7DA470140854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF41E41-963C-4EF1-86AF-88020778DD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="3645" windowWidth="21600" windowHeight="11835" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
+    <workbookView xWindow="8985" yWindow="2355" windowWidth="21600" windowHeight="11835" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
   </bookViews>
   <sheets>
     <sheet name="節點編號" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="333">
   <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1112,10 +1112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建國南路匝道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敦化南路(慢車道)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1128,6 +1124,10 @@
   </si>
   <si>
     <t>建國北路平面(國一往南)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建國南路平面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1561,10 +1561,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,6 +1591,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1596,15 +1605,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1944,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B91B70-CCE3-4F38-82D1-372C96A2E9C6}">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2221,25 +2221,43 @@
       <c r="H12">
         <v>6964</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>7991</v>
+      </c>
+      <c r="N12">
+        <v>9239</v>
+      </c>
+      <c r="P12">
+        <v>9240</v>
+      </c>
+      <c r="Q12">
+        <v>7996</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>7991</v>
+        <v>6924</v>
       </c>
       <c r="E13">
-        <v>9239</v>
+        <v>6915</v>
       </c>
       <c r="G13">
-        <v>9240</v>
+        <v>6915</v>
       </c>
       <c r="H13">
-        <v>7996</v>
+        <v>6924</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2247,19 +2265,19 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>7988</v>
+        <v>6975</v>
       </c>
       <c r="E14">
-        <v>8023</v>
+        <v>16420</v>
       </c>
       <c r="G14">
-        <v>8024</v>
+        <v>16420</v>
       </c>
       <c r="H14">
-        <v>7989</v>
+        <v>6975</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2267,256 +2285,256 @@
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>6924</v>
+        <v>15759</v>
       </c>
       <c r="E15">
-        <v>6915</v>
+        <v>7036</v>
       </c>
       <c r="G15">
-        <v>6915</v>
+        <v>7036</v>
       </c>
       <c r="H15">
-        <v>6924</v>
+        <v>15759</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D16">
-        <v>6975</v>
+        <v>6443</v>
       </c>
       <c r="E16">
-        <v>16420</v>
+        <v>5300</v>
       </c>
       <c r="G16">
-        <v>16420</v>
+        <v>6440</v>
       </c>
       <c r="H16">
-        <v>6975</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>15759</v>
+        <v>6508</v>
       </c>
       <c r="E17">
-        <v>7036</v>
+        <v>6513</v>
       </c>
       <c r="G17">
-        <v>7036</v>
+        <v>6513</v>
       </c>
       <c r="H17">
-        <v>15759</v>
+        <v>6508</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D18">
-        <v>6443</v>
+        <v>6412</v>
       </c>
       <c r="E18">
-        <v>5300</v>
+        <v>6509</v>
       </c>
       <c r="G18">
-        <v>6440</v>
+        <v>6509</v>
       </c>
       <c r="H18">
-        <v>6441</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D19">
-        <v>6508</v>
+        <v>6438</v>
       </c>
       <c r="E19">
-        <v>6513</v>
+        <v>6418</v>
       </c>
       <c r="G19">
-        <v>6513</v>
+        <v>6418</v>
       </c>
       <c r="H19">
-        <v>6508</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D20">
-        <v>6412</v>
+        <v>7956</v>
       </c>
       <c r="E20">
-        <v>6509</v>
+        <v>7957</v>
       </c>
       <c r="G20">
-        <v>6509</v>
+        <v>7957</v>
       </c>
       <c r="H20">
-        <v>6412</v>
+        <v>7956</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D21">
-        <v>6438</v>
+        <v>6448</v>
       </c>
       <c r="E21">
-        <v>6418</v>
+        <v>6420</v>
       </c>
       <c r="G21">
-        <v>6418</v>
+        <v>8375</v>
       </c>
       <c r="H21">
-        <v>6438</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>326</v>
       </c>
       <c r="D22">
-        <v>7956</v>
+        <v>8371</v>
       </c>
       <c r="E22">
-        <v>7957</v>
+        <v>8376</v>
       </c>
       <c r="G22">
-        <v>7957</v>
+        <v>8374</v>
       </c>
       <c r="H22">
-        <v>7956</v>
+        <v>8373</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D23">
-        <v>6448</v>
+        <v>9169</v>
       </c>
       <c r="E23">
-        <v>6420</v>
+        <v>9031</v>
       </c>
       <c r="G23">
-        <v>8375</v>
+        <v>9031</v>
       </c>
       <c r="H23">
-        <v>8372</v>
+        <v>9169</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>326</v>
+        <v>117</v>
       </c>
       <c r="D24">
-        <v>8371</v>
+        <v>6570</v>
       </c>
       <c r="E24">
-        <v>8376</v>
+        <v>6564</v>
       </c>
       <c r="G24">
-        <v>8374</v>
+        <v>6564</v>
       </c>
       <c r="H24">
-        <v>8373</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D25">
-        <v>9169</v>
+        <v>8432</v>
       </c>
       <c r="E25">
-        <v>9031</v>
+        <v>8434</v>
       </c>
       <c r="G25">
-        <v>9031</v>
+        <v>8429</v>
       </c>
       <c r="H25">
-        <v>9169</v>
+        <v>8431</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D26">
-        <v>6570</v>
+        <v>6424</v>
       </c>
       <c r="E26">
-        <v>6564</v>
+        <v>8433</v>
       </c>
       <c r="G26">
-        <v>6564</v>
+        <v>8430</v>
       </c>
       <c r="H26">
-        <v>6570</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>119</v>
+        <v>327</v>
       </c>
       <c r="D27">
         <v>8432</v>
       </c>
       <c r="E27">
-        <v>8434</v>
+        <v>8433</v>
       </c>
       <c r="G27">
-        <v>8429</v>
+        <v>8430</v>
       </c>
       <c r="H27">
         <v>8431</v>
@@ -2524,424 +2542,424 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D28">
-        <v>6424</v>
+        <v>8450</v>
       </c>
       <c r="E28">
-        <v>8433</v>
+        <v>8453</v>
       </c>
       <c r="G28">
-        <v>8430</v>
+        <v>8452</v>
       </c>
       <c r="H28">
-        <v>6427</v>
+        <v>8451</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>327</v>
+        <v>125</v>
       </c>
       <c r="D29">
-        <v>8432</v>
+        <v>6383</v>
       </c>
       <c r="E29">
-        <v>8433</v>
+        <v>6385</v>
       </c>
       <c r="G29">
-        <v>8430</v>
+        <v>6363</v>
       </c>
       <c r="H29">
-        <v>8431</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>123</v>
+        <v>332</v>
       </c>
       <c r="D30">
-        <v>8450</v>
+        <v>9144</v>
       </c>
       <c r="E30">
-        <v>8453</v>
+        <v>8521</v>
       </c>
       <c r="G30">
-        <v>8452</v>
+        <v>8522</v>
       </c>
       <c r="H30">
-        <v>8451</v>
+        <v>9156</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D31">
-        <v>6354</v>
+        <v>6745</v>
       </c>
       <c r="E31">
-        <v>6349</v>
+        <v>6744</v>
       </c>
       <c r="G31">
-        <v>6741</v>
+        <v>6744</v>
       </c>
       <c r="H31">
-        <v>6751</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>328</v>
+        <v>133</v>
       </c>
       <c r="D32">
-        <v>8535</v>
+        <v>6722</v>
       </c>
       <c r="E32">
-        <v>8536</v>
+        <v>6723</v>
       </c>
       <c r="G32">
-        <v>8533</v>
+        <v>6723</v>
       </c>
       <c r="H32">
-        <v>8534</v>
+        <v>6722</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>328</v>
       </c>
       <c r="D33">
-        <v>6356</v>
+        <v>7771</v>
       </c>
       <c r="E33">
-        <v>6347</v>
+        <v>7769</v>
       </c>
       <c r="G33">
-        <v>7963</v>
+        <v>7770</v>
       </c>
       <c r="H33">
-        <v>7962</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D34">
-        <v>6745</v>
+        <v>9246</v>
       </c>
       <c r="E34">
-        <v>6744</v>
+        <v>8932</v>
       </c>
       <c r="G34">
-        <v>6744</v>
+        <v>8932</v>
       </c>
       <c r="H34">
-        <v>6745</v>
+        <v>9246</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D35">
-        <v>6722</v>
+        <v>6781</v>
       </c>
       <c r="E35">
-        <v>6723</v>
+        <v>6776</v>
       </c>
       <c r="G35">
-        <v>6723</v>
+        <v>6776</v>
       </c>
       <c r="H35">
-        <v>6722</v>
-      </c>
+        <v>6781</v>
+      </c>
+      <c r="L35" s="30"/>
+      <c r="M35" s="31"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>329</v>
+        <v>140</v>
       </c>
       <c r="D36">
-        <v>7771</v>
+        <v>15235</v>
       </c>
       <c r="E36">
-        <v>7769</v>
+        <v>6783</v>
       </c>
       <c r="G36">
-        <v>7770</v>
+        <v>6783</v>
       </c>
       <c r="H36">
-        <v>7772</v>
+        <v>15235</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D37">
-        <v>9246</v>
+        <v>8000</v>
       </c>
       <c r="E37">
-        <v>8932</v>
+        <v>7966</v>
       </c>
       <c r="G37">
-        <v>8932</v>
+        <v>6303</v>
       </c>
       <c r="H37">
-        <v>9246</v>
+        <v>7998</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D38">
-        <v>6781</v>
+        <v>6306</v>
       </c>
       <c r="E38">
-        <v>6776</v>
+        <v>8928</v>
       </c>
       <c r="G38">
-        <v>6776</v>
+        <v>8928</v>
       </c>
       <c r="H38">
-        <v>6781</v>
-      </c>
-      <c r="L38" s="30"/>
-      <c r="M38" s="31"/>
+        <v>6306</v>
+      </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D39">
-        <v>15235</v>
+        <v>27265</v>
       </c>
       <c r="E39">
-        <v>6783</v>
+        <v>8662</v>
       </c>
       <c r="G39">
-        <v>6783</v>
+        <v>8662</v>
       </c>
       <c r="H39">
-        <v>15235</v>
+        <v>27265</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D40">
-        <v>8000</v>
+        <v>27267</v>
       </c>
       <c r="E40">
-        <v>7966</v>
+        <v>6932</v>
       </c>
       <c r="G40">
-        <v>6303</v>
+        <v>6932</v>
       </c>
       <c r="H40">
-        <v>7998</v>
+        <v>27267</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D41">
-        <v>6306</v>
+        <v>15828</v>
       </c>
       <c r="E41">
-        <v>8928</v>
+        <v>7028</v>
       </c>
       <c r="G41">
-        <v>8928</v>
+        <v>7028</v>
       </c>
       <c r="H41">
-        <v>6306</v>
+        <v>15828</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D42">
-        <v>27265</v>
+        <v>6382</v>
       </c>
       <c r="E42">
-        <v>8662</v>
+        <v>6383</v>
       </c>
       <c r="G42">
-        <v>8662</v>
+        <v>6381</v>
       </c>
       <c r="H42">
-        <v>27265</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>148</v>
+        <v>331</v>
       </c>
       <c r="D43">
-        <v>27267</v>
+        <v>6690</v>
       </c>
       <c r="E43">
-        <v>6932</v>
+        <v>6359</v>
       </c>
       <c r="G43">
-        <v>6932</v>
+        <v>6384</v>
       </c>
       <c r="H43">
-        <v>27267</v>
+        <v>6693</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D44">
-        <v>15828</v>
+        <v>5032</v>
       </c>
       <c r="E44">
-        <v>7028</v>
+        <v>5033</v>
       </c>
       <c r="G44">
-        <v>7028</v>
+        <v>5022</v>
       </c>
       <c r="H44">
-        <v>15828</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>331</v>
+        <v>192</v>
       </c>
       <c r="D45">
-        <v>6382</v>
+        <v>5018</v>
       </c>
       <c r="E45">
-        <v>6383</v>
+        <v>5019</v>
       </c>
       <c r="G45">
-        <v>6381</v>
+        <v>5027</v>
       </c>
       <c r="H45">
-        <v>6325</v>
+        <v>7040</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>332</v>
+        <v>194</v>
       </c>
       <c r="D46">
-        <v>6690</v>
+        <v>7025</v>
       </c>
       <c r="E46">
-        <v>6359</v>
+        <v>7023</v>
       </c>
       <c r="G46">
-        <v>6384</v>
+        <v>7023</v>
       </c>
       <c r="H46">
-        <v>6693</v>
+        <v>7025</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D47">
-        <v>5032</v>
+        <v>7102</v>
       </c>
       <c r="E47">
-        <v>5033</v>
+        <v>16030</v>
       </c>
       <c r="G47">
-        <v>5022</v>
+        <v>16030</v>
       </c>
       <c r="H47">
-        <v>5023</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D48">
-        <v>5018</v>
+        <v>7102</v>
       </c>
       <c r="E48">
-        <v>5019</v>
+        <v>7096</v>
       </c>
       <c r="G48">
-        <v>5027</v>
+        <v>7096</v>
       </c>
       <c r="H48">
-        <v>7040</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -2949,19 +2967,19 @@
         <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D49">
-        <v>7025</v>
+        <v>16699</v>
       </c>
       <c r="E49">
-        <v>7023</v>
+        <v>16694</v>
       </c>
       <c r="G49">
-        <v>7023</v>
+        <v>16693</v>
       </c>
       <c r="H49">
-        <v>7025</v>
+        <v>16695</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -2969,201 +2987,219 @@
         <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D50">
-        <v>7102</v>
+        <v>5918</v>
       </c>
       <c r="E50">
-        <v>16030</v>
+        <v>5014</v>
       </c>
       <c r="G50">
-        <v>16030</v>
+        <v>5014</v>
       </c>
       <c r="H50">
-        <v>7102</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>198</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C51" s="6"/>
       <c r="D51">
-        <v>7102</v>
+        <v>5869</v>
       </c>
       <c r="E51">
-        <v>7096</v>
-      </c>
+        <v>5872</v>
+      </c>
+      <c r="F51" s="10"/>
       <c r="G51">
-        <v>7096</v>
+        <v>5872</v>
       </c>
       <c r="H51">
-        <v>7102</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>16699</v>
+        <v>7452</v>
       </c>
       <c r="E52">
-        <v>16694</v>
+        <v>9283</v>
       </c>
       <c r="G52">
-        <v>16693</v>
+        <v>9283</v>
       </c>
       <c r="H52">
-        <v>16695</v>
+        <v>7452</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="D53">
-        <v>5918</v>
+        <v>7462</v>
       </c>
       <c r="E53">
-        <v>5014</v>
+        <v>5012</v>
       </c>
       <c r="G53">
-        <v>5014</v>
+        <v>5012</v>
       </c>
       <c r="H53">
-        <v>5918</v>
+        <v>7462</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="6"/>
+        <v>30</v>
+      </c>
       <c r="D54">
-        <v>5869</v>
+        <v>5865</v>
       </c>
       <c r="E54">
-        <v>5872</v>
-      </c>
-      <c r="F54" s="10"/>
+        <v>5871</v>
+      </c>
       <c r="G54">
-        <v>5872</v>
+        <v>5871</v>
       </c>
       <c r="H54">
-        <v>5869</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D55">
-        <v>7452</v>
+        <v>7536</v>
       </c>
       <c r="E55">
-        <v>9283</v>
+        <v>5268</v>
       </c>
       <c r="G55">
-        <v>9283</v>
+        <v>5268</v>
       </c>
       <c r="H55">
-        <v>7452</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D56">
-        <v>7462</v>
+        <v>7534</v>
       </c>
       <c r="E56">
-        <v>5012</v>
+        <v>6668</v>
       </c>
       <c r="G56">
-        <v>5012</v>
+        <v>6669</v>
       </c>
       <c r="H56">
-        <v>7462</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D57">
-        <v>5865</v>
+        <v>5336</v>
       </c>
       <c r="E57">
-        <v>5871</v>
+        <v>5337</v>
       </c>
       <c r="G57">
-        <v>5871</v>
+        <v>5334</v>
       </c>
       <c r="H57">
-        <v>5865</v>
+        <v>5335</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M57">
+        <v>5338</v>
+      </c>
+      <c r="N57">
+        <v>5339</v>
+      </c>
+      <c r="P57">
+        <v>5340</v>
+      </c>
+      <c r="Q57">
+        <v>5341</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D58">
-        <v>7536</v>
+        <v>7607</v>
       </c>
       <c r="E58">
-        <v>5268</v>
+        <v>7609</v>
       </c>
       <c r="G58">
-        <v>5268</v>
+        <v>7609</v>
       </c>
       <c r="H58">
-        <v>7536</v>
+        <v>7607</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D59">
-        <v>7534</v>
+        <v>8111</v>
       </c>
       <c r="E59">
-        <v>6668</v>
+        <v>6542</v>
       </c>
       <c r="G59">
-        <v>6669</v>
+        <v>6544</v>
       </c>
       <c r="H59">
-        <v>5831</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3171,37 +3207,19 @@
         <v>38</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D60">
-        <v>5336</v>
+        <v>5797</v>
       </c>
       <c r="E60">
-        <v>5337</v>
+        <v>5295</v>
       </c>
       <c r="G60">
-        <v>5334</v>
+        <v>5295</v>
       </c>
       <c r="H60">
-        <v>5335</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M60">
-        <v>5338</v>
-      </c>
-      <c r="N60">
-        <v>5339</v>
-      </c>
-      <c r="P60">
-        <v>5340</v>
-      </c>
-      <c r="Q60">
-        <v>5341</v>
+        <v>5797</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3209,19 +3227,22 @@
         <v>38</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
       </c>
       <c r="D61">
-        <v>7607</v>
+        <v>5799</v>
       </c>
       <c r="E61">
-        <v>7609</v>
+        <v>6511</v>
       </c>
       <c r="G61">
-        <v>7609</v>
+        <v>6511</v>
       </c>
       <c r="H61">
-        <v>7607</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3229,19 +3250,19 @@
         <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D62">
-        <v>8111</v>
+        <v>5783</v>
       </c>
       <c r="E62">
-        <v>6542</v>
+        <v>5772</v>
       </c>
       <c r="G62">
-        <v>6544</v>
+        <v>5772</v>
       </c>
       <c r="H62">
-        <v>5202</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3249,442 +3270,379 @@
         <v>38</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D63">
-        <v>5797</v>
+        <v>16895</v>
       </c>
       <c r="E63">
-        <v>5295</v>
+        <v>8155</v>
       </c>
       <c r="G63">
-        <v>5295</v>
+        <v>8166</v>
       </c>
       <c r="H63">
-        <v>5797</v>
+        <v>7603</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="D64">
-        <v>5799</v>
+        <v>5931</v>
       </c>
       <c r="E64">
-        <v>6511</v>
+        <v>5932</v>
       </c>
       <c r="G64">
-        <v>6511</v>
+        <v>7670</v>
       </c>
       <c r="H64">
-        <v>5798</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="D65">
-        <v>5783</v>
+        <v>5742</v>
       </c>
       <c r="E65">
-        <v>5772</v>
+        <v>5741</v>
       </c>
       <c r="G65">
-        <v>5772</v>
+        <v>5741</v>
       </c>
       <c r="H65">
-        <v>5783</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>5742</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>47</v>
+        <v>304</v>
       </c>
       <c r="D66">
-        <v>16895</v>
+        <v>8214</v>
       </c>
       <c r="E66">
-        <v>8155</v>
+        <v>9466</v>
       </c>
       <c r="G66">
-        <v>8166</v>
+        <v>9466</v>
       </c>
       <c r="H66">
-        <v>7603</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>8217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D67">
-        <v>5931</v>
+        <v>8253</v>
       </c>
       <c r="E67">
-        <v>5932</v>
+        <v>5452</v>
       </c>
       <c r="G67">
-        <v>7670</v>
+        <v>5452</v>
       </c>
       <c r="H67">
-        <v>5923</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="D68">
-        <v>5742</v>
+        <v>8253</v>
       </c>
       <c r="E68">
-        <v>5741</v>
+        <v>8262</v>
       </c>
       <c r="G68">
-        <v>5741</v>
+        <v>8263</v>
       </c>
       <c r="H68">
-        <v>5742</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="D69">
-        <v>8214</v>
+        <v>8249</v>
       </c>
       <c r="E69">
-        <v>9466</v>
+        <v>9453</v>
       </c>
       <c r="G69">
-        <v>9466</v>
+        <v>9453</v>
       </c>
       <c r="H69">
-        <v>8217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>8249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D70">
-        <v>8253</v>
+        <v>5472</v>
       </c>
       <c r="E70">
-        <v>5452</v>
+        <v>5443</v>
       </c>
       <c r="G70">
-        <v>5452</v>
+        <v>5443</v>
       </c>
       <c r="H70">
-        <v>8253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="D71">
-        <v>8253</v>
+        <v>5447</v>
       </c>
       <c r="E71">
-        <v>8262</v>
+        <v>5456</v>
       </c>
       <c r="G71">
-        <v>8263</v>
+        <v>5456</v>
       </c>
       <c r="H71">
-        <v>8253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="D72">
-        <v>8249</v>
+        <v>8228</v>
       </c>
       <c r="E72">
-        <v>9453</v>
+        <v>8226</v>
       </c>
       <c r="G72">
-        <v>9453</v>
+        <v>8227</v>
       </c>
       <c r="H72">
-        <v>8249</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D73">
-        <v>5472</v>
+        <v>6085</v>
       </c>
       <c r="E73">
-        <v>5443</v>
+        <v>9758</v>
       </c>
       <c r="G73">
-        <v>5443</v>
+        <v>9758</v>
       </c>
       <c r="H73">
-        <v>5472</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D74">
-        <v>5447</v>
+        <v>6104</v>
       </c>
       <c r="E74">
-        <v>5456</v>
+        <v>27340</v>
       </c>
       <c r="G74">
-        <v>5456</v>
+        <v>27340</v>
       </c>
       <c r="H74">
-        <v>5447</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>306</v>
+        <v>229</v>
       </c>
       <c r="D75">
-        <v>8228</v>
+        <v>6096</v>
       </c>
       <c r="E75">
-        <v>8226</v>
+        <v>9804</v>
       </c>
       <c r="G75">
-        <v>8227</v>
+        <v>9804</v>
       </c>
       <c r="H75">
-        <v>5445</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="D76">
-        <v>6085</v>
+        <v>6009</v>
       </c>
       <c r="E76">
-        <v>9758</v>
+        <v>9832</v>
       </c>
       <c r="G76">
-        <v>9758</v>
+        <v>9835</v>
       </c>
       <c r="H76">
-        <v>6085</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D77">
-        <v>6104</v>
+        <v>6015</v>
       </c>
       <c r="E77">
-        <v>27340</v>
+        <v>9829</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
       </c>
       <c r="G77">
-        <v>27340</v>
+        <v>9827</v>
       </c>
       <c r="H77">
-        <v>6104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D78">
-        <v>6096</v>
+        <v>6180</v>
       </c>
       <c r="E78">
-        <v>9804</v>
+        <v>7697</v>
       </c>
       <c r="G78">
-        <v>9804</v>
+        <v>7697</v>
       </c>
       <c r="H78">
-        <v>6096</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>6180</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M78">
+        <v>6001</v>
+      </c>
+      <c r="N78">
+        <v>7699</v>
+      </c>
+      <c r="P78">
+        <v>7699</v>
+      </c>
+      <c r="Q78">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="D79">
-        <v>6009</v>
+        <v>6175</v>
       </c>
       <c r="E79">
-        <v>9832</v>
+        <v>6174</v>
       </c>
       <c r="G79">
-        <v>9835</v>
+        <v>6174</v>
       </c>
       <c r="H79">
-        <v>6010</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D80">
-        <v>6015</v>
+        <v>6146</v>
       </c>
       <c r="E80">
-        <v>9829</v>
-      </c>
-      <c r="F80" t="s">
-        <v>22</v>
+        <v>16133</v>
       </c>
       <c r="G80">
-        <v>9827</v>
+        <v>16133</v>
       </c>
       <c r="H80">
-        <v>6006</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D81">
-        <v>6180</v>
-      </c>
-      <c r="E81">
-        <v>7697</v>
-      </c>
-      <c r="G81">
-        <v>7697</v>
-      </c>
-      <c r="H81">
-        <v>6180</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="M81">
-        <v>6001</v>
-      </c>
-      <c r="N81">
-        <v>7699</v>
-      </c>
-      <c r="P81">
-        <v>7699</v>
-      </c>
-      <c r="Q81">
-        <v>6001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D82">
-        <v>6175</v>
-      </c>
-      <c r="E82">
-        <v>6174</v>
-      </c>
-      <c r="G82">
-        <v>6174</v>
-      </c>
-      <c r="H82">
-        <v>6175</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D83">
-        <v>6146</v>
-      </c>
-      <c r="E83">
-        <v>16133</v>
-      </c>
-      <c r="G83">
-        <v>16133</v>
-      </c>
-      <c r="H83">
         <v>6146</v>
       </c>
     </row>
@@ -4673,11 +4631,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -4690,6 +4643,11 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4701,8 +4659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9320DA-452C-4767-B135-0406F64965CB}">
   <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="F54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4730,18 +4688,18 @@
     <row r="1" spans="1:15">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
       <c r="N1" s="14" t="s">
         <v>87</v>
       </c>
@@ -4750,26 +4708,26 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="49"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
       <c r="N2" s="1" t="s">
         <v>90</v>
       </c>
@@ -4778,8 +4736,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="41"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
@@ -5944,7 +5902,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="50"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="21" t="s">
         <v>63</v>
       </c>
@@ -5998,18 +5956,18 @@
     <row r="31" spans="1:15">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
       <c r="N31" s="1" t="s">
         <v>137</v>
       </c>
@@ -6018,26 +5976,26 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="44" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="47"/>
       <c r="N32" s="1" t="s">
         <v>139</v>
       </c>
@@ -6046,8 +6004,8 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="41"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
@@ -7212,7 +7170,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="50"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="21" t="s">
         <v>63</v>
       </c>
@@ -8032,6 +7990,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
@@ -8044,30 +8026,6 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8079,7 +8037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74D4F4C-7CCF-485A-ABA9-3D7E495B78E0}">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="U11" sqref="U11:V24"/>
     </sheetView>
   </sheetViews>

--- a/ta/指派結果/TRTS-4S屏柵線.xlsx
+++ b/ta/指派結果/TRTS-4S屏柵線.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\指派結果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Desktop\屏柵線\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF41E41-963C-4EF1-86AF-88020778DD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006A96A6-8A98-4123-ADA4-D742FEB9268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="2355" windowWidth="21600" windowHeight="11835" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
   </bookViews>
   <sheets>
     <sheet name="節點編號" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="350">
   <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,14 +177,6 @@
   </si>
   <si>
     <t>SL7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往南/東</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往北/西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1045,14 +1035,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>景美橋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SL3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基隆河</t>
   </si>
   <si>
@@ -1104,30 +1086,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SL2</t>
+  </si>
+  <si>
+    <t>出市中心</t>
+  </si>
+  <si>
+    <t>進市中心</t>
+  </si>
+  <si>
+    <t>承德橋(機車專用道)</t>
+  </si>
+  <si>
+    <t>民權大橋(機車專用道)</t>
+  </si>
+  <si>
+    <t>環河北路平面(往北)</t>
+  </si>
+  <si>
+    <t>中山北路(快車道)</t>
+  </si>
+  <si>
     <t>中山北路(慢車道)</t>
+  </si>
+  <si>
+    <t>建國南路高架(機車專用道)</t>
+  </si>
+  <si>
+    <t>敦化南路(快車道)</t>
+  </si>
+  <si>
+    <t>敦化南路(慢車道)</t>
+  </si>
+  <si>
+    <t>仁愛路(快車道)</t>
+  </si>
+  <si>
+    <t>仁愛路(慢車道)</t>
+  </si>
+  <si>
+    <t>信義路(快車道)</t>
+  </si>
+  <si>
+    <t>信義路(慢車道)</t>
+  </si>
+  <si>
+    <t>臺2_民權路-中央北路口</t>
+  </si>
+  <si>
+    <t>重陽橋(機車專用道)</t>
+  </si>
+  <si>
+    <t>臺1甲_臺北橋(機車專用道)</t>
+  </si>
+  <si>
+    <t>臺1_忠孝橋(機車專用道)</t>
+  </si>
+  <si>
+    <t>臺3_華江橋(機車專用道)</t>
+  </si>
+  <si>
+    <t>華中橋(機車專用道)</t>
+  </si>
+  <si>
+    <t>縣106甲_大漢橋(機車專用道)</t>
+  </si>
+  <si>
+    <t>縣114_浮洲橋(機車專用道)</t>
+  </si>
+  <si>
+    <t>城林橋(機車專用道)</t>
+  </si>
+  <si>
+    <t>縣106_秀朗橋(機車專用道)</t>
+  </si>
+  <si>
+    <t>往南/東/進城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金山北路(新生高架)匝道</t>
+    <t>往北/西/出城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>敦化南路(慢車道)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SL2</t>
-  </si>
-  <si>
-    <t>建國北路高架(國一往北)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建國北路平面(國一往南)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建國南路平面</t>
+    <t>安東街</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1138,7 +1180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1215,8 +1257,29 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFEE0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,6 +1301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,7 +1515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1537,12 +1606,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1561,13 +1624,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1591,12 +1651,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1605,6 +1659,34 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1944,1706 +2026,3453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B91B70-CCE3-4F38-82D1-372C96A2E9C6}">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="51"/>
+    <col min="2" max="2" width="28.88671875" style="51" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="51"/>
+    <col min="6" max="6" width="14.109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>27277</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="56">
         <v>8127</v>
       </c>
-      <c r="G2">
+      <c r="E2" s="56">
+        <v>8131</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="51">
+        <v>8133</v>
+      </c>
+      <c r="H2" s="51">
         <v>8127</v>
       </c>
-      <c r="H2">
-        <v>27278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="51">
+        <v>6637</v>
+      </c>
+      <c r="E3" s="51">
         <v>6666</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3" s="51">
+        <v>6666</v>
+      </c>
+      <c r="H3" s="51">
         <v>8115</v>
       </c>
-      <c r="G3">
-        <v>6637</v>
-      </c>
-      <c r="H3">
-        <v>6666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="51">
+        <v>10247</v>
+      </c>
+      <c r="E4" s="51">
+        <v>8292</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="51">
+        <v>8292</v>
+      </c>
+      <c r="H4" s="51">
         <v>10246</v>
       </c>
-      <c r="E4">
-        <v>6631</v>
-      </c>
-      <c r="G4">
-        <v>6631</v>
-      </c>
-      <c r="H4">
-        <v>10247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="51">
+        <v>8292</v>
+      </c>
+      <c r="E5" s="51">
         <v>10245</v>
       </c>
-      <c r="E5">
-        <v>6631</v>
-      </c>
-      <c r="G5">
-        <v>6631</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5" s="51">
         <v>10248</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="51">
+        <v>8292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>6680</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="56">
+        <v>6675</v>
+      </c>
+      <c r="E6" s="56">
         <v>6676</v>
       </c>
-      <c r="G6">
-        <v>27273</v>
-      </c>
-      <c r="H6">
-        <v>6680</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6" s="56">
+        <v>6676</v>
+      </c>
+      <c r="H6" s="56">
+        <v>6675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="51">
         <v>8607</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="51">
         <v>6813</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="51">
         <v>6813</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="51">
         <v>8607</v>
       </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="51">
         <v>6323</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="51">
         <v>6324</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" s="51">
         <v>6325</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="51">
         <v>6326</v>
       </c>
-      <c r="J8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8">
-        <v>6327</v>
-      </c>
-      <c r="N8">
+      <c r="B9" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="51">
+        <v>6294</v>
+      </c>
+      <c r="E9" s="51">
+        <v>10219</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9" s="51">
+        <v>10219</v>
+      </c>
+      <c r="H9" s="51">
+        <v>6294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="51">
+        <v>6294</v>
+      </c>
+      <c r="E10" s="51">
+        <v>10218</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="51">
+        <v>10220</v>
+      </c>
+      <c r="H10" s="51">
+        <v>6294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="51">
+        <v>8019</v>
+      </c>
+      <c r="E11" s="51">
+        <v>8002</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" s="51">
+        <v>8020</v>
+      </c>
+      <c r="H11" s="51">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="51">
+        <v>7987</v>
+      </c>
+      <c r="E12" s="51">
+        <v>8021</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="51">
+        <v>8022</v>
+      </c>
+      <c r="H12" s="51">
+        <v>6964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="51">
+        <v>6924</v>
+      </c>
+      <c r="E13" s="51">
+        <v>6915</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" s="51">
+        <v>6915</v>
+      </c>
+      <c r="H13" s="51">
+        <v>6924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14" s="51">
+        <v>6975</v>
+      </c>
+      <c r="E14" s="51">
+        <v>16420</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" s="51">
+        <v>16420</v>
+      </c>
+      <c r="H14" s="51">
+        <v>6975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="51">
+        <v>15759</v>
+      </c>
+      <c r="E15" s="51">
+        <v>7036</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15" s="51">
+        <v>7036</v>
+      </c>
+      <c r="H15" s="51">
+        <v>15759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="51">
+        <v>6443</v>
+      </c>
+      <c r="E16" s="51">
+        <v>5300</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="51">
+        <v>6440</v>
+      </c>
+      <c r="H16" s="51">
+        <v>6441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="51">
+        <v>6442</v>
+      </c>
+      <c r="H17" s="51">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="51">
+        <v>6439</v>
+      </c>
+      <c r="E18" s="51">
+        <v>14086</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="51">
+        <v>14086</v>
+      </c>
+      <c r="H18" s="51">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="51">
+        <v>6437</v>
+      </c>
+      <c r="E19" s="51">
+        <v>6438</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="51">
+        <v>6438</v>
+      </c>
+      <c r="H19" s="51">
+        <v>6437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="51">
+        <v>9103</v>
+      </c>
+      <c r="E20" s="51">
+        <v>6536</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="51">
+        <v>6536</v>
+      </c>
+      <c r="H20" s="51">
+        <v>9103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="51">
+        <v>9105</v>
+      </c>
+      <c r="E21" s="51">
+        <v>6448</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="51">
+        <v>8372</v>
+      </c>
+      <c r="H21" s="51">
+        <v>8369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="51">
+        <v>9133</v>
+      </c>
+      <c r="E22" s="51">
+        <v>8371</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="51">
+        <v>8373</v>
+      </c>
+      <c r="H22" s="51">
+        <v>8370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="51">
+        <v>6575</v>
+      </c>
+      <c r="E23" s="51">
+        <v>9169</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="51">
+        <v>9169</v>
+      </c>
+      <c r="H23" s="51">
+        <v>6575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="51">
+        <v>6576</v>
+      </c>
+      <c r="E24" s="51">
+        <v>6570</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="51">
+        <v>6570</v>
+      </c>
+      <c r="H24" s="51">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="51">
+        <v>8424</v>
+      </c>
+      <c r="E25" s="51">
+        <v>8432</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="51">
+        <v>8431</v>
+      </c>
+      <c r="H25" s="51">
+        <v>6586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="51">
+        <v>6424</v>
+      </c>
+      <c r="E26" s="51">
+        <v>8433</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="51">
+        <v>8430</v>
+      </c>
+      <c r="H26" s="51">
+        <v>6427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="51">
+        <v>8447</v>
+      </c>
+      <c r="E27" s="51">
+        <v>8449</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="51">
+        <v>8454</v>
+      </c>
+      <c r="H27" s="51">
+        <v>8448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="51">
+        <v>6354</v>
+      </c>
+      <c r="E28" s="51">
+        <v>6349</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="51">
+        <v>6741</v>
+      </c>
+      <c r="H28" s="51">
+        <v>6751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="51">
+        <v>8535</v>
+      </c>
+      <c r="E29" s="51">
+        <v>8536</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="51">
+        <v>8533</v>
+      </c>
+      <c r="H29" s="51">
+        <v>8534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="51">
+        <v>6352</v>
+      </c>
+      <c r="E30" s="51">
+        <v>6356</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="51">
+        <v>6357</v>
+      </c>
+      <c r="H30" s="51">
+        <v>6353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="51">
+        <v>9182</v>
+      </c>
+      <c r="H31" s="51">
+        <v>9181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="51">
+        <v>6745</v>
+      </c>
+      <c r="E32" s="51">
+        <v>6734</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="51">
+        <v>6734</v>
+      </c>
+      <c r="H32" s="51">
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="51">
+        <v>6715</v>
+      </c>
+      <c r="E33" s="51">
+        <v>6722</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="51">
+        <v>6722</v>
+      </c>
+      <c r="H33" s="51">
+        <v>6715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="51">
+        <v>13570</v>
+      </c>
+      <c r="E34" s="51">
+        <v>7771</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="51">
+        <v>7772</v>
+      </c>
+      <c r="H34" s="51">
+        <v>13571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="51">
+        <v>9247</v>
+      </c>
+      <c r="E35" s="51">
+        <v>9246</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="51">
+        <v>9246</v>
+      </c>
+      <c r="H35" s="51">
+        <v>9247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="51">
+        <v>6780</v>
+      </c>
+      <c r="E36" s="51">
+        <v>6781</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="51">
+        <v>6781</v>
+      </c>
+      <c r="H36" s="51">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="51">
+        <v>6332</v>
+      </c>
+      <c r="E37" s="51">
+        <v>6775</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="51">
+        <v>6775</v>
+      </c>
+      <c r="H37" s="51">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="51">
+        <v>8000</v>
+      </c>
+      <c r="E38" s="51">
+        <v>7966</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="51">
+        <v>6303</v>
+      </c>
+      <c r="H38" s="51">
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="51">
+        <v>6305</v>
+      </c>
+      <c r="E39" s="51">
+        <v>6306</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="51">
+        <v>6306</v>
+      </c>
+      <c r="H39" s="51">
+        <v>6305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="56">
+        <v>8661</v>
+      </c>
+      <c r="E40" s="56">
+        <v>8662</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="56">
+        <v>8662</v>
+      </c>
+      <c r="H40" s="56">
+        <v>8661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="56">
+        <v>6977</v>
+      </c>
+      <c r="E41" s="56">
+        <v>6932</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="56">
+        <v>6932</v>
+      </c>
+      <c r="H41" s="56">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="51">
+        <v>16363</v>
+      </c>
+      <c r="E42" s="51">
+        <v>15828</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="51">
+        <v>15828</v>
+      </c>
+      <c r="H42" s="51">
+        <v>16363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D43" s="51">
+        <v>6383</v>
+      </c>
+      <c r="E43" s="51">
+        <v>6385</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G43" s="51">
+        <v>6363</v>
+      </c>
+      <c r="H43" s="51">
+        <v>6364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D44" s="51">
+        <v>9144</v>
+      </c>
+      <c r="E44" s="51">
+        <v>8521</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G44" s="51">
+        <v>8522</v>
+      </c>
+      <c r="H44" s="51">
+        <v>9156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="51">
+        <v>6398</v>
+      </c>
+      <c r="E45" s="51">
+        <v>8516</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="51">
+        <v>8516</v>
+      </c>
+      <c r="H45" s="51">
+        <v>6398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="51">
+        <v>15483</v>
+      </c>
+      <c r="E46" s="51">
+        <v>8094</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="51">
+        <v>8095</v>
+      </c>
+      <c r="H46" s="51">
+        <v>15482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="51">
+        <v>8436</v>
+      </c>
+      <c r="E47" s="51">
+        <v>8077</v>
+      </c>
+      <c r="F47" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="51">
+        <v>8077</v>
+      </c>
+      <c r="H47" s="51">
+        <v>8436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="51">
+        <v>8438</v>
+      </c>
+      <c r="E48" s="51">
+        <v>6397</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="51">
+        <v>6397</v>
+      </c>
+      <c r="H48" s="51">
+        <v>8438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="51">
+        <v>8526</v>
+      </c>
+      <c r="E49" s="51">
+        <v>9163</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="51">
+        <v>9163</v>
+      </c>
+      <c r="H49" s="51">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="51">
+        <v>9175</v>
+      </c>
+      <c r="E50" s="51">
+        <v>6395</v>
+      </c>
+      <c r="F50" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="51">
+        <v>6395</v>
+      </c>
+      <c r="H50" s="51">
+        <v>9175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="51">
+        <v>9202</v>
+      </c>
+      <c r="E51" s="51">
+        <v>8037</v>
+      </c>
+      <c r="F51" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="51">
+        <v>8036</v>
+      </c>
+      <c r="H51" s="51">
+        <v>9203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="51">
+        <v>6752</v>
+      </c>
+      <c r="E52" s="51">
+        <v>9186</v>
+      </c>
+      <c r="F52" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="51">
+        <v>9186</v>
+      </c>
+      <c r="H52" s="51">
+        <v>6752</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="51">
+        <v>9899</v>
+      </c>
+      <c r="E53" s="51">
+        <v>6350</v>
+      </c>
+      <c r="F53" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="51">
+        <v>6350</v>
+      </c>
+      <c r="H53" s="51">
+        <v>9899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="51">
+        <v>9180</v>
+      </c>
+      <c r="E54" s="51">
+        <v>6352</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="51">
+        <v>6352</v>
+      </c>
+      <c r="H54" s="51">
+        <v>9180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="51">
+        <v>6388</v>
+      </c>
+      <c r="E55" s="51">
+        <v>6389</v>
+      </c>
+      <c r="F55" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="51">
+        <v>6390</v>
+      </c>
+      <c r="H55" s="51">
+        <v>6391</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="51">
+        <v>6599</v>
+      </c>
+      <c r="E56" s="51">
+        <v>6347</v>
+      </c>
+      <c r="F56" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="51">
+        <v>6356</v>
+      </c>
+      <c r="H56" s="51">
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="51">
+        <v>6402</v>
+      </c>
+      <c r="E57" s="51">
+        <v>6403</v>
+      </c>
+      <c r="F57" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="51">
+        <v>6403</v>
+      </c>
+      <c r="H57" s="51">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="51">
+        <v>6342</v>
+      </c>
+      <c r="H58" s="51">
+        <v>8478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G59" s="51">
+        <v>7877</v>
+      </c>
+      <c r="H59" s="51">
+        <v>9912</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60" s="51">
+        <v>7879</v>
+      </c>
+      <c r="H60" s="51">
+        <v>15093</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="56">
+        <v>8500</v>
+      </c>
+      <c r="E61" s="56">
+        <v>5259</v>
+      </c>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="51">
+        <v>10202</v>
+      </c>
+      <c r="E62" s="51">
+        <v>7808</v>
+      </c>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="51">
+        <v>10205</v>
+      </c>
+      <c r="E63" s="51">
+        <v>7805</v>
+      </c>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="55">
+        <v>10204</v>
+      </c>
+      <c r="E64" s="55">
+        <v>7806</v>
+      </c>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="51">
+        <v>9907</v>
+      </c>
+      <c r="E65" s="51">
+        <v>5995</v>
+      </c>
+      <c r="F65" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" s="51">
+        <v>5995</v>
+      </c>
+      <c r="H65" s="51">
+        <v>9907</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="51">
+        <v>6016</v>
+      </c>
+      <c r="E66" s="51">
+        <v>6017</v>
+      </c>
+      <c r="F66" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" s="51">
+        <v>8559</v>
+      </c>
+      <c r="H66" s="51">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="51">
+        <v>5032</v>
+      </c>
+      <c r="E67" s="51">
+        <v>5033</v>
+      </c>
+      <c r="F67" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="51">
+        <v>5022</v>
+      </c>
+      <c r="H67" s="51">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="51">
+        <v>5018</v>
+      </c>
+      <c r="E68" s="51">
+        <v>5019</v>
+      </c>
+      <c r="F68" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G68" s="51">
+        <v>5027</v>
+      </c>
+      <c r="H68" s="51">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="51">
+        <v>7025</v>
+      </c>
+      <c r="E69" s="51">
+        <v>7023</v>
+      </c>
+      <c r="F69" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G69" s="51">
+        <v>7023</v>
+      </c>
+      <c r="H69" s="51">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="56">
+        <v>7684</v>
+      </c>
+      <c r="E70" s="56">
+        <v>5047</v>
+      </c>
+      <c r="F70" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70" s="56">
+        <v>5047</v>
+      </c>
+      <c r="H70" s="56">
+        <v>7684</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="51">
+        <v>7105</v>
+      </c>
+      <c r="E71" s="51">
+        <v>7682</v>
+      </c>
+      <c r="F71" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71" s="51">
+        <v>7682</v>
+      </c>
+      <c r="H71" s="51">
+        <v>7105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="56">
+        <v>5044</v>
+      </c>
+      <c r="E72" s="56">
+        <v>5045</v>
+      </c>
+      <c r="F72" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" s="56">
+        <v>5050</v>
+      </c>
+      <c r="H72" s="56">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="51">
+        <v>5918</v>
+      </c>
+      <c r="E73" s="51">
+        <v>5014</v>
+      </c>
+      <c r="F73" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G73" s="51">
+        <v>5014</v>
+      </c>
+      <c r="H73" s="51">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="51">
+        <v>5872</v>
+      </c>
+      <c r="E74" s="51">
+        <v>8319</v>
+      </c>
+      <c r="F74" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="51">
+        <v>8319</v>
+      </c>
+      <c r="H74" s="51">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="51">
+        <v>7452</v>
+      </c>
+      <c r="E75" s="51">
+        <v>9283</v>
+      </c>
+      <c r="F75" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="51">
+        <v>9283</v>
+      </c>
+      <c r="H75" s="51">
+        <v>7452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="51">
+        <v>7462</v>
+      </c>
+      <c r="E76" s="51">
+        <v>5012</v>
+      </c>
+      <c r="F76" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" s="51">
+        <v>5012</v>
+      </c>
+      <c r="H76" s="51">
+        <v>7462</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="51">
+        <v>5865</v>
+      </c>
+      <c r="E77" s="51">
+        <v>5871</v>
+      </c>
+      <c r="F77" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G77" s="51">
+        <v>5871</v>
+      </c>
+      <c r="H77" s="51">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="51">
+        <v>7536</v>
+      </c>
+      <c r="E78" s="51">
+        <v>5268</v>
+      </c>
+      <c r="F78" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G78" s="51">
+        <v>5268</v>
+      </c>
+      <c r="H78" s="51">
+        <v>7536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="C79" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="51">
+        <v>7534</v>
+      </c>
+      <c r="E79" s="51">
+        <v>6668</v>
+      </c>
+      <c r="F79" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G79" s="51">
+        <v>6669</v>
+      </c>
+      <c r="H79" s="51">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="51">
+        <v>5338</v>
+      </c>
+      <c r="E80" s="51">
+        <v>5339</v>
+      </c>
+      <c r="F80" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G80" s="51">
         <v>5340</v>
       </c>
-      <c r="P8">
-        <v>6311</v>
-      </c>
-      <c r="Q8">
-        <v>6312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>10219</v>
-      </c>
-      <c r="E9">
-        <v>6798</v>
-      </c>
-      <c r="G9">
-        <v>6798</v>
-      </c>
-      <c r="H9">
-        <v>10219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>10218</v>
-      </c>
-      <c r="E10">
-        <v>6798</v>
-      </c>
-      <c r="G10">
-        <v>6798</v>
-      </c>
-      <c r="H10">
-        <v>10220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>8019</v>
-      </c>
-      <c r="E11">
-        <v>8002</v>
-      </c>
-      <c r="G11">
-        <v>8020</v>
-      </c>
-      <c r="H11">
-        <v>7999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>7987</v>
-      </c>
-      <c r="E12">
-        <v>8021</v>
-      </c>
-      <c r="G12">
-        <v>8022</v>
-      </c>
-      <c r="H12">
-        <v>6964</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12">
-        <v>7991</v>
-      </c>
-      <c r="N12">
-        <v>9239</v>
-      </c>
-      <c r="P12">
-        <v>9240</v>
-      </c>
-      <c r="Q12">
-        <v>7996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>6924</v>
-      </c>
-      <c r="E13">
-        <v>6915</v>
-      </c>
-      <c r="G13">
-        <v>6915</v>
-      </c>
-      <c r="H13">
-        <v>6924</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>6975</v>
-      </c>
-      <c r="E14">
-        <v>16420</v>
-      </c>
-      <c r="G14">
-        <v>16420</v>
-      </c>
-      <c r="H14">
-        <v>6975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>15759</v>
-      </c>
-      <c r="E15">
-        <v>7036</v>
-      </c>
-      <c r="G15">
-        <v>7036</v>
-      </c>
-      <c r="H15">
-        <v>15759</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16">
-        <v>6443</v>
-      </c>
-      <c r="E16">
-        <v>5300</v>
-      </c>
-      <c r="G16">
-        <v>6440</v>
-      </c>
-      <c r="H16">
-        <v>6441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17">
-        <v>6508</v>
-      </c>
-      <c r="E17">
-        <v>6513</v>
-      </c>
-      <c r="G17">
-        <v>6513</v>
-      </c>
-      <c r="H17">
-        <v>6508</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18">
-        <v>6412</v>
-      </c>
-      <c r="E18">
-        <v>6509</v>
-      </c>
-      <c r="G18">
-        <v>6509</v>
-      </c>
-      <c r="H18">
-        <v>6412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19">
-        <v>6438</v>
-      </c>
-      <c r="E19">
-        <v>6418</v>
-      </c>
-      <c r="G19">
-        <v>6418</v>
-      </c>
-      <c r="H19">
-        <v>6438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20">
-        <v>7956</v>
-      </c>
-      <c r="E20">
-        <v>7957</v>
-      </c>
-      <c r="G20">
-        <v>7957</v>
-      </c>
-      <c r="H20">
-        <v>7956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21">
-        <v>6448</v>
-      </c>
-      <c r="E21">
-        <v>6420</v>
-      </c>
-      <c r="G21">
-        <v>8375</v>
-      </c>
-      <c r="H21">
-        <v>8372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D22">
-        <v>8371</v>
-      </c>
-      <c r="E22">
-        <v>8376</v>
-      </c>
-      <c r="G22">
-        <v>8374</v>
-      </c>
-      <c r="H22">
-        <v>8373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23">
-        <v>9169</v>
-      </c>
-      <c r="E23">
-        <v>9031</v>
-      </c>
-      <c r="G23">
-        <v>9031</v>
-      </c>
-      <c r="H23">
-        <v>9169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24">
-        <v>6570</v>
-      </c>
-      <c r="E24">
-        <v>6564</v>
-      </c>
-      <c r="G24">
-        <v>6564</v>
-      </c>
-      <c r="H24">
-        <v>6570</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25">
-        <v>8432</v>
-      </c>
-      <c r="E25">
-        <v>8434</v>
-      </c>
-      <c r="G25">
-        <v>8429</v>
-      </c>
-      <c r="H25">
-        <v>8431</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26">
-        <v>6424</v>
-      </c>
-      <c r="E26">
-        <v>8433</v>
-      </c>
-      <c r="G26">
-        <v>8430</v>
-      </c>
-      <c r="H26">
-        <v>6427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D27">
-        <v>8432</v>
-      </c>
-      <c r="E27">
-        <v>8433</v>
-      </c>
-      <c r="G27">
-        <v>8430</v>
-      </c>
-      <c r="H27">
-        <v>8431</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28">
-        <v>8450</v>
-      </c>
-      <c r="E28">
-        <v>8453</v>
-      </c>
-      <c r="G28">
-        <v>8452</v>
-      </c>
-      <c r="H28">
-        <v>8451</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29">
-        <v>6383</v>
-      </c>
-      <c r="E29">
-        <v>6385</v>
-      </c>
-      <c r="G29">
-        <v>6363</v>
-      </c>
-      <c r="H29">
-        <v>6364</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D30">
-        <v>9144</v>
-      </c>
-      <c r="E30">
-        <v>8521</v>
-      </c>
-      <c r="G30">
-        <v>8522</v>
-      </c>
-      <c r="H30">
-        <v>9156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31">
-        <v>6745</v>
-      </c>
-      <c r="E31">
-        <v>6744</v>
-      </c>
-      <c r="G31">
-        <v>6744</v>
-      </c>
-      <c r="H31">
-        <v>6745</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32">
-        <v>6722</v>
-      </c>
-      <c r="E32">
-        <v>6723</v>
-      </c>
-      <c r="G32">
-        <v>6723</v>
-      </c>
-      <c r="H32">
-        <v>6722</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D33">
-        <v>7771</v>
-      </c>
-      <c r="E33">
-        <v>7769</v>
-      </c>
-      <c r="G33">
-        <v>7770</v>
-      </c>
-      <c r="H33">
-        <v>7772</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34">
-        <v>9246</v>
-      </c>
-      <c r="E34">
-        <v>8932</v>
-      </c>
-      <c r="G34">
-        <v>8932</v>
-      </c>
-      <c r="H34">
-        <v>9246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35">
-        <v>6781</v>
-      </c>
-      <c r="E35">
-        <v>6776</v>
-      </c>
-      <c r="G35">
-        <v>6776</v>
-      </c>
-      <c r="H35">
-        <v>6781</v>
-      </c>
-      <c r="L35" s="30"/>
-      <c r="M35" s="31"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36">
-        <v>15235</v>
-      </c>
-      <c r="E36">
-        <v>6783</v>
-      </c>
-      <c r="G36">
-        <v>6783</v>
-      </c>
-      <c r="H36">
-        <v>15235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37">
-        <v>8000</v>
-      </c>
-      <c r="E37">
-        <v>7966</v>
-      </c>
-      <c r="G37">
-        <v>6303</v>
-      </c>
-      <c r="H37">
-        <v>7998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38">
-        <v>6306</v>
-      </c>
-      <c r="E38">
-        <v>8928</v>
-      </c>
-      <c r="G38">
-        <v>8928</v>
-      </c>
-      <c r="H38">
-        <v>6306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39">
-        <v>27265</v>
-      </c>
-      <c r="E39">
-        <v>8662</v>
-      </c>
-      <c r="G39">
-        <v>8662</v>
-      </c>
-      <c r="H39">
-        <v>27265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40">
-        <v>27267</v>
-      </c>
-      <c r="E40">
-        <v>6932</v>
-      </c>
-      <c r="G40">
-        <v>6932</v>
-      </c>
-      <c r="H40">
-        <v>27267</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41">
-        <v>15828</v>
-      </c>
-      <c r="E41">
-        <v>7028</v>
-      </c>
-      <c r="G41">
-        <v>7028</v>
-      </c>
-      <c r="H41">
-        <v>15828</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D42">
-        <v>6382</v>
-      </c>
-      <c r="E42">
-        <v>6383</v>
-      </c>
-      <c r="G42">
-        <v>6381</v>
-      </c>
-      <c r="H42">
-        <v>6325</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D43">
-        <v>6690</v>
-      </c>
-      <c r="E43">
-        <v>6359</v>
-      </c>
-      <c r="G43">
-        <v>6384</v>
-      </c>
-      <c r="H43">
-        <v>6693</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D44">
-        <v>5032</v>
-      </c>
-      <c r="E44">
-        <v>5033</v>
-      </c>
-      <c r="G44">
-        <v>5022</v>
-      </c>
-      <c r="H44">
-        <v>5023</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45">
-        <v>5018</v>
-      </c>
-      <c r="E45">
-        <v>5019</v>
-      </c>
-      <c r="G45">
-        <v>5027</v>
-      </c>
-      <c r="H45">
-        <v>7040</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="1" t="s">
+      <c r="H80" s="51">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="51">
+        <v>7607</v>
+      </c>
+      <c r="E81" s="51">
+        <v>7609</v>
+      </c>
+      <c r="F81" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G81" s="51">
+        <v>7609</v>
+      </c>
+      <c r="H81" s="51">
+        <v>7607</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="51">
+        <v>8111</v>
+      </c>
+      <c r="E82" s="51">
+        <v>6542</v>
+      </c>
+      <c r="F82" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82" s="51">
+        <v>6544</v>
+      </c>
+      <c r="H82" s="51">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="51">
+        <v>5797</v>
+      </c>
+      <c r="E83" s="51">
+        <v>5295</v>
+      </c>
+      <c r="F83" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G83" s="51">
+        <v>5295</v>
+      </c>
+      <c r="H83" s="51">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" s="56">
+        <v>5799</v>
+      </c>
+      <c r="E84" s="56">
+        <v>5303</v>
+      </c>
+      <c r="F84" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G84" s="56">
+        <v>6514</v>
+      </c>
+      <c r="H84" s="56">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="51">
+        <v>5783</v>
+      </c>
+      <c r="E85" s="51">
+        <v>5772</v>
+      </c>
+      <c r="F85" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="51">
+        <v>5772</v>
+      </c>
+      <c r="H85" s="51">
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="51">
+        <v>5931</v>
+      </c>
+      <c r="E86" s="51">
+        <v>5932</v>
+      </c>
+      <c r="F86" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G86" s="51">
+        <v>7670</v>
+      </c>
+      <c r="H86" s="51">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" s="51">
+        <v>5741</v>
+      </c>
+      <c r="E87" s="51">
+        <v>9466</v>
+      </c>
+      <c r="F87" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G87" s="51">
+        <v>9466</v>
+      </c>
+      <c r="H87" s="51">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" s="51">
+        <v>8214</v>
+      </c>
+      <c r="E88" s="51">
+        <v>9466</v>
+      </c>
+      <c r="F88" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" s="51">
+        <v>9466</v>
+      </c>
+      <c r="H88" s="51">
+        <v>8217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="51">
+        <v>8253</v>
+      </c>
+      <c r="E89" s="51">
+        <v>5452</v>
+      </c>
+      <c r="F89" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G89" s="51">
+        <v>5452</v>
+      </c>
+      <c r="H89" s="51">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" s="51">
+        <v>8250</v>
+      </c>
+      <c r="E90" s="51">
+        <v>8249</v>
+      </c>
+      <c r="F90" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G90" s="51">
+        <v>8249</v>
+      </c>
+      <c r="H90" s="51">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91" s="51">
+        <v>5443</v>
+      </c>
+      <c r="E91" s="51">
+        <v>9618</v>
+      </c>
+      <c r="F91" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" s="51">
+        <v>9618</v>
+      </c>
+      <c r="H91" s="51">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" s="51">
+        <v>5447</v>
+      </c>
+      <c r="E92" s="51">
+        <v>5456</v>
+      </c>
+      <c r="F92" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G92" s="51">
+        <v>5456</v>
+      </c>
+      <c r="H92" s="51">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="51">
+        <v>8228</v>
+      </c>
+      <c r="E93" s="51">
+        <v>8226</v>
+      </c>
+      <c r="F93" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" s="51">
+        <v>8227</v>
+      </c>
+      <c r="H93" s="51">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="C94" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94" s="51">
+        <v>6085</v>
+      </c>
+      <c r="E94" s="51">
+        <v>9758</v>
+      </c>
+      <c r="F94" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G94" s="51">
+        <v>9758</v>
+      </c>
+      <c r="H94" s="51">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" s="56">
+        <v>6104</v>
+      </c>
+      <c r="E95" s="56">
+        <v>9796</v>
+      </c>
+      <c r="F95" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G95" s="56">
+        <v>9796</v>
+      </c>
+      <c r="H95" s="56">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" s="51">
+        <v>6096</v>
+      </c>
+      <c r="E96" s="51">
+        <v>9804</v>
+      </c>
+      <c r="F96" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G96" s="51">
+        <v>9804</v>
+      </c>
+      <c r="H96" s="51">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C97" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" s="51">
+        <v>6015</v>
+      </c>
+      <c r="E97" s="51">
+        <v>9829</v>
+      </c>
+      <c r="F97" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G97" s="51">
+        <v>9827</v>
+      </c>
+      <c r="H97" s="51">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="51">
+        <v>6180</v>
+      </c>
+      <c r="E98" s="51">
+        <v>7697</v>
+      </c>
+      <c r="F98" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G98" s="51">
+        <v>7697</v>
+      </c>
+      <c r="H98" s="51">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C99" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99" s="51">
+        <v>6175</v>
+      </c>
+      <c r="E99" s="51">
+        <v>6174</v>
+      </c>
+      <c r="F99" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G99" s="51">
+        <v>6174</v>
+      </c>
+      <c r="H99" s="51">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100" s="51">
+        <v>6146</v>
+      </c>
+      <c r="E100" s="51">
+        <v>16133</v>
+      </c>
+      <c r="F100" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G100" s="51">
+        <v>16133</v>
+      </c>
+      <c r="H100" s="51">
+        <v>6146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101" s="51">
+        <v>5205</v>
+      </c>
+      <c r="E101" s="51">
+        <v>9837</v>
+      </c>
+      <c r="F101" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G101" s="51">
+        <v>9837</v>
+      </c>
+      <c r="H101" s="51">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D102" s="51">
+        <v>5208</v>
+      </c>
+      <c r="E102" s="51">
+        <v>10308</v>
+      </c>
+      <c r="F102" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G102" s="51">
+        <v>10306</v>
+      </c>
+      <c r="H102" s="51">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="C103" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" s="51">
+        <v>5673</v>
+      </c>
+      <c r="E103" s="51">
+        <v>9603</v>
+      </c>
+      <c r="F103" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G103" s="51">
+        <v>9606</v>
+      </c>
+      <c r="H103" s="51">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C104" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" s="51">
+        <v>5117</v>
+      </c>
+      <c r="E104" s="51">
+        <v>5133</v>
+      </c>
+      <c r="F104" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G104" s="51">
+        <v>5133</v>
+      </c>
+      <c r="H104" s="51">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="C105" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" s="51">
+        <v>9392</v>
+      </c>
+      <c r="E105" s="51">
+        <v>9490</v>
+      </c>
+      <c r="F105" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G105" s="51">
+        <v>9490</v>
+      </c>
+      <c r="H105" s="51">
+        <v>9392</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="C106" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="51">
+        <v>9394</v>
+      </c>
+      <c r="E106" s="51">
+        <v>10270</v>
+      </c>
+      <c r="F106" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G106" s="51">
+        <v>10269</v>
+      </c>
+      <c r="H106" s="51">
+        <v>9394</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C107" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" s="56">
+        <v>9402</v>
+      </c>
+      <c r="E107" s="56">
+        <v>9401</v>
+      </c>
+      <c r="F107" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G107" s="56">
+        <v>9401</v>
+      </c>
+      <c r="H107" s="56">
+        <v>9402</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="C108" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108" s="51">
+        <v>9402</v>
+      </c>
+      <c r="E108" s="51">
+        <v>10274</v>
+      </c>
+      <c r="F108" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G108" s="51">
+        <v>10273</v>
+      </c>
+      <c r="H108" s="51">
+        <v>9402</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" s="56">
+        <v>15963</v>
+      </c>
+      <c r="E109" s="56">
+        <v>5363</v>
+      </c>
+      <c r="F109" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G109" s="56">
+        <v>5363</v>
+      </c>
+      <c r="H109" s="56">
+        <v>15963</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46">
-        <v>7025</v>
-      </c>
-      <c r="E46">
-        <v>7023</v>
-      </c>
-      <c r="G46">
-        <v>7023</v>
-      </c>
-      <c r="H46">
-        <v>7025</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="1" t="s">
+      <c r="B110" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C110" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" s="56">
+        <v>5504</v>
+      </c>
+      <c r="E110" s="56">
+        <v>5068</v>
+      </c>
+      <c r="F110" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G110" s="56">
+        <v>5066</v>
+      </c>
+      <c r="H110" s="56">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D47">
-        <v>7102</v>
-      </c>
-      <c r="E47">
-        <v>16030</v>
-      </c>
-      <c r="G47">
-        <v>16030</v>
-      </c>
-      <c r="H47">
-        <v>7102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1" t="s">
+      <c r="B111" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" s="51">
+        <v>5867</v>
+      </c>
+      <c r="E111" s="51">
+        <v>16235</v>
+      </c>
+      <c r="F111" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G111" s="51">
+        <v>16235</v>
+      </c>
+      <c r="H111" s="51">
+        <v>5867</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D48">
-        <v>7102</v>
-      </c>
-      <c r="E48">
-        <v>7096</v>
-      </c>
-      <c r="G48">
-        <v>7096</v>
-      </c>
-      <c r="H48">
-        <v>7102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="1" t="s">
+      <c r="B112" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C112" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D112" s="56">
+        <v>9352</v>
+      </c>
+      <c r="E112" s="56">
+        <v>5523</v>
+      </c>
+      <c r="F112" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G112" s="56">
+        <v>5523</v>
+      </c>
+      <c r="H112" s="56">
+        <v>9352</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D49">
-        <v>16699</v>
-      </c>
-      <c r="E49">
-        <v>16694</v>
-      </c>
-      <c r="G49">
-        <v>16693</v>
-      </c>
-      <c r="H49">
-        <v>16695</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="1" t="s">
+      <c r="B113" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" s="51">
+        <v>5564</v>
+      </c>
+      <c r="E113" s="51">
+        <v>10509</v>
+      </c>
+      <c r="F113" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G113" s="51">
+        <v>10509</v>
+      </c>
+      <c r="H113" s="51">
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D50">
-        <v>5918</v>
-      </c>
-      <c r="E50">
-        <v>5014</v>
-      </c>
-      <c r="G50">
-        <v>5014</v>
-      </c>
-      <c r="H50">
-        <v>5918</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51">
-        <v>5869</v>
-      </c>
-      <c r="E51">
-        <v>5872</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="G51">
-        <v>5872</v>
-      </c>
-      <c r="H51">
-        <v>5869</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52">
-        <v>7452</v>
-      </c>
-      <c r="E52">
-        <v>9283</v>
-      </c>
-      <c r="G52">
-        <v>9283</v>
-      </c>
-      <c r="H52">
-        <v>7452</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53">
-        <v>7462</v>
-      </c>
-      <c r="E53">
-        <v>5012</v>
-      </c>
-      <c r="G53">
-        <v>5012</v>
-      </c>
-      <c r="H53">
-        <v>7462</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54">
-        <v>5865</v>
-      </c>
-      <c r="E54">
-        <v>5871</v>
-      </c>
-      <c r="G54">
-        <v>5871</v>
-      </c>
-      <c r="H54">
-        <v>5865</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55">
-        <v>7536</v>
-      </c>
-      <c r="E55">
-        <v>5268</v>
-      </c>
-      <c r="G55">
-        <v>5268</v>
-      </c>
-      <c r="H55">
-        <v>7536</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56">
-        <v>7534</v>
-      </c>
-      <c r="E56">
-        <v>6668</v>
-      </c>
-      <c r="G56">
-        <v>6669</v>
-      </c>
-      <c r="H56">
-        <v>5831</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57">
-        <v>5336</v>
-      </c>
-      <c r="E57">
-        <v>5337</v>
-      </c>
-      <c r="G57">
-        <v>5334</v>
-      </c>
-      <c r="H57">
-        <v>5335</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M57">
-        <v>5338</v>
-      </c>
-      <c r="N57">
-        <v>5339</v>
-      </c>
-      <c r="P57">
-        <v>5340</v>
-      </c>
-      <c r="Q57">
-        <v>5341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58">
-        <v>7607</v>
-      </c>
-      <c r="E58">
-        <v>7609</v>
-      </c>
-      <c r="G58">
-        <v>7609</v>
-      </c>
-      <c r="H58">
-        <v>7607</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59">
-        <v>8111</v>
-      </c>
-      <c r="E59">
-        <v>6542</v>
-      </c>
-      <c r="G59">
-        <v>6544</v>
-      </c>
-      <c r="H59">
-        <v>5202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60">
-        <v>5797</v>
-      </c>
-      <c r="E60">
-        <v>5295</v>
-      </c>
-      <c r="G60">
-        <v>5295</v>
-      </c>
-      <c r="H60">
-        <v>5797</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61">
-        <v>5799</v>
-      </c>
-      <c r="E61">
-        <v>6511</v>
-      </c>
-      <c r="G61">
-        <v>6511</v>
-      </c>
-      <c r="H61">
-        <v>5798</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62">
-        <v>5783</v>
-      </c>
-      <c r="E62">
-        <v>5772</v>
-      </c>
-      <c r="G62">
-        <v>5772</v>
-      </c>
-      <c r="H62">
-        <v>5783</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63">
-        <v>16895</v>
-      </c>
-      <c r="E63">
-        <v>8155</v>
-      </c>
-      <c r="G63">
-        <v>8166</v>
-      </c>
-      <c r="H63">
-        <v>7603</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D64">
-        <v>5931</v>
-      </c>
-      <c r="E64">
-        <v>5932</v>
-      </c>
-      <c r="G64">
-        <v>7670</v>
-      </c>
-      <c r="H64">
-        <v>5923</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65">
-        <v>5742</v>
-      </c>
-      <c r="E65">
-        <v>5741</v>
-      </c>
-      <c r="G65">
-        <v>5741</v>
-      </c>
-      <c r="H65">
-        <v>5742</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D66">
-        <v>8214</v>
-      </c>
-      <c r="E66">
-        <v>9466</v>
-      </c>
-      <c r="G66">
-        <v>9466</v>
-      </c>
-      <c r="H66">
-        <v>8217</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D67">
-        <v>8253</v>
-      </c>
-      <c r="E67">
-        <v>5452</v>
-      </c>
-      <c r="G67">
-        <v>5452</v>
-      </c>
-      <c r="H67">
-        <v>8253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D68">
-        <v>8253</v>
-      </c>
-      <c r="E68">
-        <v>8262</v>
-      </c>
-      <c r="G68">
-        <v>8263</v>
-      </c>
-      <c r="H68">
-        <v>8253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D69">
-        <v>8249</v>
-      </c>
-      <c r="E69">
-        <v>9453</v>
-      </c>
-      <c r="G69">
-        <v>9453</v>
-      </c>
-      <c r="H69">
-        <v>8249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D70">
-        <v>5472</v>
-      </c>
-      <c r="E70">
-        <v>5443</v>
-      </c>
-      <c r="G70">
-        <v>5443</v>
-      </c>
-      <c r="H70">
-        <v>5472</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71">
-        <v>5447</v>
-      </c>
-      <c r="E71">
-        <v>5456</v>
-      </c>
-      <c r="G71">
-        <v>5456</v>
-      </c>
-      <c r="H71">
-        <v>5447</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D72">
-        <v>8228</v>
-      </c>
-      <c r="E72">
-        <v>8226</v>
-      </c>
-      <c r="G72">
-        <v>8227</v>
-      </c>
-      <c r="H72">
-        <v>5445</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D73">
-        <v>6085</v>
-      </c>
-      <c r="E73">
-        <v>9758</v>
-      </c>
-      <c r="G73">
-        <v>9758</v>
-      </c>
-      <c r="H73">
-        <v>6085</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D74">
-        <v>6104</v>
-      </c>
-      <c r="E74">
-        <v>27340</v>
-      </c>
-      <c r="G74">
-        <v>27340</v>
-      </c>
-      <c r="H74">
-        <v>6104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D75">
-        <v>6096</v>
-      </c>
-      <c r="E75">
-        <v>9804</v>
-      </c>
-      <c r="G75">
-        <v>9804</v>
-      </c>
-      <c r="H75">
-        <v>6096</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D76">
-        <v>6009</v>
-      </c>
-      <c r="E76">
-        <v>9832</v>
-      </c>
-      <c r="G76">
-        <v>9835</v>
-      </c>
-      <c r="H76">
-        <v>6010</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D77">
-        <v>6015</v>
-      </c>
-      <c r="E77">
-        <v>9829</v>
-      </c>
-      <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77">
-        <v>9827</v>
-      </c>
-      <c r="H77">
-        <v>6006</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D78">
-        <v>6180</v>
-      </c>
-      <c r="E78">
-        <v>7697</v>
-      </c>
-      <c r="G78">
-        <v>7697</v>
-      </c>
-      <c r="H78">
-        <v>6180</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="M78">
-        <v>6001</v>
-      </c>
-      <c r="N78">
-        <v>7699</v>
-      </c>
-      <c r="P78">
-        <v>7699</v>
-      </c>
-      <c r="Q78">
-        <v>6001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D79">
-        <v>6175</v>
-      </c>
-      <c r="E79">
-        <v>6174</v>
-      </c>
-      <c r="G79">
-        <v>6174</v>
-      </c>
-      <c r="H79">
-        <v>6175</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D80">
-        <v>6146</v>
-      </c>
-      <c r="E80">
-        <v>16133</v>
-      </c>
-      <c r="G80">
-        <v>16133</v>
-      </c>
-      <c r="H80">
-        <v>6146</v>
+      <c r="B114" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C114" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114" s="56">
+        <v>5496</v>
+      </c>
+      <c r="E114" s="56">
+        <v>5503</v>
+      </c>
+      <c r="F114" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G114" s="56">
+        <v>5503</v>
+      </c>
+      <c r="H114" s="56">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C115" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D115" s="51">
+        <v>16245</v>
+      </c>
+      <c r="E115" s="51">
+        <v>5626</v>
+      </c>
+      <c r="F115" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G115" s="51">
+        <v>5626</v>
+      </c>
+      <c r="H115" s="51">
+        <v>16245</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C116" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" s="51">
+        <v>9480</v>
+      </c>
+      <c r="E116" s="51">
+        <v>9481</v>
+      </c>
+      <c r="F116" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G116" s="51">
+        <v>9400</v>
+      </c>
+      <c r="H116" s="51">
+        <v>9482</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C117" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" s="51">
+        <v>9388</v>
+      </c>
+      <c r="E117" s="51">
+        <v>10090</v>
+      </c>
+      <c r="F117" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G117" s="51">
+        <v>10090</v>
+      </c>
+      <c r="H117" s="51">
+        <v>9388</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="C118" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D118" s="51">
+        <v>9566</v>
+      </c>
+      <c r="E118" s="51">
+        <v>13763</v>
+      </c>
+      <c r="F118" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G118" s="51">
+        <v>13763</v>
+      </c>
+      <c r="H118" s="51">
+        <v>9566</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B119" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="C119" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D119" s="51">
+        <v>9526</v>
+      </c>
+      <c r="E119" s="51">
+        <v>9569</v>
+      </c>
+      <c r="F119" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G119" s="51">
+        <v>9569</v>
+      </c>
+      <c r="H119" s="51">
+        <v>9526</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="C120" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D120" s="51">
+        <v>9532</v>
+      </c>
+      <c r="E120" s="51">
+        <v>10095</v>
+      </c>
+      <c r="F120" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G120" s="51">
+        <v>10095</v>
+      </c>
+      <c r="H120" s="51">
+        <v>9532</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D121" s="51">
+        <v>10499</v>
+      </c>
+      <c r="E121" s="51">
+        <v>10491</v>
+      </c>
+      <c r="F121" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G121" s="51">
+        <v>10491</v>
+      </c>
+      <c r="H121" s="51">
+        <v>10499</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B122" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="C122" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D122" s="51">
+        <v>16163</v>
+      </c>
+      <c r="E122" s="51">
+        <v>5215</v>
+      </c>
+      <c r="F122" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G122" s="51">
+        <v>5215</v>
+      </c>
+      <c r="H122" s="51">
+        <v>16163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B123" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="C123" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D123" s="51">
+        <v>9431</v>
+      </c>
+      <c r="E123" s="51">
+        <v>9469</v>
+      </c>
+      <c r="F123" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G123" s="51">
+        <v>9469</v>
+      </c>
+      <c r="H123" s="51">
+        <v>9431</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B124" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="C124" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D124" s="51">
+        <v>5950</v>
+      </c>
+      <c r="E124" s="51">
+        <v>7639</v>
+      </c>
+      <c r="F124" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G124" s="51">
+        <v>7639</v>
+      </c>
+      <c r="H124" s="51">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C125" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D125" s="51">
+        <v>9816</v>
+      </c>
+      <c r="E125" s="51">
+        <v>9815</v>
+      </c>
+      <c r="F125" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G125" s="51">
+        <v>9815</v>
+      </c>
+      <c r="H125" s="51">
+        <v>9816</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B126" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="C126" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D126" s="51">
+        <v>10290</v>
+      </c>
+      <c r="E126" s="51">
+        <v>9815</v>
+      </c>
+      <c r="F126" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G126" s="51">
+        <v>9815</v>
+      </c>
+      <c r="H126" s="51">
+        <v>10289</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B127" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="C127" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D127" s="51">
+        <v>5951</v>
+      </c>
+      <c r="E127" s="51">
+        <v>5896</v>
+      </c>
+      <c r="F127" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G127" s="51">
+        <v>5896</v>
+      </c>
+      <c r="H127" s="51">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B128" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D128" s="56">
+        <v>6037</v>
+      </c>
+      <c r="E128" s="56">
+        <v>16381</v>
+      </c>
+      <c r="F128" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G128" s="56">
+        <v>16381</v>
+      </c>
+      <c r="H128" s="56">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C129" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D129" s="51">
+        <v>9682</v>
+      </c>
+      <c r="E129" s="51">
+        <v>5228</v>
+      </c>
+      <c r="F129" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G129" s="51">
+        <v>5229</v>
+      </c>
+      <c r="H129" s="51">
+        <v>9679</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B130" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D130" s="56">
+        <v>9457</v>
+      </c>
+      <c r="E130" s="56">
+        <v>9456</v>
+      </c>
+      <c r="F130" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G130" s="56">
+        <v>9456</v>
+      </c>
+      <c r="H130" s="56">
+        <v>9457</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B131" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="C131" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D131" s="51">
+        <v>9602</v>
+      </c>
+      <c r="E131" s="51">
+        <v>9513</v>
+      </c>
+      <c r="F131" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G131" s="51">
+        <v>9531</v>
+      </c>
+      <c r="H131" s="51">
+        <v>9601</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C132" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D132" s="51">
+        <v>9603</v>
+      </c>
+      <c r="E132" s="51">
+        <v>9608</v>
+      </c>
+      <c r="F132" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G132" s="51">
+        <v>9607</v>
+      </c>
+      <c r="H132" s="51">
+        <v>9606</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="C133" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D133" s="51">
+        <v>9533</v>
+      </c>
+      <c r="E133" s="51">
+        <v>13788</v>
+      </c>
+      <c r="F133" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G133" s="51">
+        <v>13788</v>
+      </c>
+      <c r="H133" s="51">
+        <v>9533</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="C134" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D134" s="51">
+        <v>9610</v>
+      </c>
+      <c r="E134" s="51">
+        <v>9694</v>
+      </c>
+      <c r="F134" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G134" s="51">
+        <v>9694</v>
+      </c>
+      <c r="H134" s="51">
+        <v>9610</v>
       </c>
     </row>
   </sheetData>
@@ -3661,39 +5490,39 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="16.8">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.8">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C2" s="7">
         <v>42683.392647563029</v>
@@ -3708,12 +5537,12 @@
         <v>42261.995000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="16.8">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C3" s="8">
         <v>29822.770682142334</v>
@@ -3728,12 +5557,12 @@
         <v>37853.305</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="16.8">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C4" s="8">
         <v>6161.91</v>
@@ -3748,12 +5577,12 @@
         <v>4679.07</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="16.8">
       <c r="A5" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C5" s="8">
         <v>31830.447035011635</v>
@@ -3768,12 +5597,12 @@
         <v>23681.424999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="16.8">
       <c r="A6" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C6" s="8">
         <v>9046.0159999999996</v>
@@ -3788,12 +5617,12 @@
         <v>14479.73</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="16.8">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C7" s="8">
         <v>5586.17926056338</v>
@@ -3808,12 +5637,12 @@
         <v>3371.0150000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="16.8">
       <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C8" s="8">
         <v>39666.11</v>
@@ -3828,12 +5657,12 @@
         <v>25851.360000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="16.8">
       <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C9" s="8">
         <v>26002.76</v>
@@ -3848,12 +5677,12 @@
         <v>37153.885000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="16.8">
       <c r="A10" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C10" s="8">
         <v>17036.149999999998</v>
@@ -3868,12 +5697,12 @@
         <v>18439.849999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="16.8">
       <c r="A11" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C11" s="8">
         <v>23422.538</v>
@@ -3888,12 +5717,12 @@
         <v>20743.954999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="16.8">
       <c r="A12" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C12" s="8">
         <v>22780.917875649262</v>
@@ -3908,12 +5737,12 @@
         <v>20949.785</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="16.8">
       <c r="A13" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C13" s="8">
         <v>15450.310000000001</v>
@@ -3928,12 +5757,12 @@
         <v>15222.730000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="16.8">
       <c r="A14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C14" s="8">
         <v>14876.543412322393</v>
@@ -3978,51 +5807,51 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="16.8">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-    </row>
-    <row r="2" spans="1:20">
+        <v>321</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+    </row>
+    <row r="2" spans="1:20" ht="16.8">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C2" s="8">
         <v>37315.346246911424</v>
@@ -4036,25 +5865,25 @@
       <c r="F2">
         <v>31700.909999999996</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+    </row>
+    <row r="3" spans="1:20" ht="16.8">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C3">
         <v>33287.783846140715</v>
@@ -4068,7 +5897,7 @@
       <c r="F3">
         <v>33067.789999999994</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="13"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -4081,12 +5910,12 @@
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" ht="16.8">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C4" s="8">
         <v>5297.3864999999996</v>
@@ -4100,7 +5929,7 @@
       <c r="F4">
         <v>4411.42</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="13"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -4113,12 +5942,12 @@
       <c r="S4" s="19"/>
       <c r="T4" s="19"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="16.8">
       <c r="A5" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C5" s="8">
         <v>30549.900560001148</v>
@@ -4132,7 +5961,7 @@
       <c r="F5">
         <v>33585.645000000004</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="13"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
@@ -4145,12 +5974,12 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="16.8">
       <c r="A6" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C6" s="8">
         <v>15300.374958325054</v>
@@ -4164,7 +5993,7 @@
       <c r="F6">
         <v>9174.02</v>
       </c>
-      <c r="I6" s="33"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="13"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
@@ -4177,12 +6006,12 @@
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="16.8">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C7" s="8">
         <v>4126.4709999999995</v>
@@ -4196,7 +6025,7 @@
       <c r="F7">
         <v>6022.2249999999995</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="13"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -4209,12 +6038,12 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="16.8">
       <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C8" s="8">
         <v>25242</v>
@@ -4228,7 +6057,7 @@
       <c r="F8">
         <v>33242.775000000001</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="13"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
@@ -4241,12 +6070,12 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="16.8">
       <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C9" s="8">
         <v>32182.880000000001</v>
@@ -4260,7 +6089,7 @@
       <c r="F9">
         <v>25381.729999999996</v>
       </c>
-      <c r="I9" s="33"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="13"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -4273,12 +6102,12 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="16.8">
       <c r="A10" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C10" s="8">
         <v>15384.899256933662</v>
@@ -4292,7 +6121,7 @@
       <c r="F10">
         <v>19867.66</v>
       </c>
-      <c r="I10" s="33"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="13"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
@@ -4305,12 +6134,12 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" ht="16.8">
       <c r="A11" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C11" s="8">
         <v>21442.996379437598</v>
@@ -4324,7 +6153,7 @@
       <c r="F11">
         <v>18677.57</v>
       </c>
-      <c r="I11" s="33"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="13"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
@@ -4337,12 +6166,12 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" ht="16.8">
       <c r="A12" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C12" s="8">
         <v>19725.106866824048</v>
@@ -4356,7 +6185,7 @@
       <c r="F12">
         <v>18128.565000000002</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="13"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -4369,12 +6198,12 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" ht="16.8">
       <c r="A13" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C13" s="8">
         <v>12182.752199999999</v>
@@ -4388,7 +6217,7 @@
       <c r="F13">
         <v>11400.324999999999</v>
       </c>
-      <c r="I13" s="33"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="13"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -4401,12 +6230,12 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" ht="16.8">
       <c r="A14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C14" s="8">
         <v>12044.831852441539</v>
@@ -4420,7 +6249,7 @@
       <c r="F14">
         <v>11086.87</v>
       </c>
-      <c r="I14" s="33"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="13"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
@@ -4434,7 +6263,7 @@
       <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="I15" s="33"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="13"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
@@ -4448,7 +6277,7 @@
       <c r="T15" s="19"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="I16" s="33"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="13"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -4462,7 +6291,7 @@
       <c r="T16" s="19"/>
     </row>
     <row r="17" spans="9:20">
-      <c r="I17" s="33"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="13"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -4476,7 +6305,7 @@
       <c r="T17" s="19"/>
     </row>
     <row r="18" spans="9:20">
-      <c r="I18" s="33"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="13"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
@@ -4490,7 +6319,7 @@
       <c r="T18" s="19"/>
     </row>
     <row r="19" spans="9:20">
-      <c r="I19" s="33"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="13"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -4504,7 +6333,7 @@
       <c r="T19" s="19"/>
     </row>
     <row r="20" spans="9:20">
-      <c r="I20" s="33"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="13"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -4518,7 +6347,7 @@
       <c r="T20" s="19"/>
     </row>
     <row r="21" spans="9:20">
-      <c r="I21" s="33"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="13"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -4532,7 +6361,7 @@
       <c r="T21" s="19"/>
     </row>
     <row r="22" spans="9:20">
-      <c r="I22" s="33"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="13"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -4546,7 +6375,7 @@
       <c r="T22" s="19"/>
     </row>
     <row r="23" spans="9:20">
-      <c r="I23" s="33"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="13"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -4560,7 +6389,7 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="9:20">
-      <c r="I24" s="33"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="13"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -4574,7 +6403,7 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="9:20">
-      <c r="I25" s="33"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="13"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
@@ -4588,7 +6417,7 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="9:20">
-      <c r="I26" s="33"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="13"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -4602,7 +6431,7 @@
       <c r="T26" s="19"/>
     </row>
     <row r="27" spans="9:20">
-      <c r="I27" s="33"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="13"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
@@ -4616,7 +6445,7 @@
       <c r="T27" s="19"/>
     </row>
     <row r="28" spans="9:20">
-      <c r="I28" s="33"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="13"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
@@ -4631,6 +6460,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -4643,11 +6477,6 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4663,124 +6492,124 @@
       <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="13" customWidth="1"/>
-    <col min="3" max="4" width="9.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="13" customWidth="1"/>
-    <col min="7" max="10" width="9.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="13" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="13" customWidth="1"/>
+    <col min="3" max="4" width="9.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="13" customWidth="1"/>
+    <col min="7" max="10" width="9.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="13"/>
-    <col min="14" max="14" width="11.125" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5" style="27" customWidth="1"/>
-    <col min="16" max="17" width="9.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="6.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.44140625" style="27" customWidth="1"/>
+    <col min="16" max="17" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="N1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="N1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47"/>
+      <c r="N2" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
-      <c r="N2" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="G3" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="L3" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="37" t="s">
-        <v>55</v>
+      <c r="A4" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="16">
         <v>15629.46</v>
@@ -4815,16 +6644,16 @@
         <v>42261.995000000003</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="37"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="18">
         <v>17925.904066797644</v>
@@ -4859,18 +6688,18 @@
         <v>46390.455000000002</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="37" t="s">
-        <v>58</v>
+      <c r="A6" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="18">
         <v>20862.022879951986</v>
@@ -4905,14 +6734,14 @@
         <v>37853.305</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="37"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
@@ -4949,18 +6778,18 @@
         <v>34108.195</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="37" t="s">
-        <v>60</v>
+      <c r="A8" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="18">
         <v>237.846</v>
@@ -4995,14 +6824,14 @@
         <v>4679.07</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="37"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
@@ -5039,18 +6868,18 @@
         <v>5068.9449999999997</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="37" t="s">
-        <v>61</v>
+      <c r="A10" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="18">
         <v>12778.845282156437</v>
@@ -5085,16 +6914,16 @@
         <v>23681.424999999999</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="37"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="18">
         <v>19794.333999999999</v>
@@ -5129,18 +6958,18 @@
         <v>30339.095000000001</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="37" t="s">
-        <v>64</v>
+      <c r="A12" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="18">
         <v>2717.4</v>
@@ -5175,16 +7004,16 @@
         <v>14479.73</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="37"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="18">
         <v>1097.2920000000001</v>
@@ -5219,18 +7048,18 @@
         <v>7492.9000000000005</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="37" t="s">
-        <v>65</v>
+      <c r="A14" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="18">
         <v>1614.69</v>
@@ -5265,14 +7094,14 @@
         <v>3371.0150000000003</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="37"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -5309,18 +7138,18 @@
         <v>5664.4049999999997</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="37" t="s">
-        <v>66</v>
+      <c r="A16" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="18">
         <v>7751.2469999999994</v>
@@ -5355,16 +7184,16 @@
         <v>25851.360000000001</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="37"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="18">
         <v>25696.02</v>
@@ -5399,18 +7228,18 @@
         <v>40286.86</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="37" t="s">
-        <v>67</v>
+      <c r="A18" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="18">
         <v>29343.299999999996</v>
@@ -5445,16 +7274,16 @@
         <v>37153.885000000002</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="37"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="18">
         <v>12388.32</v>
@@ -5489,18 +7318,18 @@
         <v>26395.399999999998</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="37" t="s">
-        <v>69</v>
+      <c r="A20" s="35" t="s">
+        <v>67</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="18">
         <v>16513.349999999999</v>
@@ -5535,16 +7364,16 @@
         <v>18439.849999999999</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="37"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="18">
         <v>14576.1</v>
@@ -5579,18 +7408,18 @@
         <v>19066.805</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="37" t="s">
-        <v>70</v>
+      <c r="A22" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="18">
         <v>6813.4919999999993</v>
@@ -5625,16 +7454,16 @@
         <v>20743.954999999998</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="37"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="18">
         <v>6071.4359999999997</v>
@@ -5669,18 +7498,18 @@
         <v>21544.16</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="37" t="s">
-        <v>71</v>
+      <c r="A24" s="35" t="s">
+        <v>69</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="18">
         <v>15249.948</v>
@@ -5715,16 +7544,16 @@
         <v>20949.785</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="37"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="18">
         <v>10851.327324840764</v>
@@ -5759,18 +7588,18 @@
         <v>20684.810000000001</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="37" t="s">
-        <v>72</v>
+      <c r="A26" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" s="18">
         <v>3261.3999999999996</v>
@@ -5805,16 +7634,16 @@
         <v>15222.730000000001</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="37"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="18">
         <v>7468.16</v>
@@ -5849,18 +7678,18 @@
         <v>13419.27</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="37" t="s">
-        <v>73</v>
+      <c r="A28" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="18">
         <v>9973.7640764331227</v>
@@ -5895,16 +7724,16 @@
         <v>12737.64</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="38"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="22">
         <v>15262.695000000002</v>
@@ -5939,116 +7768,116 @@
         <v>12740.73</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="N30" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="N31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="N31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="44"/>
+      <c r="N32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="43" t="s">
+    <row r="33" spans="1:15">
+      <c r="A33" s="39"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="D33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="47"/>
-      <c r="N32" s="1" t="s">
+      <c r="E33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="4" t="s">
+    <row r="34" spans="1:15">
+      <c r="A34" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="B34" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K33" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="L33" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="C34" s="16">
         <v>13837.49517818182</v>
@@ -6083,16 +7912,16 @@
         <v>31700.909999999996</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="37"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="18">
         <v>13536.419506849315</v>
@@ -6127,18 +7956,18 @@
         <v>35669.174999999996</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="37" t="s">
-        <v>58</v>
+      <c r="A36" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="18">
         <v>13750.648791640057</v>
@@ -6173,14 +8002,14 @@
         <v>33067.789999999994</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="37"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="15" t="s">
         <v>18</v>
       </c>
@@ -6217,18 +8046,18 @@
         <v>35863.954999999994</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="37" t="s">
-        <v>60</v>
+      <c r="A38" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C38" s="18">
         <v>190.8648</v>
@@ -6263,14 +8092,14 @@
         <v>4411.42</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="37"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="15" t="s">
         <v>18</v>
       </c>
@@ -6307,18 +8136,18 @@
         <v>5300.3450000000003</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="37" t="s">
-        <v>61</v>
+      <c r="A40" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" s="18">
         <v>22219.512000000002</v>
@@ -6353,16 +8182,16 @@
         <v>33585.645000000004</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="37"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="18">
         <v>13143.202799999997</v>
@@ -6397,18 +8226,18 @@
         <v>26035.84</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="37" t="s">
-        <v>64</v>
+      <c r="A42" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" s="18">
         <v>1424.64</v>
@@ -6443,16 +8272,16 @@
         <v>9174.02</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="37"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" s="18">
         <v>2065.3907072187612</v>
@@ -6487,18 +8316,18 @@
         <v>12522.765000000001</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="37" t="s">
-        <v>65</v>
+      <c r="A44" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C44" s="18">
         <v>4210.92</v>
@@ -6533,14 +8362,14 @@
         <v>6022.2249999999995</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="37"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="15" t="s">
         <v>18</v>
       </c>
@@ -6577,18 +8406,18 @@
         <v>3881.6599999999994</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="37" t="s">
-        <v>66</v>
+      <c r="A46" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46" s="18">
         <v>18208.68</v>
@@ -6623,16 +8452,16 @@
         <v>33242.775000000001</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="37"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" s="18">
         <v>10428.6</v>
@@ -6667,18 +8496,18 @@
         <v>27827.075000000001</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="37" t="s">
-        <v>67</v>
+      <c r="A48" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="18">
         <v>14224.56</v>
@@ -6713,16 +8542,16 @@
         <v>25381.729999999996</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="37"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C49" s="18">
         <v>20881.560000000005</v>
@@ -6757,18 +8586,18 @@
         <v>35949.919999999998</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="37" t="s">
-        <v>69</v>
+      <c r="A50" s="35" t="s">
+        <v>67</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="18">
         <v>13732.949999999999</v>
@@ -6803,16 +8632,16 @@
         <v>19867.66</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="37"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" s="18">
         <v>14062.277357373519</v>
@@ -6847,18 +8676,18 @@
         <v>15875.21</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="37" t="s">
-        <v>70</v>
+      <c r="A52" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="18">
         <v>5400.2734936539746</v>
@@ -6893,16 +8722,16 @@
         <v>18677.57</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="37"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C53" s="18">
         <v>6992.2393700787397</v>
@@ -6937,18 +8766,18 @@
         <v>18483.885000000002</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="37" t="s">
-        <v>71</v>
+      <c r="A54" s="35" t="s">
+        <v>69</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="18">
         <v>8942.9761213434449</v>
@@ -6983,16 +8812,16 @@
         <v>18128.565000000002</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="37"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="18">
         <v>13644.405049180326</v>
@@ -7027,18 +8856,18 @@
         <v>18454.97</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="37" t="s">
-        <v>72</v>
+      <c r="A56" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="18">
         <v>4825.3799999999992</v>
@@ -7073,16 +8902,16 @@
         <v>11400.324999999999</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="37"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="18">
         <v>3258.7043999999996</v>
@@ -7117,18 +8946,18 @@
         <v>13396.480000000001</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="37" t="s">
-        <v>73</v>
+      <c r="A58" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="18">
         <v>10461.500761012183</v>
@@ -7163,16 +8992,16 @@
         <v>11086.87</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="38"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C59" s="22">
         <v>10335.352614861033</v>
@@ -7207,47 +9036,47 @@
         <v>10687.725</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="N60" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="N61" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="N62" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="N63" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="N64" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>27</v>
@@ -7255,7 +9084,7 @@
     </row>
     <row r="65" spans="14:15">
       <c r="N65" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>28</v>
@@ -7263,7 +9092,7 @@
     </row>
     <row r="66" spans="14:15">
       <c r="N66" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>29</v>
@@ -7271,7 +9100,7 @@
     </row>
     <row r="67" spans="14:15">
       <c r="N67" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>30</v>
@@ -7279,7 +9108,7 @@
     </row>
     <row r="68" spans="14:15">
       <c r="N68" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>31</v>
@@ -7287,7 +9116,7 @@
     </row>
     <row r="69" spans="14:15">
       <c r="N69" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>32</v>
@@ -7295,7 +9124,7 @@
     </row>
     <row r="70" spans="14:15">
       <c r="N70" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>33</v>
@@ -7303,7 +9132,7 @@
     </row>
     <row r="71" spans="14:15">
       <c r="N71" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>34</v>
@@ -7311,7 +9140,7 @@
     </row>
     <row r="72" spans="14:15">
       <c r="N72" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>35</v>
@@ -7319,346 +9148,346 @@
     </row>
     <row r="73" spans="14:15">
       <c r="N73" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="14:15">
       <c r="N74" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="14:15">
       <c r="N75" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="14:15">
       <c r="N76" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="14:15">
       <c r="N77" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="14:15">
       <c r="N78" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="14:15">
       <c r="N79" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="14:15">
       <c r="N80" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="14:15">
       <c r="N81" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="14:15">
       <c r="N82" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="14:15">
       <c r="N83" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="14:15">
       <c r="N84" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="14:15">
       <c r="N85" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="14:15">
       <c r="N86" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="14:15">
       <c r="N87" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="14:15">
       <c r="N88" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="14:15">
       <c r="N89" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="14:15">
       <c r="N90" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="14:15">
       <c r="N91" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="14:15">
       <c r="N92" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="14:15">
       <c r="N93" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="14:15">
       <c r="N94" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="14:15">
       <c r="N95" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="14:15">
       <c r="N96" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="14:15">
       <c r="N97" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="14:15">
       <c r="N98" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="14:15">
       <c r="N99" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="14:15">
       <c r="N100" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="14:15">
       <c r="N101" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="14:15">
       <c r="N102" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="14:15">
       <c r="N103" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="14:15">
       <c r="N104" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="14:15">
       <c r="N105" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="14:15">
       <c r="N106" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="14:15">
       <c r="N107" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="14:15">
       <c r="N108" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="14:15">
       <c r="N109" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="110" spans="14:15" ht="15.75" customHeight="1">
       <c r="N110" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="14:15">
       <c r="N111" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="14:15" ht="15.75" customHeight="1">
       <c r="N112" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" spans="14:15">
       <c r="N113" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="14:15">
       <c r="N114" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="14:15">
       <c r="N115" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="14:15">
@@ -7990,6 +9819,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A2:A3"/>
@@ -8002,30 +9855,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8041,17 +9870,17 @@
       <selection activeCell="U11" sqref="U11:V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D1">
         <v>5022</v>
@@ -8060,7 +9889,7 @@
         <v>5023</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G1">
         <v>5032</v>
@@ -8089,10 +9918,10 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D2">
         <v>5027</v>
@@ -8127,10 +9956,10 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D3">
         <v>7023</v>
@@ -8165,10 +9994,10 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D4">
         <v>16030</v>
@@ -8203,10 +10032,10 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5">
         <v>7096</v>
@@ -8241,10 +10070,10 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D6">
         <v>16693</v>
@@ -8279,10 +10108,10 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D7">
         <v>5014</v>
@@ -8317,13 +10146,13 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D8">
         <v>6137</v>
@@ -8332,7 +10161,7 @@
         <v>6168</v>
       </c>
       <c r="F8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G8">
         <v>6168</v>
@@ -8361,10 +10190,10 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D9">
         <v>5741</v>
@@ -8399,10 +10228,10 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D10">
         <v>9466</v>
@@ -8440,7 +10269,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D11">
         <v>5452</v>
@@ -8473,10 +10302,10 @@
         <v>7999</v>
       </c>
       <c r="U11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="V11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -8484,7 +10313,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D12">
         <v>8263</v>
@@ -8530,7 +10359,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D13">
         <v>9453</v>
@@ -8576,7 +10405,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14">
         <v>5443</v>
@@ -8622,7 +10451,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D15">
         <v>5456</v>
@@ -8668,7 +10497,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D16">
         <v>8227</v>
@@ -8714,7 +10543,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D17">
         <v>9578</v>
@@ -8760,7 +10589,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D18">
         <v>27340</v>
@@ -8808,7 +10637,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D19">
         <v>9804</v>
@@ -8854,7 +10683,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D20">
         <v>9835</v>
@@ -8900,7 +10729,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D21">
         <v>9827</v>
@@ -8949,7 +10778,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D22">
         <v>7697</v>
@@ -8995,7 +10824,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D23">
         <v>6174</v>
@@ -9013,7 +10842,7 @@
         <v>40</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M23">
         <v>7534</v>
@@ -9041,7 +10870,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D24">
         <v>16133</v>
@@ -9087,7 +10916,7 @@
         <v>38</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M25">
         <v>5338</v>
@@ -9127,7 +10956,7 @@
         <v>38</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M27">
         <v>8111</v>
@@ -9167,7 +10996,7 @@
         <v>38</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L29" t="s">
         <v>22</v>
@@ -9210,7 +11039,7 @@
         <v>38</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M31">
         <v>16895</v>
@@ -9227,13 +11056,13 @@
     </row>
     <row r="32" spans="1:22">
       <c r="J32" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M32">
         <v>5022</v>
@@ -9242,7 +11071,7 @@
         <v>5023</v>
       </c>
       <c r="O32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P32">
         <v>5032</v>
@@ -9253,10 +11082,10 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M33">
         <v>5027</v>
@@ -9273,10 +11102,10 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M34">
         <v>7023</v>
@@ -9293,10 +11122,10 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M35">
         <v>16030</v>
@@ -9313,10 +11142,10 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M36">
         <v>7096</v>
@@ -9333,10 +11162,10 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M37">
         <v>16693</v>
@@ -9353,10 +11182,10 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M38">
         <v>5014</v>

--- a/ta/指派結果/TRTS-4S屏柵線.xlsx
+++ b/ta/指派結果/TRTS-4S屏柵線.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Desktop\屏柵線\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Desktop\Traffic-Assignment-Model-1\ta\指派結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006A96A6-8A98-4123-ADA4-D742FEB9268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93058C8-40E1-4480-A94E-251589A8CA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
   </bookViews>
   <sheets>
     <sheet name="節點編號" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="350">
   <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1180,7 +1180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1275,6 +1275,13 @@
       <color rgb="FFEE0000"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -1609,6 +1616,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1624,10 +1647,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1651,6 +1677,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1660,32 +1692,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2026,3452 +2033,3432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B91B70-CCE3-4F38-82D1-372C96A2E9C6}">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H129" sqref="D129:H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="51"/>
-    <col min="2" max="2" width="28.88671875" style="51" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="51"/>
-    <col min="6" max="6" width="14.109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="51"/>
+    <col min="1" max="1" width="8.88671875" style="31"/>
+    <col min="2" max="2" width="28.88671875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="31"/>
+    <col min="6" max="6" width="14.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="56">
-        <v>8127</v>
-      </c>
-      <c r="E2" s="56">
+      <c r="D2" s="31">
+        <v>27278</v>
+      </c>
+      <c r="E2" s="31">
         <v>8131</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="31">
         <v>8133</v>
       </c>
-      <c r="H2" s="51">
-        <v>8127</v>
+      <c r="H2" s="31">
+        <v>27277</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="31">
         <v>6637</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="31">
         <v>6666</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="31">
         <v>6666</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="31">
         <v>8115</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="31">
         <v>10247</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="31">
         <v>8292</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="31">
         <v>8292</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="31">
         <v>10246</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="31">
         <v>8292</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="31">
         <v>10245</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="31">
         <v>10248</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="31">
         <v>8292</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D6" s="56">
-        <v>6675</v>
-      </c>
-      <c r="E6" s="56">
+      <c r="D6" s="31">
+        <v>6680</v>
+      </c>
+      <c r="E6" s="31">
         <v>6676</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G6" s="56">
-        <v>6676</v>
-      </c>
-      <c r="H6" s="56">
-        <v>6675</v>
+      <c r="G6" s="57">
+        <v>27273</v>
+      </c>
+      <c r="H6" s="57">
+        <v>6680</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="31">
         <v>8607</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="31">
         <v>6813</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="31">
         <v>6813</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="31">
         <v>8607</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="31">
         <v>6323</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="31">
         <v>6324</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="31">
         <v>6325</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="31">
         <v>6326</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="31">
         <v>6294</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="31">
         <v>10219</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="31">
         <v>10219</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="31">
         <v>6294</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="31">
         <v>6294</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="31">
         <v>10218</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="31">
         <v>10220</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="31">
         <v>6294</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="31">
         <v>8019</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="31">
         <v>8002</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="31">
         <v>8020</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="31">
         <v>7999</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="31">
         <v>7987</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="31">
         <v>8021</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="31">
         <v>8022</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="31">
         <v>6964</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="31">
         <v>6924</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="31">
         <v>6915</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="31">
         <v>6915</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="31">
         <v>6924</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="31">
         <v>6975</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="31">
         <v>16420</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="31">
         <v>16420</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="31">
         <v>6975</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="31">
         <v>15759</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="31">
         <v>7036</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="31">
         <v>7036</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="31">
         <v>15759</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="31">
         <v>6443</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="31">
         <v>5300</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="31">
         <v>6440</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="31">
         <v>6441</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="51" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="31">
         <v>6442</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="31">
         <v>6550</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="31">
         <v>6439</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="31">
         <v>14086</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="31">
         <v>14086</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="31">
         <v>6439</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="31">
         <v>6437</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="31">
         <v>6438</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="31">
         <v>6438</v>
       </c>
-      <c r="H19" s="51">
+      <c r="H19" s="31">
         <v>6437</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="31">
         <v>9103</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="31">
         <v>6536</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="31">
         <v>6536</v>
       </c>
-      <c r="H20" s="51">
+      <c r="H20" s="31">
         <v>9103</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="31">
         <v>9105</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="31">
         <v>6448</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="31">
         <v>8372</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="31">
         <v>8369</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="31">
         <v>9133</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="31">
         <v>8371</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="31">
         <v>8373</v>
       </c>
-      <c r="H22" s="51">
+      <c r="H22" s="31">
         <v>8370</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="31">
         <v>6575</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="31">
         <v>9169</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="51">
+      <c r="G23" s="31">
         <v>9169</v>
       </c>
-      <c r="H23" s="51">
+      <c r="H23" s="31">
         <v>6575</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="31">
         <v>6576</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="31">
         <v>6570</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="31">
         <v>6570</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="31">
         <v>6576</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="31">
         <v>8424</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="31">
         <v>8432</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="31">
         <v>8431</v>
       </c>
-      <c r="H25" s="51">
+      <c r="H25" s="31">
         <v>6586</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="31">
         <v>6424</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="31">
         <v>8433</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="31">
         <v>8430</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="31">
         <v>6427</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="31">
         <v>8447</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="31">
         <v>8449</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="31">
         <v>8454</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="31">
         <v>8448</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="31">
         <v>6354</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="31">
         <v>6349</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="51">
+      <c r="G28" s="31">
         <v>6741</v>
       </c>
-      <c r="H28" s="51">
+      <c r="H28" s="31">
         <v>6751</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="31">
         <v>8535</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="31">
         <v>8536</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="31">
         <v>8533</v>
       </c>
-      <c r="H29" s="51">
+      <c r="H29" s="31">
         <v>8534</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="31">
         <v>6352</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="31">
         <v>6356</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="51">
+      <c r="G30" s="31">
         <v>6357</v>
       </c>
-      <c r="H30" s="51">
+      <c r="H30" s="31">
         <v>6353</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="51" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="51">
+      <c r="G31" s="31">
         <v>9182</v>
       </c>
-      <c r="H31" s="51">
+      <c r="H31" s="31">
         <v>9181</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="31">
         <v>6745</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="31">
         <v>6734</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="51">
+      <c r="G32" s="31">
         <v>6734</v>
       </c>
-      <c r="H32" s="51">
+      <c r="H32" s="31">
         <v>6745</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="31">
         <v>6715</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="31">
         <v>6722</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="31">
         <v>6722</v>
       </c>
-      <c r="H33" s="51">
+      <c r="H33" s="31">
         <v>6715</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="31">
         <v>13570</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="31">
         <v>7771</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="51">
+      <c r="G34" s="31">
         <v>7772</v>
       </c>
-      <c r="H34" s="51">
+      <c r="H34" s="31">
         <v>13571</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="31">
         <v>9247</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="31">
         <v>9246</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="51">
+      <c r="G35" s="31">
         <v>9246</v>
       </c>
-      <c r="H35" s="51">
+      <c r="H35" s="31">
         <v>9247</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="31">
         <v>6780</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="31">
         <v>6781</v>
       </c>
-      <c r="F36" s="51" t="s">
+      <c r="F36" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="51">
+      <c r="G36" s="31">
         <v>6781</v>
       </c>
-      <c r="H36" s="51">
+      <c r="H36" s="31">
         <v>6780</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="31">
         <v>6332</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="31">
         <v>6775</v>
       </c>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="51">
+      <c r="G37" s="31">
         <v>6775</v>
       </c>
-      <c r="H37" s="51">
+      <c r="H37" s="31">
         <v>6332</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="31">
         <v>8000</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="31">
         <v>7966</v>
       </c>
-      <c r="F38" s="51" t="s">
+      <c r="F38" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="51">
+      <c r="G38" s="31">
         <v>6303</v>
       </c>
-      <c r="H38" s="51">
+      <c r="H38" s="31">
         <v>7998</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="31">
         <v>6305</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="31">
         <v>6306</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="51">
+      <c r="G39" s="31">
         <v>6306</v>
       </c>
-      <c r="H39" s="51">
+      <c r="H39" s="31">
         <v>6305</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="56">
-        <v>8661</v>
-      </c>
-      <c r="E40" s="56">
+      <c r="D40">
+        <v>27265</v>
+      </c>
+      <c r="E40">
         <v>8662</v>
       </c>
-      <c r="F40" s="51" t="s">
+      <c r="F40" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="56">
+      <c r="G40">
         <v>8662</v>
       </c>
-      <c r="H40" s="56">
-        <v>8661</v>
+      <c r="H40">
+        <v>27265</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="56">
-        <v>6977</v>
-      </c>
-      <c r="E41" s="56">
+      <c r="D41">
+        <v>27267</v>
+      </c>
+      <c r="E41">
         <v>6932</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="56">
+      <c r="G41">
         <v>6932</v>
       </c>
-      <c r="H41" s="56">
-        <v>6977</v>
+      <c r="H41">
+        <v>27267</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="31">
         <v>16363</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="31">
         <v>15828</v>
       </c>
-      <c r="F42" s="51" t="s">
+      <c r="F42" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="31">
         <v>15828</v>
       </c>
-      <c r="H42" s="51">
+      <c r="H42" s="31">
         <v>16363</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="31">
         <v>6383</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="31">
         <v>6385</v>
       </c>
-      <c r="F43" s="51" t="s">
+      <c r="F43" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G43" s="51">
+      <c r="G43" s="31">
         <v>6363</v>
       </c>
-      <c r="H43" s="51">
+      <c r="H43" s="31">
         <v>6364</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="31">
         <v>9144</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="31">
         <v>8521</v>
       </c>
-      <c r="F44" s="51" t="s">
+      <c r="F44" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G44" s="51">
+      <c r="G44" s="31">
         <v>8522</v>
       </c>
-      <c r="H44" s="51">
+      <c r="H44" s="31">
         <v>9156</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="31">
         <v>6398</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="31">
         <v>8516</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G45" s="51">
+      <c r="G45" s="31">
         <v>8516</v>
       </c>
-      <c r="H45" s="51">
+      <c r="H45" s="31">
         <v>6398</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="31">
         <v>15483</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="31">
         <v>8094</v>
       </c>
-      <c r="F46" s="51" t="s">
+      <c r="F46" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="51">
+      <c r="G46" s="31">
         <v>8095</v>
       </c>
-      <c r="H46" s="51">
+      <c r="H46" s="31">
         <v>15482</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="31">
         <v>8436</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="31">
         <v>8077</v>
       </c>
-      <c r="F47" s="51" t="s">
+      <c r="F47" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="51">
+      <c r="G47" s="31">
         <v>8077</v>
       </c>
-      <c r="H47" s="51">
+      <c r="H47" s="31">
         <v>8436</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="31">
         <v>8438</v>
       </c>
-      <c r="E48" s="51">
+      <c r="E48" s="31">
         <v>6397</v>
       </c>
-      <c r="F48" s="51" t="s">
+      <c r="F48" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="51">
+      <c r="G48" s="31">
         <v>6397</v>
       </c>
-      <c r="H48" s="51">
+      <c r="H48" s="31">
         <v>8438</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D49" s="31">
         <v>8526</v>
       </c>
-      <c r="E49" s="51">
+      <c r="E49" s="31">
         <v>9163</v>
       </c>
-      <c r="F49" s="51" t="s">
+      <c r="F49" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="51">
+      <c r="G49" s="31">
         <v>9163</v>
       </c>
-      <c r="H49" s="51">
+      <c r="H49" s="31">
         <v>8526</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="51">
+      <c r="D50" s="31">
         <v>9175</v>
       </c>
-      <c r="E50" s="51">
+      <c r="E50" s="31">
         <v>6395</v>
       </c>
-      <c r="F50" s="51" t="s">
+      <c r="F50" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="51">
+      <c r="G50" s="31">
         <v>6395</v>
       </c>
-      <c r="H50" s="51">
+      <c r="H50" s="31">
         <v>9175</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="51">
+      <c r="D51" s="31">
         <v>9202</v>
       </c>
-      <c r="E51" s="51">
+      <c r="E51" s="31">
         <v>8037</v>
       </c>
-      <c r="F51" s="51" t="s">
+      <c r="F51" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G51" s="51">
+      <c r="G51" s="31">
         <v>8036</v>
       </c>
-      <c r="H51" s="51">
+      <c r="H51" s="31">
         <v>9203</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="51">
+      <c r="D52" s="31">
         <v>6752</v>
       </c>
-      <c r="E52" s="51">
+      <c r="E52" s="31">
         <v>9186</v>
       </c>
-      <c r="F52" s="51" t="s">
+      <c r="F52" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G52" s="51">
+      <c r="G52" s="31">
         <v>9186</v>
       </c>
-      <c r="H52" s="51">
+      <c r="H52" s="31">
         <v>6752</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="51">
+      <c r="D53" s="31">
         <v>9899</v>
       </c>
-      <c r="E53" s="51">
+      <c r="E53" s="31">
         <v>6350</v>
       </c>
-      <c r="F53" s="51" t="s">
+      <c r="F53" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G53" s="51">
+      <c r="G53" s="31">
         <v>6350</v>
       </c>
-      <c r="H53" s="51">
+      <c r="H53" s="31">
         <v>9899</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="51">
+      <c r="D54" s="31">
         <v>9180</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="31">
         <v>6352</v>
       </c>
-      <c r="F54" s="51" t="s">
+      <c r="F54" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="51">
+      <c r="G54" s="31">
         <v>6352</v>
       </c>
-      <c r="H54" s="51">
+      <c r="H54" s="31">
         <v>9180</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="51">
+      <c r="D55" s="31">
         <v>6388</v>
       </c>
-      <c r="E55" s="51">
+      <c r="E55" s="31">
         <v>6389</v>
       </c>
-      <c r="F55" s="51" t="s">
+      <c r="F55" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G55" s="51">
+      <c r="G55" s="31">
         <v>6390</v>
       </c>
-      <c r="H55" s="51">
+      <c r="H55" s="31">
         <v>6391</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D56" s="31">
         <v>6599</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="31">
         <v>6347</v>
       </c>
-      <c r="F56" s="51" t="s">
+      <c r="F56" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="51">
+      <c r="G56" s="31">
         <v>6356</v>
       </c>
-      <c r="H56" s="51">
+      <c r="H56" s="31">
         <v>6601</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="51">
+      <c r="D57" s="31">
         <v>6402</v>
       </c>
-      <c r="E57" s="51">
+      <c r="E57" s="31">
         <v>6403</v>
       </c>
-      <c r="F57" s="51" t="s">
+      <c r="F57" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="51">
+      <c r="G57" s="31">
         <v>6403</v>
       </c>
-      <c r="H57" s="51">
+      <c r="H57" s="31">
         <v>6402</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="51" t="s">
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="51">
+      <c r="G58" s="31">
         <v>6342</v>
       </c>
-      <c r="H58" s="51">
+      <c r="H58" s="31">
         <v>8478</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="51" t="s">
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G59" s="51">
+      <c r="G59" s="31">
         <v>7877</v>
       </c>
-      <c r="H59" s="51">
+      <c r="H59" s="31">
         <v>9912</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="51" t="s">
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="51">
+      <c r="G60" s="31">
         <v>7879</v>
       </c>
-      <c r="H60" s="51">
+      <c r="H60" s="31">
         <v>15093</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="52" t="s">
+      <c r="A61" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="31">
+        <v>10202</v>
+      </c>
+      <c r="E61" s="31">
+        <v>7808</v>
+      </c>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="53" t="s">
-        <v>335</v>
-      </c>
-      <c r="C61" s="51" t="s">
+      <c r="B62" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="C62" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="56">
-        <v>8500</v>
-      </c>
-      <c r="E61" s="56">
-        <v>5259</v>
-      </c>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="52" t="s">
+      <c r="D62" s="31">
+        <v>10205</v>
+      </c>
+      <c r="E62" s="31">
+        <v>7805</v>
+      </c>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="53" t="s">
-        <v>335</v>
-      </c>
-      <c r="C62" s="51" t="s">
+      <c r="B63" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="C63" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="51">
-        <v>10202</v>
-      </c>
-      <c r="E62" s="51">
-        <v>7808</v>
-      </c>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="52" t="s">
+      <c r="D63" s="35">
+        <v>10204</v>
+      </c>
+      <c r="E63" s="35">
+        <v>7806</v>
+      </c>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="C63" s="51" t="s">
+      <c r="B64" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="51">
-        <v>10205</v>
-      </c>
-      <c r="E63" s="51">
-        <v>7805</v>
-      </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="52" t="s">
+      <c r="D64" s="31">
+        <v>9907</v>
+      </c>
+      <c r="E64" s="31">
+        <v>5995</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="31">
+        <v>5995</v>
+      </c>
+      <c r="H64" s="31">
+        <v>9907</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="31">
+        <v>6016</v>
+      </c>
+      <c r="E65" s="31">
+        <v>6017</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" s="31">
+        <v>8559</v>
+      </c>
+      <c r="H65" s="31">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="C64" s="55" t="s">
+      <c r="B66" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="55">
-        <v>10204</v>
-      </c>
-      <c r="E64" s="55">
-        <v>7806</v>
-      </c>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" s="51" t="s">
+      <c r="D66" s="31">
+        <v>5032</v>
+      </c>
+      <c r="E66" s="31">
+        <v>5033</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" s="31">
+        <v>5022</v>
+      </c>
+      <c r="H66" s="31">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="51">
-        <v>9907</v>
-      </c>
-      <c r="E65" s="51">
-        <v>5995</v>
-      </c>
-      <c r="F65" s="51" t="s">
+      <c r="D67" s="31">
+        <v>5018</v>
+      </c>
+      <c r="E67" s="31">
+        <v>5019</v>
+      </c>
+      <c r="F67" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G65" s="51">
-        <v>5995</v>
-      </c>
-      <c r="H65" s="51">
-        <v>9907</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" s="51" t="s">
+      <c r="G67" s="31">
+        <v>5027</v>
+      </c>
+      <c r="H67" s="31">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="51">
-        <v>6016</v>
-      </c>
-      <c r="E66" s="51">
-        <v>6017</v>
-      </c>
-      <c r="F66" s="51" t="s">
+      <c r="D68" s="31">
+        <v>7025</v>
+      </c>
+      <c r="E68" s="31">
+        <v>7023</v>
+      </c>
+      <c r="F68" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G66" s="51">
-        <v>8559</v>
-      </c>
-      <c r="H66" s="51">
-        <v>6018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="52" t="s">
+      <c r="G68" s="31">
+        <v>7023</v>
+      </c>
+      <c r="H68" s="31">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="51" t="s">
+      <c r="B69" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="51">
-        <v>5032</v>
-      </c>
-      <c r="E67" s="51">
-        <v>5033</v>
-      </c>
-      <c r="F67" s="51" t="s">
+      <c r="D69">
+        <v>7102</v>
+      </c>
+      <c r="E69">
+        <v>16030</v>
+      </c>
+      <c r="F69" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G67" s="51">
-        <v>5022</v>
-      </c>
-      <c r="H67" s="51">
-        <v>5023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="52" t="s">
+      <c r="G69">
+        <v>16030</v>
+      </c>
+      <c r="H69">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" s="51" t="s">
+      <c r="B70" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D68" s="51">
-        <v>5018</v>
-      </c>
-      <c r="E68" s="51">
-        <v>5019</v>
-      </c>
-      <c r="F68" s="51" t="s">
+      <c r="D70" s="31">
+        <v>7105</v>
+      </c>
+      <c r="E70" s="31">
+        <v>7682</v>
+      </c>
+      <c r="F70" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G68" s="51">
-        <v>5027</v>
-      </c>
-      <c r="H68" s="51">
-        <v>7040</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="52" t="s">
+      <c r="G70" s="31">
+        <v>7682</v>
+      </c>
+      <c r="H70" s="31">
+        <v>7105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="51" t="s">
+      <c r="B71" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="51">
-        <v>7025</v>
-      </c>
-      <c r="E69" s="51">
-        <v>7023</v>
-      </c>
-      <c r="F69" s="51" t="s">
+      <c r="D71">
+        <v>16699</v>
+      </c>
+      <c r="E71">
+        <v>16694</v>
+      </c>
+      <c r="F71" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G69" s="51">
-        <v>7023</v>
-      </c>
-      <c r="H69" s="51">
-        <v>7025</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="52" t="s">
+      <c r="G71">
+        <v>16693</v>
+      </c>
+      <c r="H71">
+        <v>16695</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" s="51" t="s">
+      <c r="B72" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="56">
-        <v>7684</v>
-      </c>
-      <c r="E70" s="56">
-        <v>5047</v>
-      </c>
-      <c r="F70" s="51" t="s">
+      <c r="D72" s="31">
+        <v>5918</v>
+      </c>
+      <c r="E72" s="31">
+        <v>5014</v>
+      </c>
+      <c r="F72" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G70" s="56">
-        <v>5047</v>
-      </c>
-      <c r="H70" s="56">
-        <v>7684</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="51" t="s">
+      <c r="G72" s="31">
+        <v>5014</v>
+      </c>
+      <c r="H72" s="31">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="31">
+        <v>5872</v>
+      </c>
+      <c r="E73" s="31">
+        <v>8319</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" s="31">
+        <v>8319</v>
+      </c>
+      <c r="H73" s="31">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="31">
+        <v>7452</v>
+      </c>
+      <c r="E74" s="31">
+        <v>9283</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="31">
+        <v>9283</v>
+      </c>
+      <c r="H74" s="31">
+        <v>7452</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="31">
+        <v>7462</v>
+      </c>
+      <c r="E75" s="31">
+        <v>5012</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="31">
+        <v>5012</v>
+      </c>
+      <c r="H75" s="31">
+        <v>7462</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="51">
-        <v>7105</v>
-      </c>
-      <c r="E71" s="51">
-        <v>7682</v>
-      </c>
-      <c r="F71" s="51" t="s">
+      <c r="D76" s="31">
+        <v>5865</v>
+      </c>
+      <c r="E76" s="31">
+        <v>5871</v>
+      </c>
+      <c r="F76" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G71" s="51">
-        <v>7682</v>
-      </c>
-      <c r="H71" s="51">
-        <v>7105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="C72" s="51" t="s">
+      <c r="G76" s="31">
+        <v>5871</v>
+      </c>
+      <c r="H76" s="31">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="56">
-        <v>5044</v>
-      </c>
-      <c r="E72" s="56">
-        <v>5045</v>
-      </c>
-      <c r="F72" s="51" t="s">
+      <c r="D77" s="31">
+        <v>7536</v>
+      </c>
+      <c r="E77" s="31">
+        <v>5268</v>
+      </c>
+      <c r="F77" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G72" s="56">
-        <v>5050</v>
-      </c>
-      <c r="H72" s="56">
-        <v>5051</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" s="51" t="s">
+      <c r="G77" s="31">
+        <v>5268</v>
+      </c>
+      <c r="H77" s="31">
+        <v>7536</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="C78" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D73" s="51">
-        <v>5918</v>
-      </c>
-      <c r="E73" s="51">
-        <v>5014</v>
-      </c>
-      <c r="F73" s="51" t="s">
+      <c r="D78" s="31">
+        <v>7534</v>
+      </c>
+      <c r="E78" s="31">
+        <v>6668</v>
+      </c>
+      <c r="F78" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G73" s="51">
-        <v>5014</v>
-      </c>
-      <c r="H73" s="51">
-        <v>5918</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B74" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="C74" s="51" t="s">
+      <c r="G78" s="31">
+        <v>6669</v>
+      </c>
+      <c r="H78" s="31">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="31">
+        <v>5338</v>
+      </c>
+      <c r="E79" s="31">
+        <v>5339</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G79" s="31">
+        <v>5340</v>
+      </c>
+      <c r="H79" s="31">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="31">
+        <v>7607</v>
+      </c>
+      <c r="E80" s="31">
+        <v>7609</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G80" s="31">
+        <v>7609</v>
+      </c>
+      <c r="H80" s="31">
+        <v>7607</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="31">
+        <v>8111</v>
+      </c>
+      <c r="E81" s="31">
+        <v>6542</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G81" s="31">
+        <v>6544</v>
+      </c>
+      <c r="H81" s="31">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="31">
+        <v>5797</v>
+      </c>
+      <c r="E82" s="31">
+        <v>5295</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82" s="31">
+        <v>5295</v>
+      </c>
+      <c r="H82" s="31">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83">
+        <v>5799</v>
+      </c>
+      <c r="E83">
+        <v>6511</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G83">
+        <v>6511</v>
+      </c>
+      <c r="H83">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" s="31">
+        <v>5783</v>
+      </c>
+      <c r="E84" s="31">
+        <v>5772</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G84" s="31">
+        <v>5772</v>
+      </c>
+      <c r="H84" s="31">
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="51">
-        <v>5872</v>
-      </c>
-      <c r="E74" s="51">
-        <v>8319</v>
-      </c>
-      <c r="F74" s="51" t="s">
+      <c r="D85" s="31">
+        <v>5931</v>
+      </c>
+      <c r="E85" s="31">
+        <v>5932</v>
+      </c>
+      <c r="F85" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G74" s="51">
-        <v>8319</v>
-      </c>
-      <c r="H74" s="51">
-        <v>5872</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B75" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="51" t="s">
+      <c r="G85" s="31">
+        <v>7670</v>
+      </c>
+      <c r="H85" s="31">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="51">
-        <v>7452</v>
-      </c>
-      <c r="E75" s="51">
-        <v>9283</v>
-      </c>
-      <c r="F75" s="51" t="s">
+      <c r="D86" s="31">
+        <v>5741</v>
+      </c>
+      <c r="E86" s="31">
+        <v>9466</v>
+      </c>
+      <c r="F86" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G75" s="51">
-        <v>9283</v>
-      </c>
-      <c r="H75" s="51">
-        <v>7452</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="51" t="s">
+      <c r="G86" s="31">
+        <v>9466</v>
+      </c>
+      <c r="H86" s="31">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="C87" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D76" s="51">
-        <v>7462</v>
-      </c>
-      <c r="E76" s="51">
-        <v>5012</v>
-      </c>
-      <c r="F76" s="51" t="s">
+      <c r="D87" s="31">
+        <v>8214</v>
+      </c>
+      <c r="E87" s="31">
+        <v>9466</v>
+      </c>
+      <c r="F87" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G76" s="51">
-        <v>5012</v>
-      </c>
-      <c r="H76" s="51">
-        <v>7462</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="51" t="s">
+      <c r="G87" s="31">
+        <v>9466</v>
+      </c>
+      <c r="H87" s="31">
+        <v>8217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" s="31">
+        <v>8253</v>
+      </c>
+      <c r="E88" s="31">
+        <v>5452</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" s="31">
+        <v>5452</v>
+      </c>
+      <c r="H88" s="31">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="31">
+        <v>8250</v>
+      </c>
+      <c r="E89" s="31">
+        <v>8249</v>
+      </c>
+      <c r="F89" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G89" s="31">
+        <v>8249</v>
+      </c>
+      <c r="H89" s="31">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" s="31">
+        <v>5443</v>
+      </c>
+      <c r="E90" s="31">
+        <v>9618</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G90" s="31">
+        <v>9618</v>
+      </c>
+      <c r="H90" s="31">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91" s="31">
+        <v>5447</v>
+      </c>
+      <c r="E91" s="31">
+        <v>5456</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" s="31">
+        <v>5456</v>
+      </c>
+      <c r="H91" s="31">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" s="31">
+        <v>8228</v>
+      </c>
+      <c r="E92" s="31">
+        <v>8226</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G92" s="31">
+        <v>8227</v>
+      </c>
+      <c r="H92" s="31">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="31">
+        <v>6085</v>
+      </c>
+      <c r="E93" s="31">
+        <v>9758</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" s="31">
+        <v>9758</v>
+      </c>
+      <c r="H93" s="31">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94">
+        <v>6104</v>
+      </c>
+      <c r="E94">
+        <v>27340</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G94">
+        <v>27340</v>
+      </c>
+      <c r="H94">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" s="31">
+        <v>6096</v>
+      </c>
+      <c r="E95" s="31">
+        <v>9804</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G95" s="31">
+        <v>9804</v>
+      </c>
+      <c r="H95" s="31">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" s="31">
+        <v>6015</v>
+      </c>
+      <c r="E96" s="31">
+        <v>9829</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G96" s="31">
+        <v>9827</v>
+      </c>
+      <c r="H96" s="31">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" s="31">
+        <v>6180</v>
+      </c>
+      <c r="E97" s="31">
+        <v>7697</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G97" s="31">
+        <v>7697</v>
+      </c>
+      <c r="H97" s="31">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="31">
+        <v>6175</v>
+      </c>
+      <c r="E98" s="31">
+        <v>6174</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G98" s="31">
+        <v>6174</v>
+      </c>
+      <c r="H98" s="31">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99" s="31">
+        <v>6146</v>
+      </c>
+      <c r="E99" s="31">
+        <v>16133</v>
+      </c>
+      <c r="F99" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G99" s="31">
+        <v>16133</v>
+      </c>
+      <c r="H99" s="31">
+        <v>6146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100" s="31">
+        <v>5205</v>
+      </c>
+      <c r="E100" s="31">
+        <v>9837</v>
+      </c>
+      <c r="F100" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G100" s="31">
+        <v>9837</v>
+      </c>
+      <c r="H100" s="31">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101" s="31">
+        <v>5208</v>
+      </c>
+      <c r="E101" s="31">
+        <v>10308</v>
+      </c>
+      <c r="F101" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G101" s="31">
+        <v>10306</v>
+      </c>
+      <c r="H101" s="31">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D102" s="31">
+        <v>5673</v>
+      </c>
+      <c r="E102" s="31">
+        <v>9603</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G102" s="31">
+        <v>9606</v>
+      </c>
+      <c r="H102" s="31">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" s="31">
+        <v>5117</v>
+      </c>
+      <c r="E103" s="31">
+        <v>5133</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G103" s="31">
+        <v>5133</v>
+      </c>
+      <c r="H103" s="31">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" s="31">
+        <v>9392</v>
+      </c>
+      <c r="E104" s="31">
+        <v>9490</v>
+      </c>
+      <c r="F104" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G104" s="31">
+        <v>9490</v>
+      </c>
+      <c r="H104" s="31">
+        <v>9392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" s="31">
+        <v>9394</v>
+      </c>
+      <c r="E105" s="31">
+        <v>10270</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G105" s="31">
+        <v>10269</v>
+      </c>
+      <c r="H105" s="31">
+        <v>9394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="31">
+        <v>9402</v>
+      </c>
+      <c r="E106" s="31">
+        <v>16976</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G106" s="57">
+        <v>16976</v>
+      </c>
+      <c r="H106" s="57">
+        <v>9402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" s="31">
+        <v>9402</v>
+      </c>
+      <c r="E107" s="31">
+        <v>10274</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G107" s="31">
+        <v>10273</v>
+      </c>
+      <c r="H107" s="31">
+        <v>9402</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108" s="31">
+        <v>27466</v>
+      </c>
+      <c r="E108" s="31">
+        <v>5363</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G108" s="57">
+        <v>5363</v>
+      </c>
+      <c r="H108" s="57">
+        <v>27466</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" s="31">
+        <v>16672</v>
+      </c>
+      <c r="E109" s="31">
+        <v>16671</v>
+      </c>
+      <c r="F109" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G109" s="57">
+        <v>16669</v>
+      </c>
+      <c r="H109" s="57">
+        <v>16670</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" s="57">
+        <v>5867</v>
+      </c>
+      <c r="E110" s="57">
+        <v>16235</v>
+      </c>
+      <c r="F110" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G110" s="57">
+        <v>16235</v>
+      </c>
+      <c r="H110" s="57">
+        <v>5867</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" s="57">
+        <v>27336</v>
+      </c>
+      <c r="E111" s="57">
+        <v>5523</v>
+      </c>
+      <c r="F111" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G111" s="57">
+        <v>5523</v>
+      </c>
+      <c r="H111" s="57">
+        <v>27336</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D112" s="31">
+        <v>5564</v>
+      </c>
+      <c r="E112" s="31">
+        <v>10509</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G112" s="31">
+        <v>10509</v>
+      </c>
+      <c r="H112" s="31">
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" s="31">
+        <v>5496</v>
+      </c>
+      <c r="E113" s="31">
+        <v>27349</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G113" s="57">
+        <v>27349</v>
+      </c>
+      <c r="H113" s="57">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C114" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114" s="31">
+        <v>16245</v>
+      </c>
+      <c r="E114" s="31">
+        <v>5626</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G114" s="31">
+        <v>5626</v>
+      </c>
+      <c r="H114" s="31">
+        <v>16245</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D115" s="31">
+        <v>9480</v>
+      </c>
+      <c r="E115" s="31">
+        <v>9481</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G115" s="31">
+        <v>9400</v>
+      </c>
+      <c r="H115" s="31">
+        <v>9482</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" s="31">
+        <v>9388</v>
+      </c>
+      <c r="E116" s="31">
+        <v>10090</v>
+      </c>
+      <c r="F116" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G116" s="31">
+        <v>10090</v>
+      </c>
+      <c r="H116" s="31">
+        <v>9388</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" s="31">
+        <v>9566</v>
+      </c>
+      <c r="E117" s="31">
+        <v>13763</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G117" s="31">
+        <v>13763</v>
+      </c>
+      <c r="H117" s="31">
+        <v>9566</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D118" s="31">
+        <v>9526</v>
+      </c>
+      <c r="E118" s="31">
+        <v>9569</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G118" s="31">
+        <v>9569</v>
+      </c>
+      <c r="H118" s="31">
+        <v>9526</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D119" s="31">
+        <v>9532</v>
+      </c>
+      <c r="E119" s="31">
+        <v>10095</v>
+      </c>
+      <c r="F119" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G119" s="31">
+        <v>10095</v>
+      </c>
+      <c r="H119" s="31">
+        <v>9532</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D120" s="31">
+        <v>10499</v>
+      </c>
+      <c r="E120" s="31">
+        <v>10491</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G120" s="31">
+        <v>10491</v>
+      </c>
+      <c r="H120" s="31">
+        <v>10499</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D121" s="31">
+        <v>16163</v>
+      </c>
+      <c r="E121" s="31">
+        <v>5215</v>
+      </c>
+      <c r="F121" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G121" s="31">
+        <v>5215</v>
+      </c>
+      <c r="H121" s="31">
+        <v>16163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D122" s="31">
+        <v>9431</v>
+      </c>
+      <c r="E122" s="31">
+        <v>9469</v>
+      </c>
+      <c r="F122" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G122" s="31">
+        <v>9469</v>
+      </c>
+      <c r="H122" s="31">
+        <v>9431</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D123" s="31">
+        <v>5950</v>
+      </c>
+      <c r="E123" s="31">
+        <v>7639</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G123" s="31">
+        <v>7639</v>
+      </c>
+      <c r="H123" s="31">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C124" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D77" s="51">
-        <v>5865</v>
-      </c>
-      <c r="E77" s="51">
-        <v>5871</v>
-      </c>
-      <c r="F77" s="51" t="s">
+      <c r="D124" s="31">
+        <v>9816</v>
+      </c>
+      <c r="E124" s="31">
+        <v>9815</v>
+      </c>
+      <c r="F124" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G77" s="51">
-        <v>5871</v>
-      </c>
-      <c r="H77" s="51">
-        <v>5865</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B78" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C78" s="51" t="s">
+      <c r="G124" s="31">
+        <v>9815</v>
+      </c>
+      <c r="H124" s="31">
+        <v>9816</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C125" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="51">
-        <v>7536</v>
-      </c>
-      <c r="E78" s="51">
-        <v>5268</v>
-      </c>
-      <c r="F78" s="51" t="s">
+      <c r="D125" s="31">
+        <v>10290</v>
+      </c>
+      <c r="E125" s="31">
+        <v>9815</v>
+      </c>
+      <c r="F125" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G78" s="51">
-        <v>5268</v>
-      </c>
-      <c r="H78" s="51">
-        <v>7536</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B79" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="C79" s="51" t="s">
+      <c r="G125" s="31">
+        <v>9815</v>
+      </c>
+      <c r="H125" s="31">
+        <v>10289</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C126" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D79" s="51">
-        <v>7534</v>
-      </c>
-      <c r="E79" s="51">
-        <v>6668</v>
-      </c>
-      <c r="F79" s="51" t="s">
+      <c r="D126" s="31">
+        <v>5951</v>
+      </c>
+      <c r="E126" s="31">
+        <v>5896</v>
+      </c>
+      <c r="F126" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G79" s="51">
-        <v>6669</v>
-      </c>
-      <c r="H79" s="51">
-        <v>5831</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="51" t="s">
+      <c r="G126" s="31">
+        <v>5896</v>
+      </c>
+      <c r="H126" s="31">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="C127" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D80" s="51">
-        <v>5338</v>
-      </c>
-      <c r="E80" s="51">
-        <v>5339</v>
-      </c>
-      <c r="F80" s="51" t="s">
+      <c r="D127" s="31">
+        <v>27733</v>
+      </c>
+      <c r="E127" s="31">
+        <v>16381</v>
+      </c>
+      <c r="F127" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G80" s="51">
-        <v>5340</v>
-      </c>
-      <c r="H80" s="51">
-        <v>5341</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B81" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="51" t="s">
+      <c r="G127" s="57">
+        <v>27722</v>
+      </c>
+      <c r="H127" s="57">
+        <v>27723</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="C128" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D81" s="51">
-        <v>7607</v>
-      </c>
-      <c r="E81" s="51">
-        <v>7609</v>
-      </c>
-      <c r="F81" s="51" t="s">
+      <c r="D128" s="31">
+        <v>9682</v>
+      </c>
+      <c r="E128" s="31">
+        <v>5228</v>
+      </c>
+      <c r="F128" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="51">
-        <v>7609</v>
-      </c>
-      <c r="H81" s="51">
-        <v>7607</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="C82" s="51" t="s">
+      <c r="G128" s="31">
+        <v>5229</v>
+      </c>
+      <c r="H128" s="31">
+        <v>9679</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C129" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D82" s="51">
-        <v>8111</v>
-      </c>
-      <c r="E82" s="51">
-        <v>6542</v>
-      </c>
-      <c r="F82" s="51" t="s">
+      <c r="D129" s="31">
+        <v>9463</v>
+      </c>
+      <c r="E129" s="31">
+        <v>9456</v>
+      </c>
+      <c r="F129" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G82" s="51">
-        <v>6544</v>
-      </c>
-      <c r="H82" s="51">
-        <v>5202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B83" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="51" t="s">
+      <c r="G129" s="57">
+        <v>9456</v>
+      </c>
+      <c r="H129" s="57">
+        <v>9463</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="C130" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D83" s="51">
-        <v>5797</v>
-      </c>
-      <c r="E83" s="51">
-        <v>5295</v>
-      </c>
-      <c r="F83" s="51" t="s">
+      <c r="D130" s="31">
+        <v>9602</v>
+      </c>
+      <c r="E130" s="31">
+        <v>9513</v>
+      </c>
+      <c r="F130" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G83" s="51">
-        <v>5295</v>
-      </c>
-      <c r="H83" s="51">
-        <v>5797</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="C84" s="51" t="s">
+      <c r="G130" s="31">
+        <v>9531</v>
+      </c>
+      <c r="H130" s="31">
+        <v>9601</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C131" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D84" s="56">
-        <v>5799</v>
-      </c>
-      <c r="E84" s="56">
-        <v>5303</v>
-      </c>
-      <c r="F84" s="51" t="s">
+      <c r="D131" s="31">
+        <v>9603</v>
+      </c>
+      <c r="E131" s="31">
+        <v>9608</v>
+      </c>
+      <c r="F131" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G84" s="56">
-        <v>6514</v>
-      </c>
-      <c r="H84" s="56">
-        <v>5798</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="51" t="s">
+      <c r="G131" s="31">
+        <v>9607</v>
+      </c>
+      <c r="H131" s="31">
+        <v>9606</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C132" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D85" s="51">
-        <v>5783</v>
-      </c>
-      <c r="E85" s="51">
-        <v>5772</v>
-      </c>
-      <c r="F85" s="51" t="s">
+      <c r="D132" s="31">
+        <v>9533</v>
+      </c>
+      <c r="E132" s="31">
+        <v>13788</v>
+      </c>
+      <c r="F132" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G85" s="51">
-        <v>5772</v>
-      </c>
-      <c r="H85" s="51">
-        <v>5783</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B86" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="C86" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D86" s="51">
-        <v>5931</v>
-      </c>
-      <c r="E86" s="51">
-        <v>5932</v>
-      </c>
-      <c r="F86" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G86" s="51">
-        <v>7670</v>
-      </c>
-      <c r="H86" s="51">
-        <v>5923</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B87" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="C87" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D87" s="51">
-        <v>5741</v>
-      </c>
-      <c r="E87" s="51">
-        <v>9466</v>
-      </c>
-      <c r="F87" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G87" s="51">
-        <v>9466</v>
-      </c>
-      <c r="H87" s="51">
-        <v>5741</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B88" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="C88" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D88" s="51">
-        <v>8214</v>
-      </c>
-      <c r="E88" s="51">
-        <v>9466</v>
-      </c>
-      <c r="F88" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G88" s="51">
-        <v>9466</v>
-      </c>
-      <c r="H88" s="51">
-        <v>8217</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B89" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="C89" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D89" s="51">
-        <v>8253</v>
-      </c>
-      <c r="E89" s="51">
-        <v>5452</v>
-      </c>
-      <c r="F89" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G89" s="51">
-        <v>5452</v>
-      </c>
-      <c r="H89" s="51">
-        <v>8253</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B90" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="C90" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D90" s="51">
-        <v>8250</v>
-      </c>
-      <c r="E90" s="51">
-        <v>8249</v>
-      </c>
-      <c r="F90" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G90" s="51">
-        <v>8249</v>
-      </c>
-      <c r="H90" s="51">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B91" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="C91" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D91" s="51">
-        <v>5443</v>
-      </c>
-      <c r="E91" s="51">
-        <v>9618</v>
-      </c>
-      <c r="F91" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G91" s="51">
-        <v>9618</v>
-      </c>
-      <c r="H91" s="51">
-        <v>5443</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B92" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="C92" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D92" s="51">
-        <v>5447</v>
-      </c>
-      <c r="E92" s="51">
-        <v>5456</v>
-      </c>
-      <c r="F92" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G92" s="51">
-        <v>5456</v>
-      </c>
-      <c r="H92" s="51">
-        <v>5447</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B93" s="51" t="s">
-        <v>342</v>
-      </c>
-      <c r="C93" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D93" s="51">
-        <v>8228</v>
-      </c>
-      <c r="E93" s="51">
-        <v>8226</v>
-      </c>
-      <c r="F93" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G93" s="51">
-        <v>8227</v>
-      </c>
-      <c r="H93" s="51">
-        <v>5445</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B94" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="C94" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D94" s="51">
-        <v>6085</v>
-      </c>
-      <c r="E94" s="51">
-        <v>9758</v>
-      </c>
-      <c r="F94" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G94" s="51">
-        <v>9758</v>
-      </c>
-      <c r="H94" s="51">
-        <v>6085</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B95" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="C95" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D95" s="56">
-        <v>6104</v>
-      </c>
-      <c r="E95" s="56">
-        <v>9796</v>
-      </c>
-      <c r="F95" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G95" s="56">
-        <v>9796</v>
-      </c>
-      <c r="H95" s="56">
-        <v>6104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B96" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="C96" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D96" s="51">
-        <v>6096</v>
-      </c>
-      <c r="E96" s="51">
-        <v>9804</v>
-      </c>
-      <c r="F96" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G96" s="51">
-        <v>9804</v>
-      </c>
-      <c r="H96" s="51">
-        <v>6096</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B97" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="C97" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D97" s="51">
-        <v>6015</v>
-      </c>
-      <c r="E97" s="51">
-        <v>9829</v>
-      </c>
-      <c r="F97" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G97" s="51">
-        <v>9827</v>
-      </c>
-      <c r="H97" s="51">
-        <v>6006</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B98" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="C98" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D98" s="51">
-        <v>6180</v>
-      </c>
-      <c r="E98" s="51">
-        <v>7697</v>
-      </c>
-      <c r="F98" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G98" s="51">
-        <v>7697</v>
-      </c>
-      <c r="H98" s="51">
-        <v>6180</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B99" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C99" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D99" s="51">
-        <v>6175</v>
-      </c>
-      <c r="E99" s="51">
-        <v>6174</v>
-      </c>
-      <c r="F99" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G99" s="51">
-        <v>6174</v>
-      </c>
-      <c r="H99" s="51">
-        <v>6175</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B100" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="C100" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D100" s="51">
-        <v>6146</v>
-      </c>
-      <c r="E100" s="51">
-        <v>16133</v>
-      </c>
-      <c r="F100" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G100" s="51">
-        <v>16133</v>
-      </c>
-      <c r="H100" s="51">
-        <v>6146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B101" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="C101" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D101" s="51">
-        <v>5205</v>
-      </c>
-      <c r="E101" s="51">
-        <v>9837</v>
-      </c>
-      <c r="F101" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G101" s="51">
-        <v>9837</v>
-      </c>
-      <c r="H101" s="51">
-        <v>5205</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B102" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="C102" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D102" s="51">
-        <v>5208</v>
-      </c>
-      <c r="E102" s="51">
-        <v>10308</v>
-      </c>
-      <c r="F102" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G102" s="51">
-        <v>10306</v>
-      </c>
-      <c r="H102" s="51">
-        <v>5220</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B103" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="C103" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D103" s="51">
-        <v>5673</v>
-      </c>
-      <c r="E103" s="51">
-        <v>9603</v>
-      </c>
-      <c r="F103" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G103" s="51">
-        <v>9606</v>
-      </c>
-      <c r="H103" s="51">
-        <v>5672</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B104" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="C104" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D104" s="51">
-        <v>5117</v>
-      </c>
-      <c r="E104" s="51">
-        <v>5133</v>
-      </c>
-      <c r="F104" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G104" s="51">
-        <v>5133</v>
-      </c>
-      <c r="H104" s="51">
-        <v>5117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B105" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="C105" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D105" s="51">
-        <v>9392</v>
-      </c>
-      <c r="E105" s="51">
-        <v>9490</v>
-      </c>
-      <c r="F105" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G105" s="51">
-        <v>9490</v>
-      </c>
-      <c r="H105" s="51">
-        <v>9392</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B106" s="51" t="s">
-        <v>344</v>
-      </c>
-      <c r="C106" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D106" s="51">
-        <v>9394</v>
-      </c>
-      <c r="E106" s="51">
-        <v>10270</v>
-      </c>
-      <c r="F106" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G106" s="51">
-        <v>10269</v>
-      </c>
-      <c r="H106" s="51">
-        <v>9394</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B107" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C107" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D107" s="56">
-        <v>9402</v>
-      </c>
-      <c r="E107" s="56">
-        <v>9401</v>
-      </c>
-      <c r="F107" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G107" s="56">
-        <v>9401</v>
-      </c>
-      <c r="H107" s="56">
-        <v>9402</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B108" s="51" t="s">
-        <v>345</v>
-      </c>
-      <c r="C108" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D108" s="51">
-        <v>9402</v>
-      </c>
-      <c r="E108" s="51">
-        <v>10274</v>
-      </c>
-      <c r="F108" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G108" s="51">
-        <v>10273</v>
-      </c>
-      <c r="H108" s="51">
-        <v>9402</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B109" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="C109" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D109" s="56">
-        <v>15963</v>
-      </c>
-      <c r="E109" s="56">
-        <v>5363</v>
-      </c>
-      <c r="F109" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G109" s="56">
-        <v>5363</v>
-      </c>
-      <c r="H109" s="56">
-        <v>15963</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B110" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="C110" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D110" s="56">
-        <v>5504</v>
-      </c>
-      <c r="E110" s="56">
-        <v>5068</v>
-      </c>
-      <c r="F110" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G110" s="56">
-        <v>5066</v>
-      </c>
-      <c r="H110" s="56">
-        <v>5561</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B111" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="C111" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D111" s="51">
-        <v>5867</v>
-      </c>
-      <c r="E111" s="51">
-        <v>16235</v>
-      </c>
-      <c r="F111" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G111" s="51">
-        <v>16235</v>
-      </c>
-      <c r="H111" s="51">
-        <v>5867</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B112" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="C112" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D112" s="56">
-        <v>9352</v>
-      </c>
-      <c r="E112" s="56">
-        <v>5523</v>
-      </c>
-      <c r="F112" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G112" s="56">
-        <v>5523</v>
-      </c>
-      <c r="H112" s="56">
-        <v>9352</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B113" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="C113" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D113" s="51">
-        <v>5564</v>
-      </c>
-      <c r="E113" s="51">
-        <v>10509</v>
-      </c>
-      <c r="F113" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G113" s="51">
-        <v>10509</v>
-      </c>
-      <c r="H113" s="51">
-        <v>5564</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="C114" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D114" s="56">
-        <v>5496</v>
-      </c>
-      <c r="E114" s="56">
-        <v>5503</v>
-      </c>
-      <c r="F114" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G114" s="56">
-        <v>5503</v>
-      </c>
-      <c r="H114" s="56">
-        <v>5496</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B115" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="C115" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D115" s="51">
-        <v>16245</v>
-      </c>
-      <c r="E115" s="51">
-        <v>5626</v>
-      </c>
-      <c r="F115" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G115" s="51">
-        <v>5626</v>
-      </c>
-      <c r="H115" s="51">
-        <v>16245</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B116" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="C116" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D116" s="51">
-        <v>9480</v>
-      </c>
-      <c r="E116" s="51">
-        <v>9481</v>
-      </c>
-      <c r="F116" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G116" s="51">
-        <v>9400</v>
-      </c>
-      <c r="H116" s="51">
-        <v>9482</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B117" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="C117" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D117" s="51">
-        <v>9388</v>
-      </c>
-      <c r="E117" s="51">
-        <v>10090</v>
-      </c>
-      <c r="F117" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G117" s="51">
-        <v>10090</v>
-      </c>
-      <c r="H117" s="51">
-        <v>9388</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B118" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="C118" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D118" s="51">
-        <v>9566</v>
-      </c>
-      <c r="E118" s="51">
-        <v>13763</v>
-      </c>
-      <c r="F118" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G118" s="51">
-        <v>13763</v>
-      </c>
-      <c r="H118" s="51">
-        <v>9566</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B119" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="C119" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D119" s="51">
-        <v>9526</v>
-      </c>
-      <c r="E119" s="51">
-        <v>9569</v>
-      </c>
-      <c r="F119" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G119" s="51">
-        <v>9569</v>
-      </c>
-      <c r="H119" s="51">
-        <v>9526</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B120" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="C120" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D120" s="51">
-        <v>9532</v>
-      </c>
-      <c r="E120" s="51">
-        <v>10095</v>
-      </c>
-      <c r="F120" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G120" s="51">
-        <v>10095</v>
-      </c>
-      <c r="H120" s="51">
-        <v>9532</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B121" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="C121" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D121" s="51">
-        <v>10499</v>
-      </c>
-      <c r="E121" s="51">
-        <v>10491</v>
-      </c>
-      <c r="F121" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G121" s="51">
-        <v>10491</v>
-      </c>
-      <c r="H121" s="51">
-        <v>10499</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B122" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="C122" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D122" s="51">
-        <v>16163</v>
-      </c>
-      <c r="E122" s="51">
-        <v>5215</v>
-      </c>
-      <c r="F122" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G122" s="51">
-        <v>5215</v>
-      </c>
-      <c r="H122" s="51">
-        <v>16163</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B123" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="C123" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D123" s="51">
-        <v>9431</v>
-      </c>
-      <c r="E123" s="51">
-        <v>9469</v>
-      </c>
-      <c r="F123" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G123" s="51">
-        <v>9469</v>
-      </c>
-      <c r="H123" s="51">
-        <v>9431</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B124" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="C124" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D124" s="51">
-        <v>5950</v>
-      </c>
-      <c r="E124" s="51">
-        <v>7639</v>
-      </c>
-      <c r="F124" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G124" s="51">
-        <v>7639</v>
-      </c>
-      <c r="H124" s="51">
-        <v>5950</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B125" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="C125" s="51" t="s">
+      <c r="G132" s="31">
+        <v>13788</v>
+      </c>
+      <c r="H132" s="31">
+        <v>9533</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D125" s="51">
-        <v>9816</v>
-      </c>
-      <c r="E125" s="51">
-        <v>9815</v>
-      </c>
-      <c r="F125" s="51" t="s">
+      <c r="D133" s="31">
+        <v>9610</v>
+      </c>
+      <c r="E133" s="31">
+        <v>9694</v>
+      </c>
+      <c r="F133" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G125" s="51">
-        <v>9815</v>
-      </c>
-      <c r="H125" s="51">
-        <v>9816</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B126" s="51" t="s">
-        <v>346</v>
-      </c>
-      <c r="C126" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D126" s="51">
-        <v>10290</v>
-      </c>
-      <c r="E126" s="51">
-        <v>9815</v>
-      </c>
-      <c r="F126" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G126" s="51">
-        <v>9815</v>
-      </c>
-      <c r="H126" s="51">
-        <v>10289</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B127" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="C127" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D127" s="51">
-        <v>5951</v>
-      </c>
-      <c r="E127" s="51">
-        <v>5896</v>
-      </c>
-      <c r="F127" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G127" s="51">
-        <v>5896</v>
-      </c>
-      <c r="H127" s="51">
-        <v>5951</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B128" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="C128" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D128" s="56">
-        <v>6037</v>
-      </c>
-      <c r="E128" s="56">
-        <v>16381</v>
-      </c>
-      <c r="F128" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G128" s="56">
-        <v>16381</v>
-      </c>
-      <c r="H128" s="56">
-        <v>6037</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B129" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="C129" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D129" s="51">
-        <v>9682</v>
-      </c>
-      <c r="E129" s="51">
-        <v>5228</v>
-      </c>
-      <c r="F129" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G129" s="51">
-        <v>5229</v>
-      </c>
-      <c r="H129" s="51">
-        <v>9679</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B130" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="C130" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D130" s="56">
-        <v>9457</v>
-      </c>
-      <c r="E130" s="56">
-        <v>9456</v>
-      </c>
-      <c r="F130" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G130" s="56">
-        <v>9456</v>
-      </c>
-      <c r="H130" s="56">
-        <v>9457</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B131" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="C131" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D131" s="51">
-        <v>9602</v>
-      </c>
-      <c r="E131" s="51">
-        <v>9513</v>
-      </c>
-      <c r="F131" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G131" s="51">
-        <v>9531</v>
-      </c>
-      <c r="H131" s="51">
-        <v>9601</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B132" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="C132" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D132" s="51">
-        <v>9603</v>
-      </c>
-      <c r="E132" s="51">
-        <v>9608</v>
-      </c>
-      <c r="F132" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G132" s="51">
-        <v>9607</v>
-      </c>
-      <c r="H132" s="51">
-        <v>9606</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B133" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="C133" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D133" s="51">
-        <v>9533</v>
-      </c>
-      <c r="E133" s="51">
-        <v>13788</v>
-      </c>
-      <c r="F133" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G133" s="51">
-        <v>13788</v>
-      </c>
-      <c r="H133" s="51">
-        <v>9533</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B134" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="C134" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D134" s="51">
-        <v>9610</v>
-      </c>
-      <c r="E134" s="51">
+      <c r="G133" s="31">
         <v>9694</v>
       </c>
-      <c r="F134" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G134" s="51">
-        <v>9694</v>
-      </c>
-      <c r="H134" s="51">
+      <c r="H133" s="31">
         <v>9610</v>
       </c>
     </row>
@@ -5833,18 +5820,18 @@
       <c r="F1" t="s">
         <v>321</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
     </row>
     <row r="2" spans="1:20" ht="16.8">
       <c r="A2" s="8" t="s">
@@ -5865,8 +5852,8 @@
       <c r="F2">
         <v>31700.909999999996</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
@@ -5897,7 +5884,7 @@
       <c r="F3">
         <v>33067.789999999994</v>
       </c>
-      <c r="I3" s="31"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="13"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -5929,7 +5916,7 @@
       <c r="F4">
         <v>4411.42</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="13"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -5961,7 +5948,7 @@
       <c r="F5">
         <v>33585.645000000004</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="13"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
@@ -5993,7 +5980,7 @@
       <c r="F6">
         <v>9174.02</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="13"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
@@ -6025,7 +6012,7 @@
       <c r="F7">
         <v>6022.2249999999995</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="13"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -6057,7 +6044,7 @@
       <c r="F8">
         <v>33242.775000000001</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="13"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
@@ -6089,7 +6076,7 @@
       <c r="F9">
         <v>25381.729999999996</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="13"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -6121,7 +6108,7 @@
       <c r="F10">
         <v>19867.66</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="13"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
@@ -6153,7 +6140,7 @@
       <c r="F11">
         <v>18677.57</v>
       </c>
-      <c r="I11" s="31"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="13"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
@@ -6185,7 +6172,7 @@
       <c r="F12">
         <v>18128.565000000002</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="13"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -6217,7 +6204,7 @@
       <c r="F13">
         <v>11400.324999999999</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="13"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -6249,7 +6236,7 @@
       <c r="F14">
         <v>11086.87</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="13"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
@@ -6263,7 +6250,7 @@
       <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="I15" s="31"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="13"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
@@ -6277,7 +6264,7 @@
       <c r="T15" s="19"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="I16" s="31"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="13"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -6291,7 +6278,7 @@
       <c r="T16" s="19"/>
     </row>
     <row r="17" spans="9:20">
-      <c r="I17" s="31"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="13"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -6305,7 +6292,7 @@
       <c r="T17" s="19"/>
     </row>
     <row r="18" spans="9:20">
-      <c r="I18" s="31"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="13"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
@@ -6319,7 +6306,7 @@
       <c r="T18" s="19"/>
     </row>
     <row r="19" spans="9:20">
-      <c r="I19" s="31"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="13"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -6333,7 +6320,7 @@
       <c r="T19" s="19"/>
     </row>
     <row r="20" spans="9:20">
-      <c r="I20" s="31"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="13"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -6347,7 +6334,7 @@
       <c r="T20" s="19"/>
     </row>
     <row r="21" spans="9:20">
-      <c r="I21" s="31"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="13"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -6361,7 +6348,7 @@
       <c r="T21" s="19"/>
     </row>
     <row r="22" spans="9:20">
-      <c r="I22" s="31"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="13"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -6375,7 +6362,7 @@
       <c r="T22" s="19"/>
     </row>
     <row r="23" spans="9:20">
-      <c r="I23" s="31"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="13"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -6389,7 +6376,7 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="9:20">
-      <c r="I24" s="31"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="13"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -6403,7 +6390,7 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="9:20">
-      <c r="I25" s="31"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="13"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
@@ -6417,7 +6404,7 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="9:20">
-      <c r="I26" s="31"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="13"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -6431,7 +6418,7 @@
       <c r="T26" s="19"/>
     </row>
     <row r="27" spans="9:20">
-      <c r="I27" s="31"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="13"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
@@ -6445,7 +6432,7 @@
       <c r="T27" s="19"/>
     </row>
     <row r="28" spans="9:20">
-      <c r="I28" s="31"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="13"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
@@ -6460,11 +6447,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -6477,6 +6459,11 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6517,18 +6504,18 @@
     <row r="1" spans="1:15">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
       <c r="N1" s="14" t="s">
         <v>85</v>
       </c>
@@ -6537,26 +6524,26 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
       <c r="N2" s="1" t="s">
         <v>88</v>
       </c>
@@ -6565,8 +6552,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="39"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
@@ -6605,7 +6592,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="41" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -6651,7 +6638,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="35"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="15" t="s">
         <v>55</v>
       </c>
@@ -6695,7 +6682,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -6741,7 +6728,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="35"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
@@ -6785,7 +6772,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="41" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -6831,7 +6818,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="35"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
@@ -6875,7 +6862,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="41" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -6921,7 +6908,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="35"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="15" t="s">
         <v>61</v>
       </c>
@@ -6965,7 +6952,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="41" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -7011,7 +6998,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="35"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="15" t="s">
         <v>61</v>
       </c>
@@ -7055,7 +7042,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="41" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -7101,7 +7088,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="35"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -7145,7 +7132,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="41" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -7191,7 +7178,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="35"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="15" t="s">
         <v>61</v>
       </c>
@@ -7235,7 +7222,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="41" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -7281,7 +7268,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="35"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="15" t="s">
         <v>66</v>
       </c>
@@ -7325,7 +7312,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="41" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -7371,7 +7358,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="35"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="15" t="s">
         <v>66</v>
       </c>
@@ -7415,7 +7402,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -7461,7 +7448,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="35"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="15" t="s">
         <v>66</v>
       </c>
@@ -7505,7 +7492,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="41" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -7551,7 +7538,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="35"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="15" t="s">
         <v>66</v>
       </c>
@@ -7595,7 +7582,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="41" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -7641,7 +7628,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="35"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="15" t="s">
         <v>61</v>
       </c>
@@ -7685,7 +7672,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -7731,7 +7718,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="48"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="21" t="s">
         <v>61</v>
       </c>
@@ -7785,18 +7772,18 @@
     <row r="31" spans="1:15">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
       <c r="N31" s="1" t="s">
         <v>135</v>
       </c>
@@ -7805,26 +7792,26 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="42" t="s">
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="44"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="51"/>
       <c r="N32" s="1" t="s">
         <v>137</v>
       </c>
@@ -7833,8 +7820,8 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="39"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="3" t="s">
         <v>49</v>
       </c>
@@ -7873,7 +7860,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="41" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -7919,7 +7906,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="35"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="15" t="s">
         <v>55</v>
       </c>
@@ -7963,7 +7950,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -8009,7 +7996,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="35"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="15" t="s">
         <v>18</v>
       </c>
@@ -8053,7 +8040,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="41" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -8099,7 +8086,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="35"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="15" t="s">
         <v>18</v>
       </c>
@@ -8143,7 +8130,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="41" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -8189,7 +8176,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="35"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="15" t="s">
         <v>61</v>
       </c>
@@ -8233,7 +8220,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="41" t="s">
         <v>62</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -8279,7 +8266,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="35"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="15" t="s">
         <v>61</v>
       </c>
@@ -8323,7 +8310,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="41" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -8369,7 +8356,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="35"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="15" t="s">
         <v>18</v>
       </c>
@@ -8413,7 +8400,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="41" t="s">
         <v>64</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -8459,7 +8446,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="35"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="15" t="s">
         <v>61</v>
       </c>
@@ -8503,7 +8490,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="41" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -8549,7 +8536,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="35"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="15" t="s">
         <v>66</v>
       </c>
@@ -8593,7 +8580,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="41" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -8639,7 +8626,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="35"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="15" t="s">
         <v>66</v>
       </c>
@@ -8683,7 +8670,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="15" t="s">
@@ -8729,7 +8716,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="35"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="15" t="s">
         <v>66</v>
       </c>
@@ -8773,7 +8760,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="41" t="s">
         <v>69</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -8819,7 +8806,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="35"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="15" t="s">
         <v>66</v>
       </c>
@@ -8863,7 +8850,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="41" t="s">
         <v>70</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -8909,7 +8896,7 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="35"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="15" t="s">
         <v>61</v>
       </c>
@@ -8953,7 +8940,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -8999,7 +8986,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="48"/>
+      <c r="A59" s="42"/>
       <c r="B59" s="21" t="s">
         <v>61</v>
       </c>
@@ -9819,6 +9806,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
@@ -9831,30 +9842,6 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ta/指派結果/TRTS-4S屏柵線.xlsx
+++ b/ta/指派結果/TRTS-4S屏柵線.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Desktop\Traffic-Assignment-Model-1\ta\指派結果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\指派結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93058C8-40E1-4480-A94E-251589A8CA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2287D-CEEF-413A-B36D-C09F3461449A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
   </bookViews>
   <sheets>
     <sheet name="節點編號" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="360">
   <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1140,9 +1140,6 @@
     <t>臺1甲_臺北橋(機車專用道)</t>
   </si>
   <si>
-    <t>臺1_忠孝橋(機車專用道)</t>
-  </si>
-  <si>
     <t>臺3_華江橋(機車專用道)</t>
   </si>
   <si>
@@ -1170,6 +1167,50 @@
   </si>
   <si>
     <t>安東街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松江路(公車專用道)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民權東路(公車專用道)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京東路(公車專用道)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁愛路(公車專用道)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義路(公車專用道)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺1_忠孝橋(機車專用道)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣104_中興橋(機車專用道)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萬板大橋(機車專用道)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福和橋(機車專用道)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景文街_景美橋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1180,7 +1221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1280,6 +1321,29 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1522,7 +1586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1632,6 +1696,9 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1692,7 +1759,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2033,20 +2110,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B91B70-CCE3-4F38-82D1-372C96A2E9C6}">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H129" sqref="D129:H129"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="31"/>
-    <col min="2" max="2" width="28.88671875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="31"/>
-    <col min="6" max="6" width="14.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="8.875" style="31"/>
+    <col min="2" max="2" width="28.875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.875" style="31"/>
+    <col min="6" max="6" width="14.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2057,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>2</v>
@@ -2066,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>4</v>
@@ -2198,10 +2275,10 @@
       <c r="F6" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="37">
         <v>27273</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="37">
         <v>6680</v>
       </c>
     </row>
@@ -2739,36 +2816,36 @@
         <v>57</v>
       </c>
       <c r="G27" s="31">
-        <v>8454</v>
+        <v>8449</v>
       </c>
       <c r="H27" s="31">
-        <v>8448</v>
+        <v>8447</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="32" t="s">
-        <v>322</v>
+        <v>73</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>123</v>
+        <v>349</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="31">
-        <v>6354</v>
+        <v>6456</v>
       </c>
       <c r="E28" s="31">
-        <v>6349</v>
+        <v>8455</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G28" s="31">
-        <v>6741</v>
+        <v>8454</v>
       </c>
       <c r="H28" s="31">
-        <v>6751</v>
+        <v>8448</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2776,25 +2853,25 @@
         <v>322</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>330</v>
+        <v>123</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="31">
-        <v>8535</v>
+        <v>6354</v>
       </c>
       <c r="E29" s="31">
-        <v>8536</v>
+        <v>6349</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G29" s="31">
-        <v>8533</v>
+        <v>6741</v>
       </c>
       <c r="H29" s="31">
-        <v>8534</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2802,25 +2879,25 @@
         <v>322</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>125</v>
+        <v>330</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D30" s="31">
-        <v>6352</v>
+        <v>8535</v>
       </c>
       <c r="E30" s="31">
-        <v>6356</v>
+        <v>8536</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G30" s="31">
-        <v>6357</v>
+        <v>8533</v>
       </c>
       <c r="H30" s="31">
-        <v>6353</v>
+        <v>8534</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2828,19 +2905,25 @@
         <v>322</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
+        <v>125</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="31">
+        <v>6352</v>
+      </c>
+      <c r="E31" s="31">
+        <v>6356</v>
+      </c>
       <c r="F31" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="31">
-        <v>9182</v>
+        <v>6357</v>
       </c>
       <c r="H31" s="31">
-        <v>9181</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2848,2306 +2931,2360 @@
         <v>322</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="31">
-        <v>6745</v>
-      </c>
-      <c r="E32" s="31">
-        <v>6734</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G32" s="31">
-        <v>6734</v>
+        <v>9182</v>
       </c>
       <c r="H32" s="31">
-        <v>6745</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>9181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="32" t="s">
         <v>322</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D33" s="31">
-        <v>6715</v>
+        <v>6745</v>
       </c>
       <c r="E33" s="31">
-        <v>6722</v>
+        <v>6734</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G33" s="31">
-        <v>6722</v>
+        <v>6734</v>
       </c>
       <c r="H33" s="31">
-        <v>6715</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="32" t="s">
         <v>322</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="31">
-        <v>13570</v>
+        <v>6715</v>
       </c>
       <c r="E34" s="31">
-        <v>7771</v>
+        <v>6722</v>
       </c>
       <c r="F34" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G34" s="31">
-        <v>7772</v>
+        <v>6722</v>
       </c>
       <c r="H34" s="31">
-        <v>13571</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>6715</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="32" t="s">
         <v>322</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="C35" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D35" s="31">
-        <v>9247</v>
+        <v>13570</v>
       </c>
       <c r="E35" s="31">
-        <v>9246</v>
+        <v>7771</v>
       </c>
       <c r="F35" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G35" s="31">
-        <v>9246</v>
+        <v>7772</v>
       </c>
       <c r="H35" s="31">
-        <v>9247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>13571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="32" t="s">
         <v>322</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="31">
-        <v>6780</v>
+        <v>9247</v>
       </c>
       <c r="E36" s="31">
-        <v>6781</v>
+        <v>9246</v>
       </c>
       <c r="F36" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G36" s="31">
-        <v>6781</v>
+        <v>9246</v>
       </c>
       <c r="H36" s="31">
-        <v>6780</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>9247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="32" t="s">
         <v>322</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="31">
-        <v>6332</v>
+        <v>6780</v>
       </c>
       <c r="E37" s="31">
-        <v>6775</v>
+        <v>6781</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G37" s="31">
-        <v>6775</v>
+        <v>6781</v>
       </c>
       <c r="H37" s="31">
-        <v>6332</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="32" t="s">
         <v>322</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="31">
-        <v>8000</v>
+        <v>6332</v>
       </c>
       <c r="E38" s="31">
-        <v>7966</v>
+        <v>6775</v>
       </c>
       <c r="F38" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G38" s="31">
-        <v>6303</v>
+        <v>6775</v>
       </c>
       <c r="H38" s="31">
-        <v>7998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="32" t="s">
         <v>322</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D39" s="31">
-        <v>6305</v>
+        <v>8000</v>
       </c>
       <c r="E39" s="31">
-        <v>6306</v>
+        <v>7966</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G39" s="31">
-        <v>6306</v>
+        <v>6303</v>
       </c>
       <c r="H39" s="31">
-        <v>6305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="32" t="s">
         <v>322</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D40">
-        <v>27265</v>
-      </c>
-      <c r="E40">
-        <v>8662</v>
+      <c r="D40" s="31">
+        <v>6305</v>
+      </c>
+      <c r="E40" s="31">
+        <v>6306</v>
       </c>
       <c r="F40" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G40">
-        <v>8662</v>
-      </c>
-      <c r="H40">
-        <v>27265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="G40" s="31">
+        <v>6306</v>
+      </c>
+      <c r="H40" s="31">
+        <v>6305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="32" t="s">
         <v>322</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D41">
-        <v>27267</v>
+        <v>27265</v>
       </c>
       <c r="E41">
-        <v>6932</v>
+        <v>8662</v>
       </c>
       <c r="F41" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G41">
-        <v>6932</v>
+        <v>8662</v>
       </c>
       <c r="H41">
-        <v>27267</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>27265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="32" t="s">
         <v>322</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="31">
-        <v>16363</v>
-      </c>
-      <c r="E42" s="31">
-        <v>15828</v>
+      <c r="D42">
+        <v>27267</v>
+      </c>
+      <c r="E42">
+        <v>6932</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="31">
+      <c r="G42">
+        <v>6932</v>
+      </c>
+      <c r="H42">
+        <v>27267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="31">
+        <v>16363</v>
+      </c>
+      <c r="E43" s="31">
         <v>15828</v>
       </c>
-      <c r="H42" s="31">
+      <c r="F43" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="31">
+        <v>15828</v>
+      </c>
+      <c r="H43" s="31">
         <v>16363</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="D43" s="31">
-        <v>6383</v>
-      </c>
-      <c r="E43" s="31">
-        <v>6385</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="G43" s="31">
-        <v>6363</v>
-      </c>
-      <c r="H43" s="31">
-        <v>6364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:12">
       <c r="A44" s="32" t="s">
         <v>74</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>324</v>
       </c>
       <c r="D44" s="31">
-        <v>9144</v>
+        <v>6383</v>
       </c>
       <c r="E44" s="31">
-        <v>8521</v>
+        <v>6385</v>
       </c>
       <c r="F44" s="31" t="s">
         <v>323</v>
       </c>
       <c r="G44" s="31">
+        <v>6363</v>
+      </c>
+      <c r="H44" s="31">
+        <v>6364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="D45" s="31">
+        <v>9144</v>
+      </c>
+      <c r="E45" s="31">
+        <v>8521</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="G45" s="61">
+        <v>8096</v>
+      </c>
+      <c r="H45" s="61">
         <v>8522</v>
       </c>
-      <c r="H44" s="31">
+      <c r="J45" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="K45" s="31">
+        <v>8522</v>
+      </c>
+      <c r="L45" s="31">
         <v>9156</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="31">
-        <v>6398</v>
-      </c>
-      <c r="E45" s="31">
-        <v>8516</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="31">
-        <v>8516</v>
-      </c>
-      <c r="H45" s="31">
-        <v>6398</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:12">
       <c r="A46" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="31">
-        <v>15483</v>
+        <v>6398</v>
       </c>
       <c r="E46" s="31">
-        <v>8094</v>
+        <v>8516</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G46" s="31">
-        <v>8095</v>
+        <v>8516</v>
       </c>
       <c r="H46" s="31">
-        <v>15482</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>6398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C47" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="31">
-        <v>8436</v>
+        <v>15483</v>
       </c>
       <c r="E47" s="31">
-        <v>8077</v>
+        <v>8094</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G47" s="31">
-        <v>8077</v>
+        <v>8095</v>
       </c>
       <c r="H47" s="31">
-        <v>8436</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>15482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="C48" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D48" s="31">
-        <v>8438</v>
+        <v>6365</v>
       </c>
       <c r="E48" s="31">
-        <v>6397</v>
+        <v>6362</v>
       </c>
       <c r="F48" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G48" s="31">
-        <v>6397</v>
+        <v>6362</v>
       </c>
       <c r="H48" s="31">
-        <v>8438</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>6365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="31">
-        <v>8526</v>
+        <v>8436</v>
       </c>
       <c r="E49" s="31">
-        <v>9163</v>
+        <v>8077</v>
       </c>
       <c r="F49" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G49" s="31">
-        <v>9163</v>
+        <v>8077</v>
       </c>
       <c r="H49" s="31">
-        <v>8526</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>8436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C50" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D50" s="31">
-        <v>9175</v>
+        <v>8438</v>
       </c>
       <c r="E50" s="31">
-        <v>6395</v>
+        <v>6397</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G50" s="31">
-        <v>6395</v>
+        <v>6397</v>
       </c>
       <c r="H50" s="31">
-        <v>9175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>8438</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="31">
-        <v>9202</v>
+        <v>8526</v>
       </c>
       <c r="E51" s="31">
-        <v>8037</v>
+        <v>9163</v>
       </c>
       <c r="F51" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G51" s="31">
-        <v>8036</v>
+        <v>9163</v>
       </c>
       <c r="H51" s="31">
-        <v>9203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C52" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D52" s="31">
-        <v>6752</v>
+        <v>9175</v>
       </c>
       <c r="E52" s="31">
-        <v>9186</v>
+        <v>6395</v>
       </c>
       <c r="F52" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G52" s="31">
-        <v>9186</v>
+        <v>6395</v>
       </c>
       <c r="H52" s="31">
-        <v>6752</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>9175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C53" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="31">
-        <v>9899</v>
+        <v>9202</v>
       </c>
       <c r="E53" s="31">
-        <v>6350</v>
+        <v>8037</v>
       </c>
       <c r="F53" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G53" s="31">
-        <v>6350</v>
+        <v>8036</v>
       </c>
       <c r="H53" s="31">
-        <v>9899</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>9203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D54" s="31">
-        <v>9180</v>
+        <v>9176</v>
       </c>
       <c r="E54" s="31">
-        <v>6352</v>
+        <v>6345</v>
       </c>
       <c r="F54" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G54" s="31">
-        <v>6352</v>
+        <v>6345</v>
       </c>
       <c r="H54" s="31">
-        <v>9180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>9176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C55" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D55" s="31">
-        <v>6388</v>
+        <v>6752</v>
       </c>
       <c r="E55" s="31">
-        <v>6389</v>
+        <v>9186</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G55" s="31">
-        <v>6390</v>
+        <v>9186</v>
       </c>
       <c r="H55" s="31">
-        <v>6391</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>6752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C56" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D56" s="31">
-        <v>6599</v>
+        <v>9899</v>
       </c>
       <c r="E56" s="31">
-        <v>6347</v>
+        <v>6350</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G56" s="31">
-        <v>6356</v>
+        <v>6350</v>
       </c>
       <c r="H56" s="31">
-        <v>6601</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>9899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="31">
-        <v>6402</v>
+        <v>9180</v>
       </c>
       <c r="E57" s="31">
-        <v>6403</v>
+        <v>6352</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G57" s="31">
-        <v>6403</v>
+        <v>6352</v>
       </c>
       <c r="H57" s="31">
-        <v>6402</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>9180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
+        <v>174</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="31">
+        <v>6388</v>
+      </c>
+      <c r="E58" s="31">
+        <v>6389</v>
+      </c>
       <c r="F58" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G58" s="31">
-        <v>6342</v>
+        <v>6390</v>
       </c>
       <c r="H58" s="31">
-        <v>8478</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>6391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
+        <v>176</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="31">
+        <v>6599</v>
+      </c>
+      <c r="E59" s="31">
+        <v>6347</v>
+      </c>
       <c r="F59" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G59" s="31">
-        <v>7877</v>
+        <v>6356</v>
       </c>
       <c r="H59" s="31">
-        <v>9912</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
+        <v>178</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="31">
+        <v>6402</v>
+      </c>
+      <c r="E60" s="31">
+        <v>6403</v>
+      </c>
       <c r="F60" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G60" s="31">
-        <v>7879</v>
+        <v>6403</v>
       </c>
       <c r="H60" s="31">
-        <v>15093</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="31">
-        <v>10202</v>
-      </c>
-      <c r="E61" s="31">
-        <v>7808</v>
-      </c>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-    </row>
-    <row r="62" spans="1:11">
+        <v>333</v>
+      </c>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="31">
+        <v>6342</v>
+      </c>
+      <c r="H61" s="31">
+        <v>8478</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="31">
-        <v>10205</v>
-      </c>
-      <c r="E62" s="31">
-        <v>7805</v>
-      </c>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-    </row>
-    <row r="63" spans="1:11">
+        <v>334</v>
+      </c>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="31">
+        <v>7877</v>
+      </c>
+      <c r="H62" s="31">
+        <v>9912</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="35">
-        <v>10204</v>
-      </c>
-      <c r="E63" s="35">
-        <v>7806</v>
-      </c>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-    </row>
-    <row r="64" spans="1:11">
+        <v>334</v>
+      </c>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G63" s="31">
+        <v>7879</v>
+      </c>
+      <c r="H63" s="31">
+        <v>15093</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>184</v>
+        <v>352</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D64" s="31">
-        <v>9907</v>
+        <v>8479</v>
       </c>
       <c r="E64" s="31">
-        <v>5995</v>
+        <v>7876</v>
       </c>
       <c r="F64" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G64" s="31">
-        <v>5995</v>
+        <v>7878</v>
       </c>
       <c r="H64" s="31">
-        <v>9907</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>8477</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>186</v>
+        <v>335</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D65" s="31">
-        <v>6016</v>
+        <v>10202</v>
       </c>
       <c r="E65" s="31">
-        <v>6017</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G65" s="31">
-        <v>8559</v>
-      </c>
-      <c r="H65" s="31">
-        <v>6018</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>7808</v>
+      </c>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="C66" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D66" s="31">
-        <v>5032</v>
+        <v>10205</v>
       </c>
       <c r="E66" s="31">
-        <v>5033</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" s="31">
-        <v>5022</v>
-      </c>
-      <c r="H66" s="31">
-        <v>5023</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>7805</v>
+      </c>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="C67" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="C67" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="31">
-        <v>5018</v>
-      </c>
-      <c r="E67" s="31">
-        <v>5019</v>
+      <c r="D67" s="35">
+        <v>10204</v>
+      </c>
+      <c r="E67" s="35">
+        <v>7806</v>
       </c>
       <c r="F67" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G67" s="31">
-        <v>5027</v>
-      </c>
-      <c r="H67" s="31">
-        <v>7040</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="G67" s="58">
+        <v>7807</v>
+      </c>
+      <c r="H67" s="58">
+        <v>10203</v>
+      </c>
+      <c r="I67" s="59"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C68" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D68" s="31">
-        <v>7025</v>
+        <v>9907</v>
       </c>
       <c r="E68" s="31">
-        <v>7023</v>
+        <v>5995</v>
       </c>
       <c r="F68" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G68" s="31">
-        <v>7023</v>
+        <v>5995</v>
       </c>
       <c r="H68" s="31">
-        <v>7025</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>9907</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D69">
-        <v>7102</v>
-      </c>
-      <c r="E69">
-        <v>16030</v>
+      <c r="D69" s="31">
+        <v>6016</v>
+      </c>
+      <c r="E69" s="31">
+        <v>6017</v>
       </c>
       <c r="F69" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G69">
-        <v>16030</v>
-      </c>
-      <c r="H69">
-        <v>7102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="G69" s="31">
+        <v>8559</v>
+      </c>
+      <c r="H69" s="31">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="32" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C70" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D70" s="31">
-        <v>7105</v>
+        <v>5032</v>
       </c>
       <c r="E70" s="31">
-        <v>7682</v>
+        <v>5033</v>
       </c>
       <c r="F70" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G70" s="31">
-        <v>7682</v>
+        <v>5022</v>
       </c>
       <c r="H70" s="31">
-        <v>7105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="32" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C71" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D71">
-        <v>16699</v>
-      </c>
-      <c r="E71">
-        <v>16694</v>
+      <c r="D71" s="31">
+        <v>5018</v>
+      </c>
+      <c r="E71" s="31">
+        <v>5019</v>
       </c>
       <c r="F71" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G71">
-        <v>16693</v>
-      </c>
-      <c r="H71">
-        <v>16695</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="G71" s="31">
+        <v>5027</v>
+      </c>
+      <c r="H71" s="31">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="32" t="s">
         <v>76</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D72" s="31">
-        <v>5918</v>
+        <v>7025</v>
       </c>
       <c r="E72" s="31">
-        <v>5014</v>
+        <v>7023</v>
       </c>
       <c r="F72" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G72" s="31">
-        <v>5014</v>
+        <v>7023</v>
       </c>
       <c r="H72" s="31">
-        <v>5918</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="32" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>337</v>
+        <v>194</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" s="31">
-        <v>5872</v>
-      </c>
-      <c r="E73" s="31">
-        <v>8319</v>
+        <v>61</v>
+      </c>
+      <c r="D73">
+        <v>7102</v>
+      </c>
+      <c r="E73">
+        <v>16030</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G73" s="31">
-        <v>8319</v>
-      </c>
-      <c r="H73" s="31">
-        <v>5872</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="G73">
+        <v>16030</v>
+      </c>
+      <c r="H73">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="32" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D74" s="31">
-        <v>7452</v>
+        <v>7105</v>
       </c>
       <c r="E74" s="31">
-        <v>9283</v>
+        <v>7682</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G74" s="31">
-        <v>9283</v>
+        <v>7682</v>
       </c>
       <c r="H74" s="31">
-        <v>7452</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>7105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="32" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D75" s="31">
-        <v>7462</v>
-      </c>
-      <c r="E75" s="31">
-        <v>5012</v>
+        <v>61</v>
+      </c>
+      <c r="D75">
+        <v>16699</v>
+      </c>
+      <c r="E75">
+        <v>16694</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G75" s="31">
-        <v>5012</v>
-      </c>
-      <c r="H75" s="31">
-        <v>7462</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="G75">
+        <v>16693</v>
+      </c>
+      <c r="H75">
+        <v>16695</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="32" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C76" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D76" s="31">
-        <v>5865</v>
+        <v>5918</v>
       </c>
       <c r="E76" s="31">
-        <v>5871</v>
+        <v>5014</v>
       </c>
       <c r="F76" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G76" s="31">
-        <v>5871</v>
+        <v>5014</v>
       </c>
       <c r="H76" s="31">
-        <v>5865</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D77" s="31">
-        <v>7536</v>
+        <v>5872</v>
       </c>
       <c r="E77" s="31">
-        <v>5268</v>
+        <v>8319</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G77" s="31">
-        <v>5268</v>
+        <v>8319</v>
       </c>
       <c r="H77" s="31">
-        <v>7536</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>338</v>
+        <v>28</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D78" s="31">
-        <v>7534</v>
+        <v>7452</v>
       </c>
       <c r="E78" s="31">
-        <v>6668</v>
+        <v>9283</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G78" s="31">
-        <v>6669</v>
+        <v>9283</v>
       </c>
       <c r="H78" s="31">
-        <v>5831</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>7452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D79" s="31">
-        <v>5338</v>
+        <v>7462</v>
       </c>
       <c r="E79" s="31">
-        <v>5339</v>
+        <v>5012</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G79" s="31">
-        <v>5340</v>
+        <v>5012</v>
       </c>
       <c r="H79" s="31">
-        <v>5341</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>7462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C80" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D80" s="31">
-        <v>7607</v>
+        <v>5865</v>
       </c>
       <c r="E80" s="31">
-        <v>7609</v>
+        <v>5871</v>
       </c>
       <c r="F80" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G80" s="31">
-        <v>7609</v>
+        <v>5871</v>
       </c>
       <c r="H80" s="31">
-        <v>7607</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>339</v>
+        <v>31</v>
       </c>
       <c r="C81" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D81" s="31">
-        <v>8111</v>
+        <v>7536</v>
       </c>
       <c r="E81" s="31">
-        <v>6542</v>
+        <v>5268</v>
       </c>
       <c r="F81" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G81" s="31">
-        <v>6544</v>
+        <v>5268</v>
       </c>
       <c r="H81" s="31">
-        <v>5202</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>7536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>34</v>
+        <v>338</v>
       </c>
       <c r="C82" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D82" s="31">
-        <v>5797</v>
+        <v>7534</v>
       </c>
       <c r="E82" s="31">
-        <v>5295</v>
+        <v>6668</v>
       </c>
       <c r="F82" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G82" s="31">
-        <v>5295</v>
+        <v>6669</v>
       </c>
       <c r="H82" s="31">
-        <v>5797</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>5831</v>
+      </c>
+      <c r="J82" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K82" s="31">
+        <v>5336</v>
+      </c>
+      <c r="L82" s="31">
+        <v>5337</v>
+      </c>
+      <c r="M82" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="N82" s="31">
+        <v>5334</v>
+      </c>
+      <c r="O82" s="31">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>340</v>
+        <v>32</v>
       </c>
       <c r="C83" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D83">
-        <v>5799</v>
-      </c>
-      <c r="E83">
-        <v>6511</v>
+      <c r="D83" s="31">
+        <v>5338</v>
+      </c>
+      <c r="E83" s="31">
+        <v>5339</v>
       </c>
       <c r="F83" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G83">
-        <v>6511</v>
-      </c>
-      <c r="H83">
-        <v>5798</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="31" t="s">
+      <c r="G83" s="31">
+        <v>5340</v>
+      </c>
+      <c r="H83" s="31">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="31" t="s">
-        <v>35</v>
+      <c r="B84" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="C84" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D84" s="31">
-        <v>5783</v>
+        <v>7607</v>
       </c>
       <c r="E84" s="31">
-        <v>5772</v>
+        <v>7609</v>
       </c>
       <c r="F84" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G84" s="31">
+        <v>7609</v>
+      </c>
+      <c r="H84" s="31">
+        <v>7607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="31">
+        <v>8111</v>
+      </c>
+      <c r="E85" s="31">
+        <v>6542</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="31">
+        <v>6544</v>
+      </c>
+      <c r="H85" s="31">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="31">
+        <v>5797</v>
+      </c>
+      <c r="E86" s="31">
+        <v>5295</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G86" s="31">
+        <v>5295</v>
+      </c>
+      <c r="H86" s="31">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87">
+        <v>5799</v>
+      </c>
+      <c r="E87">
+        <v>6511</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G87">
+        <v>6511</v>
+      </c>
+      <c r="H87">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" s="31">
+        <v>5783</v>
+      </c>
+      <c r="E88" s="31">
         <v>5772</v>
       </c>
-      <c r="H84" s="31">
+      <c r="F88" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G88" s="31">
+        <v>5772</v>
+      </c>
+      <c r="H88" s="31">
         <v>5783</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D85" s="31">
-        <v>5931</v>
-      </c>
-      <c r="E85" s="31">
-        <v>5932</v>
-      </c>
-      <c r="F85" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G85" s="31">
-        <v>7670</v>
-      </c>
-      <c r="H85" s="31">
-        <v>5923</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D86" s="31">
-        <v>5741</v>
-      </c>
-      <c r="E86" s="31">
-        <v>9466</v>
-      </c>
-      <c r="F86" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G86" s="31">
-        <v>9466</v>
-      </c>
-      <c r="H86" s="31">
-        <v>5741</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D87" s="31">
-        <v>8214</v>
-      </c>
-      <c r="E87" s="31">
-        <v>9466</v>
-      </c>
-      <c r="F87" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G87" s="31">
-        <v>9466</v>
-      </c>
-      <c r="H87" s="31">
-        <v>8217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D88" s="31">
-        <v>8253</v>
-      </c>
-      <c r="E88" s="31">
-        <v>5452</v>
-      </c>
-      <c r="F88" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G88" s="31">
-        <v>5452</v>
-      </c>
-      <c r="H88" s="31">
-        <v>8253</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C89" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D89" s="31">
-        <v>8250</v>
-      </c>
-      <c r="E89" s="31">
-        <v>8249</v>
-      </c>
-      <c r="F89" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G89" s="31">
-        <v>8249</v>
-      </c>
-      <c r="H89" s="31">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+    <row r="89" spans="1:15">
+      <c r="A89" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="C89" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" s="61">
+        <v>16895</v>
+      </c>
+      <c r="E89" s="61">
+        <v>8155</v>
+      </c>
+      <c r="F89" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G89" s="61">
+        <v>8166</v>
+      </c>
+      <c r="H89" s="61">
+        <v>7603</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C90" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D90" s="31">
-        <v>5443</v>
+        <v>5931</v>
       </c>
       <c r="E90" s="31">
-        <v>9618</v>
+        <v>5932</v>
       </c>
       <c r="F90" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G90" s="31">
-        <v>9618</v>
+        <v>7670</v>
       </c>
       <c r="H90" s="31">
-        <v>5443</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C91" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D91" s="31">
-        <v>5447</v>
+        <v>5741</v>
       </c>
       <c r="E91" s="31">
-        <v>5456</v>
+        <v>9466</v>
       </c>
       <c r="F91" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G91" s="31">
-        <v>5456</v>
+        <v>9466</v>
       </c>
       <c r="H91" s="31">
-        <v>5447</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C92" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D92" s="31">
-        <v>8228</v>
+        <v>8214</v>
       </c>
       <c r="E92" s="31">
-        <v>8226</v>
+        <v>9466</v>
       </c>
       <c r="F92" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G92" s="31">
-        <v>8227</v>
+        <v>9466</v>
       </c>
       <c r="H92" s="31">
-        <v>5445</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>8217</v>
+      </c>
+      <c r="J92" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C93" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D93" s="31">
-        <v>6085</v>
+        <v>8253</v>
       </c>
       <c r="E93" s="31">
-        <v>9758</v>
+        <v>5452</v>
       </c>
       <c r="F93" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G93" s="31">
-        <v>9758</v>
+        <v>5452</v>
       </c>
       <c r="H93" s="31">
-        <v>6085</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="C94" s="31" t="s">
+      <c r="B94" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="C94" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D94">
-        <v>6104</v>
-      </c>
-      <c r="E94">
-        <v>27340</v>
-      </c>
-      <c r="F94" s="31" t="s">
+      <c r="D94" s="62">
+        <v>8253</v>
+      </c>
+      <c r="E94" s="62">
+        <v>8262</v>
+      </c>
+      <c r="F94" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G94">
-        <v>27340</v>
-      </c>
-      <c r="H94">
-        <v>6104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="G94" s="62">
+        <v>8263</v>
+      </c>
+      <c r="H94" s="62">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C95" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D95" s="31">
-        <v>6096</v>
+        <v>8250</v>
       </c>
       <c r="E95" s="31">
-        <v>9804</v>
+        <v>8249</v>
       </c>
       <c r="F95" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G95" s="31">
-        <v>9804</v>
+        <v>8249</v>
       </c>
       <c r="H95" s="31">
-        <v>6096</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C96" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D96" s="31">
-        <v>6015</v>
+        <v>5443</v>
       </c>
       <c r="E96" s="31">
-        <v>9829</v>
+        <v>9618</v>
       </c>
       <c r="F96" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G96" s="31">
-        <v>9827</v>
+        <v>9618</v>
       </c>
       <c r="H96" s="31">
-        <v>6006</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C97" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D97" s="31">
-        <v>6180</v>
+        <v>5447</v>
       </c>
       <c r="E97" s="31">
-        <v>7697</v>
+        <v>5456</v>
       </c>
       <c r="F97" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G97" s="31">
-        <v>7697</v>
+        <v>5456</v>
       </c>
       <c r="H97" s="31">
-        <v>6180</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="C98" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D98" s="31">
-        <v>6175</v>
+        <v>8228</v>
       </c>
       <c r="E98" s="31">
-        <v>6174</v>
+        <v>8226</v>
       </c>
       <c r="F98" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G98" s="31">
-        <v>6174</v>
+        <v>8227</v>
       </c>
       <c r="H98" s="31">
-        <v>6175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C99" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D99" s="31">
-        <v>6146</v>
+        <v>6085</v>
       </c>
       <c r="E99" s="31">
-        <v>16133</v>
+        <v>9758</v>
       </c>
       <c r="F99" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G99" s="31">
-        <v>16133</v>
+        <v>9758</v>
       </c>
       <c r="H99" s="31">
-        <v>6146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="31" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C100" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D100" s="31">
-        <v>5205</v>
-      </c>
-      <c r="E100" s="31">
-        <v>9837</v>
+      <c r="D100">
+        <v>6104</v>
+      </c>
+      <c r="E100">
+        <v>27340</v>
       </c>
       <c r="F100" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G100" s="31">
-        <v>9837</v>
-      </c>
-      <c r="H100" s="31">
-        <v>5205</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="G100">
+        <v>27340</v>
+      </c>
+      <c r="H100">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="31" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C101" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D101" s="31">
-        <v>5208</v>
+        <v>6096</v>
       </c>
       <c r="E101" s="31">
-        <v>10308</v>
+        <v>9804</v>
       </c>
       <c r="F101" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G101" s="31">
-        <v>10306</v>
+        <v>9804</v>
       </c>
       <c r="H101" s="31">
-        <v>5220</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="C102" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="61" t="s">
+        <v>357</v>
+      </c>
+      <c r="C102" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D102" s="31">
-        <v>5673</v>
-      </c>
-      <c r="E102" s="31">
-        <v>9603</v>
-      </c>
-      <c r="F102" s="31" t="s">
+      <c r="D102" s="62">
+        <v>6009</v>
+      </c>
+      <c r="E102" s="62">
+        <v>9832</v>
+      </c>
+      <c r="F102" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G102" s="31">
-        <v>9606</v>
-      </c>
-      <c r="H102" s="31">
-        <v>5672</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="G102" s="62">
+        <v>9835</v>
+      </c>
+      <c r="H102" s="62">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="31" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C103" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D103" s="31">
-        <v>5117</v>
+        <v>6015</v>
       </c>
       <c r="E103" s="31">
-        <v>5133</v>
+        <v>9829</v>
       </c>
       <c r="F103" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G103" s="31">
-        <v>5133</v>
+        <v>9827</v>
       </c>
       <c r="H103" s="31">
-        <v>5117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="31" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C104" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D104" s="31">
-        <v>9392</v>
+        <v>6180</v>
       </c>
       <c r="E104" s="31">
-        <v>9490</v>
+        <v>7697</v>
       </c>
       <c r="F104" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G104" s="31">
-        <v>9490</v>
+        <v>7697</v>
       </c>
       <c r="H104" s="31">
-        <v>9392</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>6180</v>
+      </c>
+      <c r="J104" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="K104" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="L104" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="M104" s="62">
+        <v>6001</v>
+      </c>
+      <c r="N104" s="62">
+        <v>7699</v>
+      </c>
+      <c r="O104" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="P104" s="62">
+        <v>7699</v>
+      </c>
+      <c r="Q104" s="62">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="31" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="C105" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D105" s="31">
-        <v>9394</v>
+        <v>6175</v>
       </c>
       <c r="E105" s="31">
-        <v>10270</v>
+        <v>6174</v>
       </c>
       <c r="F105" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G105" s="31">
-        <v>10269</v>
+        <v>6174</v>
       </c>
       <c r="H105" s="31">
-        <v>9394</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" s="31" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C106" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D106" s="31">
-        <v>9402</v>
+        <v>6146</v>
       </c>
       <c r="E106" s="31">
-        <v>16976</v>
+        <v>16133</v>
       </c>
       <c r="F106" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G106" s="57">
-        <v>16976</v>
-      </c>
-      <c r="H106" s="57">
-        <v>9402</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="G106" s="31">
+        <v>16133</v>
+      </c>
+      <c r="H106" s="31">
+        <v>6146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" s="31" t="s">
         <v>77</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>345</v>
+        <v>237</v>
       </c>
       <c r="C107" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D107" s="31">
-        <v>9402</v>
+        <v>5205</v>
       </c>
       <c r="E107" s="31">
-        <v>10274</v>
+        <v>9837</v>
       </c>
       <c r="F107" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G107" s="31">
-        <v>10273</v>
+        <v>9837</v>
       </c>
       <c r="H107" s="31">
-        <v>9402</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" s="31" t="s">
         <v>77</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C108" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D108" s="31">
-        <v>27466</v>
+        <v>5208</v>
       </c>
       <c r="E108" s="31">
-        <v>5363</v>
+        <v>10308</v>
       </c>
       <c r="F108" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G108" s="57">
-        <v>5363</v>
-      </c>
-      <c r="H108" s="57">
-        <v>27466</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="G108" s="31">
+        <v>10306</v>
+      </c>
+      <c r="H108" s="31">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>249</v>
+        <v>342</v>
       </c>
       <c r="C109" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D109" s="31">
-        <v>16672</v>
+        <v>5673</v>
       </c>
       <c r="E109" s="31">
-        <v>16671</v>
+        <v>9603</v>
       </c>
       <c r="F109" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G109" s="57">
-        <v>16669</v>
-      </c>
-      <c r="H109" s="57">
-        <v>16670</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="G109" s="31">
+        <v>9606</v>
+      </c>
+      <c r="H109" s="31">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C110" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D110" s="57">
-        <v>5867</v>
-      </c>
-      <c r="E110" s="57">
-        <v>16235</v>
-      </c>
-      <c r="F110" s="57" t="s">
+      <c r="D110" s="31">
+        <v>5117</v>
+      </c>
+      <c r="E110" s="31">
+        <v>5133</v>
+      </c>
+      <c r="F110" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G110" s="57">
-        <v>16235</v>
-      </c>
-      <c r="H110" s="57">
-        <v>5867</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="G110" s="31">
+        <v>5133</v>
+      </c>
+      <c r="H110" s="31">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C111" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D111" s="57">
-        <v>27336</v>
-      </c>
-      <c r="E111" s="57">
-        <v>5523</v>
-      </c>
-      <c r="F111" s="57" t="s">
+      <c r="D111" s="31">
+        <v>9392</v>
+      </c>
+      <c r="E111" s="31">
+        <v>9490</v>
+      </c>
+      <c r="F111" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G111" s="57">
-        <v>5523</v>
-      </c>
-      <c r="H111" s="57">
-        <v>27336</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="G111" s="31">
+        <v>9490</v>
+      </c>
+      <c r="H111" s="31">
+        <v>9392</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>255</v>
+        <v>343</v>
       </c>
       <c r="C112" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D112" s="31">
-        <v>5564</v>
+        <v>9394</v>
       </c>
       <c r="E112" s="31">
-        <v>10509</v>
+        <v>10270</v>
       </c>
       <c r="F112" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G112" s="31">
-        <v>10509</v>
+        <v>10269</v>
       </c>
       <c r="H112" s="31">
-        <v>5564</v>
+        <v>9394</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C113" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D113" s="31">
-        <v>5496</v>
+        <v>9402</v>
       </c>
       <c r="E113" s="31">
-        <v>27349</v>
+        <v>16976</v>
       </c>
       <c r="F113" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G113" s="57">
-        <v>27349</v>
-      </c>
-      <c r="H113" s="57">
-        <v>5496</v>
+      <c r="G113" s="37">
+        <v>16976</v>
+      </c>
+      <c r="H113" s="37">
+        <v>9402</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="C114" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D114" s="31">
-        <v>16245</v>
+        <v>9402</v>
       </c>
       <c r="E114" s="31">
-        <v>5626</v>
+        <v>10274</v>
       </c>
       <c r="F114" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G114" s="31">
-        <v>5626</v>
+        <v>10273</v>
       </c>
       <c r="H114" s="31">
-        <v>16245</v>
+        <v>9402</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C115" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D115" s="31">
-        <v>9480</v>
+        <v>27466</v>
       </c>
       <c r="E115" s="31">
-        <v>9481</v>
+        <v>5363</v>
       </c>
       <c r="F115" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G115" s="31">
-        <v>9400</v>
-      </c>
-      <c r="H115" s="31">
-        <v>9482</v>
+      <c r="G115" s="37">
+        <v>5363</v>
+      </c>
+      <c r="H115" s="37">
+        <v>27466</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C116" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D116" s="31">
-        <v>9388</v>
+        <v>16672</v>
       </c>
       <c r="E116" s="31">
-        <v>10090</v>
+        <v>16671</v>
       </c>
       <c r="F116" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G116" s="31">
-        <v>10090</v>
-      </c>
-      <c r="H116" s="31">
-        <v>9388</v>
+      <c r="G116" s="37">
+        <v>16669</v>
+      </c>
+      <c r="H116" s="37">
+        <v>16670</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C117" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D117" s="31">
-        <v>9566</v>
-      </c>
-      <c r="E117" s="31">
-        <v>13763</v>
-      </c>
-      <c r="F117" s="31" t="s">
+      <c r="D117" s="37">
+        <v>5867</v>
+      </c>
+      <c r="E117" s="37">
+        <v>16235</v>
+      </c>
+      <c r="F117" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="31">
-        <v>13763</v>
-      </c>
-      <c r="H117" s="31">
-        <v>9566</v>
+      <c r="G117" s="37">
+        <v>16235</v>
+      </c>
+      <c r="H117" s="37">
+        <v>5867</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C118" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D118" s="31">
-        <v>9526</v>
-      </c>
-      <c r="E118" s="31">
-        <v>9569</v>
-      </c>
-      <c r="F118" s="31" t="s">
+      <c r="D118" s="37">
+        <v>27336</v>
+      </c>
+      <c r="E118" s="37">
+        <v>5523</v>
+      </c>
+      <c r="F118" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="G118" s="31">
-        <v>9569</v>
-      </c>
-      <c r="H118" s="31">
-        <v>9526</v>
+      <c r="G118" s="37">
+        <v>5523</v>
+      </c>
+      <c r="H118" s="37">
+        <v>27336</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C119" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D119" s="31">
-        <v>9532</v>
+        <v>5564</v>
       </c>
       <c r="E119" s="31">
-        <v>10095</v>
+        <v>10509</v>
       </c>
       <c r="F119" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G119" s="31">
-        <v>10095</v>
+        <v>10509</v>
       </c>
       <c r="H119" s="31">
-        <v>9532</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C120" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D120" s="31">
-        <v>10499</v>
+        <v>5496</v>
       </c>
       <c r="E120" s="31">
-        <v>10491</v>
+        <v>27349</v>
       </c>
       <c r="F120" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G120" s="31">
-        <v>10491</v>
-      </c>
-      <c r="H120" s="31">
-        <v>10499</v>
+      <c r="G120" s="37">
+        <v>27349</v>
+      </c>
+      <c r="H120" s="37">
+        <v>5496</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C121" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D121" s="31">
-        <v>16163</v>
+        <v>16245</v>
       </c>
       <c r="E121" s="31">
-        <v>5215</v>
+        <v>5626</v>
       </c>
       <c r="F121" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G121" s="31">
-        <v>5215</v>
+        <v>5626</v>
       </c>
       <c r="H121" s="31">
-        <v>16163</v>
+        <v>16245</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5155,25 +5292,25 @@
         <v>79</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C122" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D122" s="31">
-        <v>9431</v>
+        <v>9480</v>
       </c>
       <c r="E122" s="31">
-        <v>9469</v>
+        <v>9481</v>
       </c>
       <c r="F122" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G122" s="31">
-        <v>9469</v>
+        <v>9400</v>
       </c>
       <c r="H122" s="31">
-        <v>9431</v>
+        <v>9482</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5181,284 +5318,466 @@
         <v>79</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C123" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D123" s="31">
-        <v>5950</v>
+        <v>9388</v>
       </c>
       <c r="E123" s="31">
-        <v>7639</v>
+        <v>10090</v>
       </c>
       <c r="F123" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G123" s="31">
-        <v>7639</v>
+        <v>10090</v>
       </c>
       <c r="H123" s="31">
-        <v>5950</v>
+        <v>9388</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D124" s="31">
-        <v>9816</v>
+        <v>9566</v>
       </c>
       <c r="E124" s="31">
-        <v>9815</v>
+        <v>13763</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G124" s="31">
-        <v>9815</v>
+        <v>13763</v>
       </c>
       <c r="H124" s="31">
-        <v>9816</v>
+        <v>9566</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D125" s="31">
-        <v>10290</v>
+        <v>9526</v>
       </c>
       <c r="E125" s="31">
-        <v>9815</v>
+        <v>9569</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G125" s="31">
-        <v>9815</v>
+        <v>9569</v>
       </c>
       <c r="H125" s="31">
-        <v>10289</v>
+        <v>9526</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D126" s="31">
-        <v>5951</v>
+        <v>9532</v>
       </c>
       <c r="E126" s="31">
-        <v>5896</v>
+        <v>10095</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G126" s="31">
-        <v>5896</v>
+        <v>10095</v>
       </c>
       <c r="H126" s="31">
-        <v>5951</v>
+        <v>9532</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D127" s="31">
-        <v>27733</v>
+        <v>10499</v>
       </c>
       <c r="E127" s="31">
-        <v>16381</v>
+        <v>10491</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G127" s="57">
-        <v>27722</v>
-      </c>
-      <c r="H127" s="57">
-        <v>27723</v>
+        <v>57</v>
+      </c>
+      <c r="G127" s="31">
+        <v>10491</v>
+      </c>
+      <c r="H127" s="31">
+        <v>10499</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D128" s="31">
-        <v>9682</v>
+        <v>16163</v>
       </c>
       <c r="E128" s="31">
-        <v>5228</v>
+        <v>5215</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G128" s="31">
-        <v>5229</v>
+        <v>5215</v>
       </c>
       <c r="H128" s="31">
-        <v>9679</v>
+        <v>16163</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D129" s="31">
-        <v>9463</v>
+        <v>9431</v>
       </c>
       <c r="E129" s="31">
-        <v>9456</v>
+        <v>9469</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G129" s="57">
-        <v>9456</v>
-      </c>
-      <c r="H129" s="57">
-        <v>9463</v>
+        <v>57</v>
+      </c>
+      <c r="G129" s="31">
+        <v>9469</v>
+      </c>
+      <c r="H129" s="31">
+        <v>9431</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D130" s="31">
-        <v>9602</v>
+        <v>5950</v>
       </c>
       <c r="E130" s="31">
-        <v>9513</v>
+        <v>7639</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G130" s="31">
-        <v>9531</v>
+        <v>7639</v>
       </c>
       <c r="H130" s="31">
-        <v>9601</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C131" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D131" s="31">
-        <v>9603</v>
+        <v>9816</v>
       </c>
       <c r="E131" s="31">
-        <v>9608</v>
+        <v>9815</v>
       </c>
       <c r="F131" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G131" s="31">
-        <v>9607</v>
+        <v>9815</v>
       </c>
       <c r="H131" s="31">
-        <v>9606</v>
+        <v>9816</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="C132" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D132" s="31">
-        <v>9533</v>
+        <v>10290</v>
       </c>
       <c r="E132" s="31">
-        <v>13788</v>
+        <v>9815</v>
       </c>
       <c r="F132" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G132" s="31">
-        <v>13788</v>
+        <v>9815</v>
       </c>
       <c r="H132" s="31">
-        <v>9533</v>
+        <v>10289</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C133" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D133" s="31">
-        <v>9610</v>
+        <v>5951</v>
       </c>
       <c r="E133" s="31">
-        <v>9694</v>
+        <v>5896</v>
       </c>
       <c r="F133" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G133" s="31">
+        <v>5896</v>
+      </c>
+      <c r="H133" s="31">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D134" s="31">
+        <v>27733</v>
+      </c>
+      <c r="E134" s="31">
+        <v>16381</v>
+      </c>
+      <c r="F134" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G134" s="37">
+        <v>27722</v>
+      </c>
+      <c r="H134" s="37">
+        <v>27723</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B135" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D135" s="31">
+        <v>9682</v>
+      </c>
+      <c r="E135" s="31">
+        <v>5228</v>
+      </c>
+      <c r="F135" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G135" s="31">
+        <v>5229</v>
+      </c>
+      <c r="H135" s="31">
+        <v>9679</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B136" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D136" s="31">
+        <v>9463</v>
+      </c>
+      <c r="E136" s="31">
+        <v>9456</v>
+      </c>
+      <c r="F136" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G136" s="37">
+        <v>9456</v>
+      </c>
+      <c r="H136" s="37">
+        <v>9463</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="C137" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D137" s="31">
+        <v>9602</v>
+      </c>
+      <c r="E137" s="31">
+        <v>9513</v>
+      </c>
+      <c r="F137" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G137" s="31">
+        <v>9531</v>
+      </c>
+      <c r="H137" s="31">
+        <v>9601</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" s="31">
+        <v>9603</v>
+      </c>
+      <c r="E138" s="31">
+        <v>9608</v>
+      </c>
+      <c r="F138" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G138" s="31">
+        <v>9607</v>
+      </c>
+      <c r="H138" s="31">
+        <v>9606</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C139" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" s="31">
+        <v>9533</v>
+      </c>
+      <c r="E139" s="31">
+        <v>13788</v>
+      </c>
+      <c r="F139" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G139" s="31">
+        <v>13788</v>
+      </c>
+      <c r="H139" s="31">
+        <v>9533</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C140" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D140" s="31">
+        <v>9610</v>
+      </c>
+      <c r="E140" s="31">
         <v>9694</v>
       </c>
-      <c r="H133" s="31">
+      <c r="F140" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G140" s="31">
+        <v>9694</v>
+      </c>
+      <c r="H140" s="31">
         <v>9610</v>
       </c>
     </row>
@@ -5474,17 +5793,17 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.8">
+    <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5504,7 +5823,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.8">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
@@ -5524,7 +5843,7 @@
         <v>42261.995000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.8">
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>73</v>
       </c>
@@ -5544,7 +5863,7 @@
         <v>37853.305</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.8">
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>74</v>
       </c>
@@ -5564,7 +5883,7 @@
         <v>4679.07</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.8">
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>75</v>
       </c>
@@ -5584,7 +5903,7 @@
         <v>23681.424999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>76</v>
       </c>
@@ -5604,7 +5923,7 @@
         <v>14479.73</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -5624,7 +5943,7 @@
         <v>3371.0150000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
@@ -5644,7 +5963,7 @@
         <v>25851.360000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
@@ -5664,7 +5983,7 @@
         <v>37153.885000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>77</v>
       </c>
@@ -5684,7 +6003,7 @@
         <v>18439.849999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.8">
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
@@ -5704,7 +6023,7 @@
         <v>20743.954999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.8">
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>79</v>
       </c>
@@ -5724,7 +6043,7 @@
         <v>20949.785</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.8">
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>80</v>
       </c>
@@ -5744,7 +6063,7 @@
         <v>15222.730000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.8">
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>81</v>
       </c>
@@ -5791,17 +6110,17 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.8">
+    <row r="1" spans="1:20">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5820,20 +6139,20 @@
       <c r="F1" t="s">
         <v>321</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-    </row>
-    <row r="2" spans="1:20" ht="16.8">
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
@@ -5852,8 +6171,8 @@
       <c r="F2">
         <v>31700.909999999996</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
@@ -5865,7 +6184,7 @@
       <c r="S2" s="30"/>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" spans="1:20" ht="16.8">
+    <row r="3" spans="1:20">
       <c r="A3" s="8" t="s">
         <v>73</v>
       </c>
@@ -5884,7 +6203,7 @@
       <c r="F3">
         <v>33067.789999999994</v>
       </c>
-      <c r="I3" s="37"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="13"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -5897,7 +6216,7 @@
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
     </row>
-    <row r="4" spans="1:20" ht="16.8">
+    <row r="4" spans="1:20">
       <c r="A4" s="8" t="s">
         <v>74</v>
       </c>
@@ -5916,7 +6235,7 @@
       <c r="F4">
         <v>4411.42</v>
       </c>
-      <c r="I4" s="37"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="13"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -5929,7 +6248,7 @@
       <c r="S4" s="19"/>
       <c r="T4" s="19"/>
     </row>
-    <row r="5" spans="1:20" ht="16.8">
+    <row r="5" spans="1:20">
       <c r="A5" s="8" t="s">
         <v>75</v>
       </c>
@@ -5948,7 +6267,7 @@
       <c r="F5">
         <v>33585.645000000004</v>
       </c>
-      <c r="I5" s="37"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="13"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
@@ -5961,7 +6280,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
     </row>
-    <row r="6" spans="1:20" ht="16.8">
+    <row r="6" spans="1:20">
       <c r="A6" s="8" t="s">
         <v>76</v>
       </c>
@@ -5980,7 +6299,7 @@
       <c r="F6">
         <v>9174.02</v>
       </c>
-      <c r="I6" s="37"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="13"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
@@ -5993,7 +6312,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
     </row>
-    <row r="7" spans="1:20" ht="16.8">
+    <row r="7" spans="1:20">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -6012,7 +6331,7 @@
       <c r="F7">
         <v>6022.2249999999995</v>
       </c>
-      <c r="I7" s="37"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="13"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -6025,7 +6344,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20" ht="16.8">
+    <row r="8" spans="1:20">
       <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
@@ -6044,7 +6363,7 @@
       <c r="F8">
         <v>33242.775000000001</v>
       </c>
-      <c r="I8" s="37"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="13"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
@@ -6057,7 +6376,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20" ht="16.8">
+    <row r="9" spans="1:20">
       <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
@@ -6076,7 +6395,7 @@
       <c r="F9">
         <v>25381.729999999996</v>
       </c>
-      <c r="I9" s="37"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="13"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -6089,7 +6408,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:20" ht="16.8">
+    <row r="10" spans="1:20">
       <c r="A10" s="8" t="s">
         <v>77</v>
       </c>
@@ -6108,7 +6427,7 @@
       <c r="F10">
         <v>19867.66</v>
       </c>
-      <c r="I10" s="37"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="13"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
@@ -6121,7 +6440,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:20" ht="16.8">
+    <row r="11" spans="1:20">
       <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
@@ -6140,7 +6459,7 @@
       <c r="F11">
         <v>18677.57</v>
       </c>
-      <c r="I11" s="37"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="13"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
@@ -6153,7 +6472,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:20" ht="16.8">
+    <row r="12" spans="1:20">
       <c r="A12" s="8" t="s">
         <v>79</v>
       </c>
@@ -6172,7 +6491,7 @@
       <c r="F12">
         <v>18128.565000000002</v>
       </c>
-      <c r="I12" s="37"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="13"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -6185,7 +6504,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:20" ht="16.8">
+    <row r="13" spans="1:20">
       <c r="A13" s="8" t="s">
         <v>80</v>
       </c>
@@ -6204,7 +6523,7 @@
       <c r="F13">
         <v>11400.324999999999</v>
       </c>
-      <c r="I13" s="37"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="13"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -6217,7 +6536,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:20" ht="16.8">
+    <row r="14" spans="1:20">
       <c r="A14" s="8" t="s">
         <v>81</v>
       </c>
@@ -6236,7 +6555,7 @@
       <c r="F14">
         <v>11086.87</v>
       </c>
-      <c r="I14" s="37"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="13"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
@@ -6250,7 +6569,7 @@
       <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="I15" s="37"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="13"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
@@ -6264,7 +6583,7 @@
       <c r="T15" s="19"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="I16" s="37"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="13"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -6278,7 +6597,7 @@
       <c r="T16" s="19"/>
     </row>
     <row r="17" spans="9:20">
-      <c r="I17" s="37"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="13"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -6292,7 +6611,7 @@
       <c r="T17" s="19"/>
     </row>
     <row r="18" spans="9:20">
-      <c r="I18" s="37"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="13"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
@@ -6306,7 +6625,7 @@
       <c r="T18" s="19"/>
     </row>
     <row r="19" spans="9:20">
-      <c r="I19" s="37"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="13"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -6320,7 +6639,7 @@
       <c r="T19" s="19"/>
     </row>
     <row r="20" spans="9:20">
-      <c r="I20" s="37"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="13"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -6334,7 +6653,7 @@
       <c r="T20" s="19"/>
     </row>
     <row r="21" spans="9:20">
-      <c r="I21" s="37"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="13"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -6348,7 +6667,7 @@
       <c r="T21" s="19"/>
     </row>
     <row r="22" spans="9:20">
-      <c r="I22" s="37"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="13"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -6362,7 +6681,7 @@
       <c r="T22" s="19"/>
     </row>
     <row r="23" spans="9:20">
-      <c r="I23" s="37"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="13"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -6376,7 +6695,7 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="9:20">
-      <c r="I24" s="37"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="13"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -6390,7 +6709,7 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="9:20">
-      <c r="I25" s="37"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="13"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
@@ -6404,7 +6723,7 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="9:20">
-      <c r="I26" s="37"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="13"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -6418,7 +6737,7 @@
       <c r="T26" s="19"/>
     </row>
     <row r="27" spans="9:20">
-      <c r="I27" s="37"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="13"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
@@ -6432,7 +6751,7 @@
       <c r="T27" s="19"/>
     </row>
     <row r="28" spans="9:20">
-      <c r="I28" s="37"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="13"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
@@ -6475,47 +6794,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9320DA-452C-4767-B135-0406F64965CB}">
   <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView topLeftCell="F54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" style="13" customWidth="1"/>
-    <col min="3" max="4" width="9.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="13" customWidth="1"/>
-    <col min="7" max="10" width="9.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="13" customWidth="1"/>
+    <col min="3" max="4" width="9.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="13" customWidth="1"/>
+    <col min="7" max="10" width="9.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="13"/>
-    <col min="14" max="14" width="11.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.44140625" style="27" customWidth="1"/>
-    <col min="16" max="17" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5" style="27" customWidth="1"/>
+    <col min="16" max="17" width="9.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="6.625" style="13" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
       <c r="N1" s="14" t="s">
         <v>85</v>
       </c>
@@ -6524,26 +6843,26 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="54" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
       <c r="N2" s="1" t="s">
         <v>88</v>
       </c>
@@ -6552,8 +6871,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
@@ -6592,7 +6911,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -6638,7 +6957,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="15" t="s">
         <v>55</v>
       </c>
@@ -6682,7 +7001,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -6728,7 +7047,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
@@ -6772,7 +7091,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -6818,7 +7137,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
@@ -6862,7 +7181,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="42" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -6908,7 +7227,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="15" t="s">
         <v>61</v>
       </c>
@@ -6952,7 +7271,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -6998,7 +7317,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="15" t="s">
         <v>61</v>
       </c>
@@ -7042,7 +7361,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -7088,7 +7407,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -7132,7 +7451,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -7178,7 +7497,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="15" t="s">
         <v>61</v>
       </c>
@@ -7222,7 +7541,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -7268,7 +7587,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="15" t="s">
         <v>66</v>
       </c>
@@ -7312,7 +7631,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -7358,7 +7677,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="15" t="s">
         <v>66</v>
       </c>
@@ -7402,7 +7721,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -7448,7 +7767,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="15" t="s">
         <v>66</v>
       </c>
@@ -7492,7 +7811,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -7538,7 +7857,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="15" t="s">
         <v>66</v>
       </c>
@@ -7582,7 +7901,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="42" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -7628,7 +7947,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="41"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="15" t="s">
         <v>61</v>
       </c>
@@ -7672,7 +7991,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="42" t="s">
         <v>71</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -7718,7 +8037,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="42"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="21" t="s">
         <v>61</v>
       </c>
@@ -7772,18 +8091,18 @@
     <row r="31" spans="1:15">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
       <c r="N31" s="1" t="s">
         <v>135</v>
       </c>
@@ -7792,26 +8111,26 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="49" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
       <c r="N32" s="1" t="s">
         <v>137</v>
       </c>
@@ -7820,8 +8139,8 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="46"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="3" t="s">
         <v>49</v>
       </c>
@@ -7860,7 +8179,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -7906,7 +8225,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="41"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="15" t="s">
         <v>55</v>
       </c>
@@ -7950,7 +8269,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -7996,7 +8315,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="41"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="15" t="s">
         <v>18</v>
       </c>
@@ -8040,7 +8359,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="42" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -8086,7 +8405,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="41"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="15" t="s">
         <v>18</v>
       </c>
@@ -8130,7 +8449,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="42" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -8176,7 +8495,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="41"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="15" t="s">
         <v>61</v>
       </c>
@@ -8220,7 +8539,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="42" t="s">
         <v>62</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -8266,7 +8585,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="41"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="15" t="s">
         <v>61</v>
       </c>
@@ -8310,7 +8629,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="42" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -8356,7 +8675,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="41"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="15" t="s">
         <v>18</v>
       </c>
@@ -8400,7 +8719,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>64</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -8446,7 +8765,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="41"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="15" t="s">
         <v>61</v>
       </c>
@@ -8490,7 +8809,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="42" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -8536,7 +8855,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="41"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="15" t="s">
         <v>66</v>
       </c>
@@ -8580,7 +8899,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="42" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -8626,7 +8945,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="41"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="15" t="s">
         <v>66</v>
       </c>
@@ -8670,7 +8989,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="15" t="s">
@@ -8716,7 +9035,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="41"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="15" t="s">
         <v>66</v>
       </c>
@@ -8760,7 +9079,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -8806,7 +9125,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="41"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="15" t="s">
         <v>66</v>
       </c>
@@ -8850,7 +9169,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="42" t="s">
         <v>70</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -8896,7 +9215,7 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="41"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="15" t="s">
         <v>61</v>
       </c>
@@ -8940,7 +9259,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="42" t="s">
         <v>71</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -8986,7 +9305,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="42"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="21" t="s">
         <v>61</v>
       </c>
@@ -9854,10 +10173,10 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11:V24"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">

--- a/ta/指派結果/TRTS-4S屏柵線.xlsx
+++ b/ta/指派結果/TRTS-4S屏柵線.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\指派結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2287D-CEEF-413A-B36D-C09F3461449A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BDE360-85B6-4C7C-856B-19F7543B4818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
   </bookViews>
   <sheets>
     <sheet name="節點編號" sheetId="1" r:id="rId1"/>
-    <sheet name="晨峰實際流量" sheetId="6" r:id="rId2"/>
-    <sheet name="昏峰實際流量" sheetId="3" r:id="rId3"/>
+    <sheet name="昏峰實際流量" sheetId="3" r:id="rId2"/>
+    <sheet name="晨峰實際流量" sheetId="6" r:id="rId3"/>
     <sheet name="屏柵線觀察" sheetId="4" r:id="rId4"/>
     <sheet name="工作表1" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="362">
   <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1206,11 +1206,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>景文街_景美橋</t>
+    <t>OLD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OLD</t>
+    <t>進市中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汐五高架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國一平面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,7 +1229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1344,6 +1352,46 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFEE0000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1586,7 +1634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1699,6 +1747,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1758,19 +1833,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2112,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B91B70-CCE3-4F38-82D1-372C96A2E9C6}">
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2159,23 +2221,23 @@
       <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="42">
+        <v>8133</v>
+      </c>
+      <c r="E2" s="42">
+        <v>27277</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="42">
         <v>27278</v>
       </c>
-      <c r="E2" s="31">
+      <c r="H2" s="42">
         <v>8131</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="G2" s="31">
-        <v>8133</v>
-      </c>
-      <c r="H2" s="31">
-        <v>27277</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2185,23 +2247,23 @@
       <c r="B3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="42">
+        <v>6666</v>
+      </c>
+      <c r="E3" s="42">
+        <v>8115</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3" s="42">
         <v>6637</v>
       </c>
-      <c r="E3" s="31">
+      <c r="H3" s="42">
         <v>6666</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="G3" s="31">
-        <v>6666</v>
-      </c>
-      <c r="H3" s="31">
-        <v>8115</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2211,23 +2273,23 @@
       <c r="B4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="42">
+        <v>8292</v>
+      </c>
+      <c r="E4" s="42">
+        <v>10246</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="42">
         <v>10247</v>
       </c>
-      <c r="E4" s="31">
+      <c r="H4" s="42">
         <v>8292</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="G4" s="31">
-        <v>8292</v>
-      </c>
-      <c r="H4" s="31">
-        <v>10246</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2237,22 +2299,22 @@
       <c r="B5" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="37">
         <v>8292</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="37">
         <v>10245</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="37">
         <v>10248</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="37">
         <v>8292</v>
       </c>
     </row>
@@ -2263,16 +2325,16 @@
       <c r="B6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="31">
+      <c r="C6" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="D6" s="37">
         <v>6680</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="37">
         <v>6676</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="37" t="s">
         <v>323</v>
       </c>
       <c r="G6" s="37">
@@ -3277,19 +3339,19 @@
       <c r="F45" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G45" s="61">
+      <c r="G45" s="39">
         <v>8096</v>
       </c>
-      <c r="H45" s="61">
+      <c r="H45" s="39">
         <v>8522</v>
       </c>
-      <c r="J45" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="K45" s="31">
+      <c r="J45" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="K45" s="46">
         <v>8522</v>
       </c>
-      <c r="L45" s="31">
+      <c r="L45" s="46">
         <v>9156</v>
       </c>
     </row>
@@ -3769,7 +3831,7 @@
         <v>8477</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:15">
       <c r="A65" s="32" t="s">
         <v>75</v>
       </c>
@@ -3789,7 +3851,7 @@
       <c r="G65" s="34"/>
       <c r="H65" s="34"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:15">
       <c r="A66" s="32" t="s">
         <v>75</v>
       </c>
@@ -3809,7 +3871,7 @@
       <c r="G66" s="34"/>
       <c r="H66" s="34"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:15">
       <c r="A67" s="32" t="s">
         <v>75</v>
       </c>
@@ -3828,17 +3890,17 @@
       <c r="F67" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G67" s="58">
+      <c r="G67" s="31">
         <v>7807</v>
       </c>
-      <c r="H67" s="58">
+      <c r="H67" s="31">
         <v>10203</v>
       </c>
-      <c r="I67" s="59"/>
+      <c r="I67" s="35"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:15">
       <c r="A68" s="32" t="s">
         <v>75</v>
       </c>
@@ -3864,7 +3926,7 @@
         <v>9907</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:15">
       <c r="A69" s="32" t="s">
         <v>75</v>
       </c>
@@ -3890,7 +3952,7 @@
         <v>6018</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:15">
       <c r="A70" s="32" t="s">
         <v>76</v>
       </c>
@@ -3916,7 +3978,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:15">
       <c r="A71" s="32" t="s">
         <v>76</v>
       </c>
@@ -3942,7 +4004,7 @@
         <v>7040</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:15">
       <c r="A72" s="32" t="s">
         <v>76</v>
       </c>
@@ -3968,7 +4030,7 @@
         <v>7025</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:15">
       <c r="A73" s="32" t="s">
         <v>76</v>
       </c>
@@ -3994,7 +4056,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:15">
       <c r="A74" s="32" t="s">
         <v>76</v>
       </c>
@@ -4020,7 +4082,7 @@
         <v>7105</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:15">
       <c r="A75" s="32" t="s">
         <v>76</v>
       </c>
@@ -4046,7 +4108,7 @@
         <v>16695</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:15">
       <c r="A76" s="32" t="s">
         <v>76</v>
       </c>
@@ -4071,34 +4133,47 @@
       <c r="H76" s="31">
         <v>5918</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="J76" s="43"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B77" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D77" s="31">
+      <c r="D77" s="37">
         <v>5872</v>
       </c>
-      <c r="E77" s="31">
+      <c r="E77" s="37">
         <v>8319</v>
       </c>
-      <c r="F77" s="31" t="s">
+      <c r="F77" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="31">
+      <c r="G77" s="37">
         <v>8319</v>
       </c>
-      <c r="H77" s="31">
+      <c r="H77" s="37">
         <v>5872</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="32" t="s">
         <v>36</v>
       </c>
@@ -4124,7 +4199,7 @@
         <v>7452</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:15">
       <c r="A79" s="32" t="s">
         <v>36</v>
       </c>
@@ -4150,7 +4225,7 @@
         <v>7462</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:15">
       <c r="A80" s="32" t="s">
         <v>38</v>
       </c>
@@ -4176,7 +4251,7 @@
         <v>5865</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:16">
       <c r="A81" s="32" t="s">
         <v>38</v>
       </c>
@@ -4202,7 +4277,7 @@
         <v>7536</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:16">
       <c r="A82" s="32" t="s">
         <v>38</v>
       </c>
@@ -4227,52 +4302,76 @@
       <c r="H82" s="31">
         <v>5831</v>
       </c>
-      <c r="J82" s="31" t="s">
+      <c r="J82" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="K82" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="K82" s="31">
-        <v>5336</v>
-      </c>
-      <c r="L82" s="31">
-        <v>5337</v>
-      </c>
-      <c r="M82" s="31" t="s">
+      <c r="L82" s="44">
+        <v>5338</v>
+      </c>
+      <c r="M82" s="44">
+        <v>5339</v>
+      </c>
+      <c r="N82" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="N82" s="31">
-        <v>5334</v>
-      </c>
-      <c r="O82" s="31">
-        <v>5335</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="O82" s="44">
+        <v>5340</v>
+      </c>
+      <c r="P82" s="44">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B83" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D83" s="31">
-        <v>5338</v>
-      </c>
-      <c r="E83" s="31">
-        <v>5339</v>
-      </c>
-      <c r="F83" s="31" t="s">
+      <c r="D83" s="44">
+        <v>5336</v>
+      </c>
+      <c r="E83" s="44">
+        <v>5337</v>
+      </c>
+      <c r="F83" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G83" s="31">
-        <v>5340</v>
-      </c>
-      <c r="H83" s="31">
-        <v>5341</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="G83" s="44">
+        <v>5334</v>
+      </c>
+      <c r="H83" s="44">
+        <v>5335</v>
+      </c>
+      <c r="J83" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="K83" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="L83" s="44">
+        <v>5336</v>
+      </c>
+      <c r="M83" s="44">
+        <v>5337</v>
+      </c>
+      <c r="N83" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="O83" s="44">
+        <v>5334</v>
+      </c>
+      <c r="P83" s="44">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="32" t="s">
         <v>38</v>
       </c>
@@ -4298,7 +4397,7 @@
         <v>7607</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:16">
       <c r="A85" s="32" t="s">
         <v>38</v>
       </c>
@@ -4324,7 +4423,7 @@
         <v>5202</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:16">
       <c r="A86" s="32" t="s">
         <v>38</v>
       </c>
@@ -4350,7 +4449,7 @@
         <v>5797</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:16">
       <c r="A87" s="32" t="s">
         <v>38</v>
       </c>
@@ -4376,7 +4475,7 @@
         <v>5798</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:16">
       <c r="A88" s="32" t="s">
         <v>38</v>
       </c>
@@ -4402,33 +4501,33 @@
         <v>5783</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="60" t="s">
+    <row r="89" spans="1:16">
+      <c r="A89" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="61" t="s">
+      <c r="B89" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="C89" s="61" t="s">
+      <c r="C89" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D89" s="61">
+      <c r="D89" s="39">
         <v>16895</v>
       </c>
-      <c r="E89" s="61">
+      <c r="E89" s="39">
         <v>8155</v>
       </c>
-      <c r="F89" s="61" t="s">
+      <c r="F89" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G89" s="61">
+      <c r="G89" s="39">
         <v>8166</v>
       </c>
-      <c r="H89" s="61">
+      <c r="H89" s="39">
         <v>7603</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:16">
       <c r="A90" s="31" t="s">
         <v>39</v>
       </c>
@@ -4454,7 +4553,7 @@
         <v>5923</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:16">
       <c r="A91" s="31" t="s">
         <v>39</v>
       </c>
@@ -4480,7 +4579,7 @@
         <v>5741</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:16">
       <c r="A92" s="31" t="s">
         <v>39</v>
       </c>
@@ -4509,7 +4608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:16">
       <c r="A93" s="31" t="s">
         <v>39</v>
       </c>
@@ -4535,33 +4634,33 @@
         <v>8253</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:16">
       <c r="A94" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="61" t="s">
+      <c r="B94" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="C94" s="62" t="s">
+      <c r="C94" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D94" s="62">
+      <c r="D94" s="40">
         <v>8253</v>
       </c>
-      <c r="E94" s="62">
+      <c r="E94" s="40">
         <v>8262</v>
       </c>
-      <c r="F94" s="62" t="s">
+      <c r="F94" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G94" s="62">
+      <c r="G94" s="40">
         <v>8263</v>
       </c>
-      <c r="H94" s="62">
+      <c r="H94" s="40">
         <v>8253</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:16">
       <c r="A95" s="31" t="s">
         <v>39</v>
       </c>
@@ -4587,7 +4686,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:16">
       <c r="A96" s="31" t="s">
         <v>39</v>
       </c>
@@ -4747,25 +4846,25 @@
       <c r="A102" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="61" t="s">
+      <c r="B102" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="C102" s="62" t="s">
+      <c r="C102" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D102" s="62">
+      <c r="D102" s="40">
         <v>6009</v>
       </c>
-      <c r="E102" s="62">
+      <c r="E102" s="40">
         <v>9832</v>
       </c>
-      <c r="F102" s="62" t="s">
+      <c r="F102" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G102" s="62">
+      <c r="G102" s="40">
         <v>9835</v>
       </c>
-      <c r="H102" s="62">
+      <c r="H102" s="40">
         <v>6010</v>
       </c>
     </row>
@@ -4820,28 +4919,14 @@
       <c r="H104" s="31">
         <v>6180</v>
       </c>
-      <c r="J104" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="K104" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="L104" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="M104" s="62">
-        <v>6001</v>
-      </c>
-      <c r="N104" s="62">
-        <v>7699</v>
-      </c>
-      <c r="O104" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="P104" s="62">
-        <v>7699</v>
-      </c>
-      <c r="Q104" s="62">
+      <c r="J104" s="39"/>
+      <c r="K104" s="40"/>
+      <c r="L104" s="40"/>
+      <c r="M104" s="40"/>
+      <c r="N104" s="40"/>
+      <c r="O104" s="40"/>
+      <c r="P104" s="40"/>
+      <c r="Q104" s="40">
         <v>6001</v>
       </c>
     </row>
@@ -5053,7 +5138,7 @@
         <v>9394</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:15">
       <c r="A113" s="31" t="s">
         <v>77</v>
       </c>
@@ -5079,7 +5164,7 @@
         <v>9402</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:15">
       <c r="A114" s="31" t="s">
         <v>77</v>
       </c>
@@ -5105,7 +5190,7 @@
         <v>9402</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:15">
       <c r="A115" s="31" t="s">
         <v>77</v>
       </c>
@@ -5131,33 +5216,52 @@
         <v>27466</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:15">
       <c r="A116" s="31" t="s">
         <v>78</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D116" s="31">
+      <c r="D116" s="44">
+        <v>16903</v>
+      </c>
+      <c r="E116" s="44">
         <v>16672</v>
       </c>
-      <c r="E116" s="31">
+      <c r="F116" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G116" s="44">
+        <v>16670</v>
+      </c>
+      <c r="H116" s="44">
+        <v>5561</v>
+      </c>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="K116" s="44">
+        <v>16672</v>
+      </c>
+      <c r="L116" s="44">
         <v>16671</v>
       </c>
-      <c r="F116" s="31" t="s">
+      <c r="M116" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G116" s="37">
+      <c r="N116" s="44">
         <v>16669</v>
       </c>
-      <c r="H116" s="37">
+      <c r="O116" s="44">
         <v>16670</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:15">
       <c r="A117" s="31" t="s">
         <v>78</v>
       </c>
@@ -5183,7 +5287,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:15">
       <c r="A118" s="31" t="s">
         <v>78</v>
       </c>
@@ -5209,7 +5313,7 @@
         <v>27336</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:15">
       <c r="A119" s="31" t="s">
         <v>78</v>
       </c>
@@ -5235,7 +5339,7 @@
         <v>5564</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:15">
       <c r="A120" s="31" t="s">
         <v>78</v>
       </c>
@@ -5261,7 +5365,7 @@
         <v>5496</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:15">
       <c r="A121" s="31" t="s">
         <v>78</v>
       </c>
@@ -5287,7 +5391,7 @@
         <v>16245</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:15">
       <c r="A122" s="31" t="s">
         <v>79</v>
       </c>
@@ -5313,7 +5417,7 @@
         <v>9482</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:15">
       <c r="A123" s="31" t="s">
         <v>79</v>
       </c>
@@ -5339,7 +5443,7 @@
         <v>9388</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:15">
       <c r="A124" s="31" t="s">
         <v>79</v>
       </c>
@@ -5365,7 +5469,7 @@
         <v>9566</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:15">
       <c r="A125" s="31" t="s">
         <v>79</v>
       </c>
@@ -5391,7 +5495,7 @@
         <v>9526</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:15">
       <c r="A126" s="31" t="s">
         <v>79</v>
       </c>
@@ -5417,7 +5521,7 @@
         <v>9532</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:15">
       <c r="A127" s="31" t="s">
         <v>79</v>
       </c>
@@ -5443,7 +5547,7 @@
         <v>10499</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:15">
       <c r="A128" s="31" t="s">
         <v>79</v>
       </c>
@@ -5789,323 +5893,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0181EA-A226-49EB-8E28-110DF53E79A2}">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="7">
-        <v>42683.392647563029</v>
-      </c>
-      <c r="D2" s="8">
-        <v>42361.739519105482</v>
-      </c>
-      <c r="E2">
-        <v>46390.455000000002</v>
-      </c>
-      <c r="F2">
-        <v>42261.995000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3" s="8">
-        <v>29822.770682142334</v>
-      </c>
-      <c r="D3" s="8">
-        <v>38481.345448635933</v>
-      </c>
-      <c r="E3">
-        <v>34108.195</v>
-      </c>
-      <c r="F3">
-        <v>37853.305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="8">
-        <v>6161.91</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5398.893</v>
-      </c>
-      <c r="E4">
-        <v>5068.9449999999997</v>
-      </c>
-      <c r="F4">
-        <v>4679.07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="8">
-        <v>31830.447035011635</v>
-      </c>
-      <c r="D5" s="8">
-        <v>25750.415741676497</v>
-      </c>
-      <c r="E5">
-        <v>30339.095000000001</v>
-      </c>
-      <c r="F5">
-        <v>23681.424999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" s="8">
-        <v>9046.0159999999996</v>
-      </c>
-      <c r="D6" s="8">
-        <v>18011.210000000003</v>
-      </c>
-      <c r="E6">
-        <v>7492.9000000000005</v>
-      </c>
-      <c r="F6">
-        <v>14479.73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="8">
-        <v>5586.17926056338</v>
-      </c>
-      <c r="D7" s="8">
-        <v>3777.4891558441559</v>
-      </c>
-      <c r="E7">
-        <v>5664.4049999999997</v>
-      </c>
-      <c r="F7">
-        <v>3371.0150000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" s="8">
-        <v>39666.11</v>
-      </c>
-      <c r="D8" s="8">
-        <v>23632.623500000002</v>
-      </c>
-      <c r="E8">
-        <v>40286.86</v>
-      </c>
-      <c r="F8">
-        <v>25851.360000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="8">
-        <v>26002.76</v>
-      </c>
-      <c r="D9" s="8">
-        <v>41385.249999999993</v>
-      </c>
-      <c r="E9">
-        <v>26395.399999999998</v>
-      </c>
-      <c r="F9">
-        <v>37153.885000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" s="8">
-        <v>17036.149999999998</v>
-      </c>
-      <c r="D10" s="8">
-        <v>16205.199999999999</v>
-      </c>
-      <c r="E10">
-        <v>19066.805</v>
-      </c>
-      <c r="F10">
-        <v>18439.849999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="8">
-        <v>23422.538</v>
-      </c>
-      <c r="D11" s="8">
-        <v>22236.972206355833</v>
-      </c>
-      <c r="E11">
-        <v>21544.16</v>
-      </c>
-      <c r="F11">
-        <v>20743.954999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" s="8">
-        <v>22780.917875649262</v>
-      </c>
-      <c r="D12" s="8">
-        <v>22987.046838345865</v>
-      </c>
-      <c r="E12">
-        <v>20684.810000000001</v>
-      </c>
-      <c r="F12">
-        <v>20949.785</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C13" s="8">
-        <v>15450.310000000001</v>
-      </c>
-      <c r="D13" s="8">
-        <v>14407.800000000001</v>
-      </c>
-      <c r="E13">
-        <v>13419.27</v>
-      </c>
-      <c r="F13">
-        <v>15222.730000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C14" s="8">
-        <v>14876.543412322393</v>
-      </c>
-      <c r="D14" s="8">
-        <v>12603.602190887545</v>
-      </c>
-      <c r="E14">
-        <v>12740.73</v>
-      </c>
-      <c r="F14">
-        <v>12737.64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="F20" s="19"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226F8A70-0562-4635-9D6B-BED2F05B1039}">
   <dimension ref="A1:T28"/>
   <sheetViews>
@@ -6139,18 +5926,18 @@
       <c r="F1" t="s">
         <v>321</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="8" t="s">
@@ -6171,8 +5958,8 @@
       <c r="F2">
         <v>31700.909999999996</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
@@ -6203,7 +5990,7 @@
       <c r="F3">
         <v>33067.789999999994</v>
       </c>
-      <c r="I3" s="38"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="13"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -6235,7 +6022,7 @@
       <c r="F4">
         <v>4411.42</v>
       </c>
-      <c r="I4" s="38"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="13"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -6267,7 +6054,7 @@
       <c r="F5">
         <v>33585.645000000004</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="13"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
@@ -6299,7 +6086,7 @@
       <c r="F6">
         <v>9174.02</v>
       </c>
-      <c r="I6" s="38"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="13"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
@@ -6331,7 +6118,7 @@
       <c r="F7">
         <v>6022.2249999999995</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="13"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -6363,7 +6150,7 @@
       <c r="F8">
         <v>33242.775000000001</v>
       </c>
-      <c r="I8" s="38"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="13"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
@@ -6395,7 +6182,7 @@
       <c r="F9">
         <v>25381.729999999996</v>
       </c>
-      <c r="I9" s="38"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="13"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -6427,7 +6214,7 @@
       <c r="F10">
         <v>19867.66</v>
       </c>
-      <c r="I10" s="38"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="13"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
@@ -6459,7 +6246,7 @@
       <c r="F11">
         <v>18677.57</v>
       </c>
-      <c r="I11" s="38"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="13"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
@@ -6491,7 +6278,7 @@
       <c r="F12">
         <v>18128.565000000002</v>
       </c>
-      <c r="I12" s="38"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="13"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -6523,7 +6310,7 @@
       <c r="F13">
         <v>11400.324999999999</v>
       </c>
-      <c r="I13" s="38"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="13"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -6555,7 +6342,7 @@
       <c r="F14">
         <v>11086.87</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="13"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
@@ -6569,7 +6356,7 @@
       <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="I15" s="38"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="13"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
@@ -6583,7 +6370,7 @@
       <c r="T15" s="19"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="I16" s="38"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="13"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -6597,7 +6384,7 @@
       <c r="T16" s="19"/>
     </row>
     <row r="17" spans="9:20">
-      <c r="I17" s="38"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="13"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -6611,7 +6398,7 @@
       <c r="T17" s="19"/>
     </row>
     <row r="18" spans="9:20">
-      <c r="I18" s="38"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="13"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
@@ -6625,7 +6412,7 @@
       <c r="T18" s="19"/>
     </row>
     <row r="19" spans="9:20">
-      <c r="I19" s="38"/>
+      <c r="I19" s="47"/>
       <c r="J19" s="13"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -6639,7 +6426,7 @@
       <c r="T19" s="19"/>
     </row>
     <row r="20" spans="9:20">
-      <c r="I20" s="38"/>
+      <c r="I20" s="47"/>
       <c r="J20" s="13"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -6653,7 +6440,7 @@
       <c r="T20" s="19"/>
     </row>
     <row r="21" spans="9:20">
-      <c r="I21" s="38"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="13"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -6667,7 +6454,7 @@
       <c r="T21" s="19"/>
     </row>
     <row r="22" spans="9:20">
-      <c r="I22" s="38"/>
+      <c r="I22" s="47"/>
       <c r="J22" s="13"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -6681,7 +6468,7 @@
       <c r="T22" s="19"/>
     </row>
     <row r="23" spans="9:20">
-      <c r="I23" s="38"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="13"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -6695,7 +6482,7 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="9:20">
-      <c r="I24" s="38"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="13"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -6709,7 +6496,7 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="9:20">
-      <c r="I25" s="38"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="13"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
@@ -6723,7 +6510,7 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="9:20">
-      <c r="I26" s="38"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="13"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -6737,7 +6524,7 @@
       <c r="T26" s="19"/>
     </row>
     <row r="27" spans="9:20">
-      <c r="I27" s="38"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="13"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
@@ -6751,7 +6538,7 @@
       <c r="T27" s="19"/>
     </row>
     <row r="28" spans="9:20">
-      <c r="I28" s="38"/>
+      <c r="I28" s="47"/>
       <c r="J28" s="13"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
@@ -6790,12 +6577,329 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0181EA-A226-49EB-8E28-110DF53E79A2}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="7">
+        <v>42683.392647563029</v>
+      </c>
+      <c r="D2" s="8">
+        <v>42361.739519105482</v>
+      </c>
+      <c r="E2">
+        <v>46390.455000000002</v>
+      </c>
+      <c r="F2">
+        <v>42261.995000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="8">
+        <v>29822.770682142334</v>
+      </c>
+      <c r="D3" s="8">
+        <v>38481.345448635933</v>
+      </c>
+      <c r="E3">
+        <v>34108.195</v>
+      </c>
+      <c r="F3">
+        <v>37853.305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6161.91</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5398.893</v>
+      </c>
+      <c r="E4">
+        <v>5068.9449999999997</v>
+      </c>
+      <c r="F4">
+        <v>4679.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="8">
+        <v>31830.447035011635</v>
+      </c>
+      <c r="D5" s="8">
+        <v>25750.415741676497</v>
+      </c>
+      <c r="E5">
+        <v>30339.095000000001</v>
+      </c>
+      <c r="F5">
+        <v>23681.424999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="8">
+        <v>9046.0159999999996</v>
+      </c>
+      <c r="D6" s="8">
+        <v>18011.210000000003</v>
+      </c>
+      <c r="E6">
+        <v>7492.9000000000005</v>
+      </c>
+      <c r="F6">
+        <v>14479.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5586.17926056338</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3777.4891558441559</v>
+      </c>
+      <c r="E7">
+        <v>5664.4049999999997</v>
+      </c>
+      <c r="F7">
+        <v>3371.0150000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="8">
+        <v>39666.11</v>
+      </c>
+      <c r="D8" s="8">
+        <v>23632.623500000002</v>
+      </c>
+      <c r="E8">
+        <v>40286.86</v>
+      </c>
+      <c r="F8">
+        <v>25851.360000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="8">
+        <v>26002.76</v>
+      </c>
+      <c r="D9" s="8">
+        <v>41385.249999999993</v>
+      </c>
+      <c r="E9">
+        <v>26395.399999999998</v>
+      </c>
+      <c r="F9">
+        <v>37153.885000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="8">
+        <v>17036.149999999998</v>
+      </c>
+      <c r="D10" s="8">
+        <v>16205.199999999999</v>
+      </c>
+      <c r="E10">
+        <v>19066.805</v>
+      </c>
+      <c r="F10">
+        <v>18439.849999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="8">
+        <v>23422.538</v>
+      </c>
+      <c r="D11" s="8">
+        <v>22236.972206355833</v>
+      </c>
+      <c r="E11">
+        <v>21544.16</v>
+      </c>
+      <c r="F11">
+        <v>20743.954999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="8">
+        <v>22780.917875649262</v>
+      </c>
+      <c r="D12" s="8">
+        <v>22987.046838345865</v>
+      </c>
+      <c r="E12">
+        <v>20684.810000000001</v>
+      </c>
+      <c r="F12">
+        <v>20949.785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="8">
+        <v>15450.310000000001</v>
+      </c>
+      <c r="D13" s="8">
+        <v>14407.800000000001</v>
+      </c>
+      <c r="E13">
+        <v>13419.27</v>
+      </c>
+      <c r="F13">
+        <v>15222.730000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="8">
+        <v>14876.543412322393</v>
+      </c>
+      <c r="D14" s="8">
+        <v>12603.602190887545</v>
+      </c>
+      <c r="E14">
+        <v>12740.73</v>
+      </c>
+      <c r="F14">
+        <v>12737.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="F20" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9320DA-452C-4767-B135-0406F64965CB}">
   <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView topLeftCell="F78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O100" sqref="O100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6823,18 +6927,18 @@
     <row r="1" spans="1:15">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
       <c r="N1" s="14" t="s">
         <v>85</v>
       </c>
@@ -6843,26 +6947,26 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="55" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="N2" s="1" t="s">
         <v>88</v>
       </c>
@@ -6871,8 +6975,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
@@ -6911,7 +7015,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -6957,7 +7061,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="42"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="15" t="s">
         <v>55</v>
       </c>
@@ -7001,7 +7105,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="51" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -7047,7 +7151,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="42"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
@@ -7091,7 +7195,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="51" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -7137,7 +7241,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
@@ -7181,7 +7285,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="51" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -7227,7 +7331,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="42"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="15" t="s">
         <v>61</v>
       </c>
@@ -7271,7 +7375,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="51" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -7317,7 +7421,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="42"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="15" t="s">
         <v>61</v>
       </c>
@@ -7361,7 +7465,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="51" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -7407,7 +7511,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="42"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -7451,7 +7555,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="51" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -7497,7 +7601,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="42"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="15" t="s">
         <v>61</v>
       </c>
@@ -7541,7 +7645,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -7587,7 +7691,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="42"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="15" t="s">
         <v>66</v>
       </c>
@@ -7631,7 +7735,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="51" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -7677,7 +7781,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="42"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="15" t="s">
         <v>66</v>
       </c>
@@ -7721,7 +7825,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="51" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -7767,7 +7871,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="42"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="15" t="s">
         <v>66</v>
       </c>
@@ -7811,7 +7915,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="51" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -7857,7 +7961,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="42"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="15" t="s">
         <v>66</v>
       </c>
@@ -7901,7 +8005,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="51" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -7947,7 +8051,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="42"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="15" t="s">
         <v>61</v>
       </c>
@@ -7991,7 +8095,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="51" t="s">
         <v>71</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -8037,7 +8141,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="43"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>61</v>
       </c>
@@ -8091,18 +8195,18 @@
     <row r="31" spans="1:15">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
       <c r="N31" s="1" t="s">
         <v>135</v>
       </c>
@@ -8111,26 +8215,26 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="50" t="s">
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="61"/>
       <c r="N32" s="1" t="s">
         <v>137</v>
       </c>
@@ -8139,8 +8243,8 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="47"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="3" t="s">
         <v>49</v>
       </c>
@@ -8179,7 +8283,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -8225,7 +8329,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="42"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="15" t="s">
         <v>55</v>
       </c>
@@ -8269,7 +8373,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="51" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -8315,7 +8419,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="42"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="15" t="s">
         <v>18</v>
       </c>
@@ -8359,7 +8463,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="51" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -8405,7 +8509,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="42"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="15" t="s">
         <v>18</v>
       </c>
@@ -8449,7 +8553,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="51" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -8495,7 +8599,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="42"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="15" t="s">
         <v>61</v>
       </c>
@@ -8539,7 +8643,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="51" t="s">
         <v>62</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -8585,7 +8689,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="42"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="15" t="s">
         <v>61</v>
       </c>
@@ -8629,7 +8733,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="51" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -8675,7 +8779,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="42"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="15" t="s">
         <v>18</v>
       </c>
@@ -8719,7 +8823,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="51" t="s">
         <v>64</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -8765,7 +8869,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="42"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="15" t="s">
         <v>61</v>
       </c>
@@ -8809,7 +8913,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -8855,7 +8959,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="42"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="15" t="s">
         <v>66</v>
       </c>
@@ -8899,7 +9003,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="51" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -8945,7 +9049,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="42"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="15" t="s">
         <v>66</v>
       </c>
@@ -8989,7 +9093,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="51" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="15" t="s">
@@ -9035,7 +9139,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="42"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="15" t="s">
         <v>66</v>
       </c>
@@ -9079,7 +9183,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="51" t="s">
         <v>69</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -9125,7 +9229,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="42"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="15" t="s">
         <v>66</v>
       </c>
@@ -9169,7 +9273,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="51" t="s">
         <v>70</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -9215,7 +9319,7 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="42"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="15" t="s">
         <v>61</v>
       </c>
@@ -9259,7 +9363,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="51" t="s">
         <v>71</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -9305,7 +9409,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="43"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="21" t="s">
         <v>61</v>
       </c>

--- a/ta/指派結果/TRTS-4S屏柵線.xlsx
+++ b/ta/指派結果/TRTS-4S屏柵線.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\指派結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BDE360-85B6-4C7C-856B-19F7543B4818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63CBBF3-6833-4917-B4C4-106527408DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="363">
   <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1219,6 +1219,10 @@
   </si>
   <si>
     <t>國一平面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1789,13 +1793,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1819,12 +1820,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1833,6 +1828,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2174,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B91B70-CCE3-4F38-82D1-372C96A2E9C6}">
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="K128" sqref="K128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L136" sqref="L136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5601,7 +5605,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="31" t="s">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="B130" s="31" t="s">
         <v>277</v>
@@ -6553,6 +6557,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -6565,11 +6574,6 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6927,18 +6931,18 @@
     <row r="1" spans="1:15">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
       <c r="N1" s="14" t="s">
         <v>85</v>
       </c>
@@ -6947,26 +6951,26 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="64" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
       <c r="N2" s="1" t="s">
         <v>88</v>
       </c>
@@ -6975,8 +6979,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
@@ -8141,7 +8145,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="52"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="21" t="s">
         <v>61</v>
       </c>
@@ -8195,18 +8199,18 @@
     <row r="31" spans="1:15">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
       <c r="N31" s="1" t="s">
         <v>135</v>
       </c>
@@ -8215,26 +8219,26 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="59" t="s">
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="61"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
       <c r="N32" s="1" t="s">
         <v>137</v>
       </c>
@@ -8243,8 +8247,8 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="56"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="3" t="s">
         <v>49</v>
       </c>
@@ -9409,7 +9413,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="52"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="21" t="s">
         <v>61</v>
       </c>
@@ -10229,6 +10233,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A2:A3"/>
@@ -10241,30 +10269,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
